--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SpParams_default" sheetId="1" state="visible" r:id="rId3"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Full1!$A$1:$F$18</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final!$A$1:$AE$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final_imputed!$A$1:$AD$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final!$A$1:$AE$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final_imputed!$A$1:$AD$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="142">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -976,7 +976,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2852,7 +2852,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S12" activeCellId="0" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7039,10 +7039,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7165,7 +7165,7 @@
       <c r="AE1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="XFA1" s="0"/>
+      <c r="XFA1" s="2"/>
       <c r="XFB1" s="2"/>
       <c r="XFC1" s="2"/>
       <c r="XFD1" s="2"/>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>1500</v>
@@ -8131,402 +8131,458 @@
         <v>132</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.80621691921868</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>8.2</v>
-      </c>
+        <v>40.13</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="8" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>1.482</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="13" t="n">
         <f aca="false">1/I15</f>
-        <v>0.67476383265857</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K15" s="8" t="n">
         <f aca="false">100*((1/H15) - (1/1.53))</f>
-        <v>113.211951447246</v>
+        <v>95.9308454564622</v>
       </c>
       <c r="L15" s="8" t="n">
         <f aca="false">I15*(M15-K15*(1- (1/I15)))</f>
-        <v>115.388832426428</v>
+        <v>180.034577271769</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>114.680832</v>
+        <v>152</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="4" t="n">
-        <v>2980</v>
-      </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AB15" s="14" t="n">
-        <f aca="false">AA15</f>
-        <v>-3</v>
-      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="12" t="n">
-        <v>0.00705467372114286</v>
-      </c>
+      <c r="AD15" s="12"/>
       <c r="AE15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.57561414355</v>
+        <v>5.80621691921868</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>11.8</v>
+        <v>8.2</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="8" t="n">
-        <v>0.6077</v>
+        <v>0.56</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>1.96422645197988</v>
+        <v>1.482</v>
       </c>
       <c r="J16" s="13" t="n">
         <f aca="false">1/I16</f>
-        <v>0.509106268776714</v>
+        <v>0.67476383265857</v>
       </c>
       <c r="K16" s="8" t="n">
         <f aca="false">100*((1/H16) - (1/1.53))</f>
-        <v>99.1954019279809</v>
+        <v>113.211951447246</v>
       </c>
       <c r="L16" s="8" t="n">
         <f aca="false">I16*(M16-K16*(1- (1/I16)))</f>
-        <v>151.905866018979</v>
+        <v>115.388832426428</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>126.030629626838</v>
-      </c>
-      <c r="N16" s="12" t="n">
-        <v>0.4455</v>
-      </c>
-      <c r="O16" s="14" t="n">
-        <v>-1.5011</v>
-      </c>
-      <c r="P16" s="14" t="n">
-        <v>5.31784425645142</v>
-      </c>
+        <v>114.680832</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="4" t="n">
-        <v>1320</v>
-      </c>
-      <c r="V16" s="8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W16" s="5" t="n">
-        <v>-4.2680973065</v>
-      </c>
-      <c r="X16" s="5" t="n">
-        <v>-4.671333333</v>
-      </c>
-      <c r="Y16" s="5" t="n">
-        <v>-5.306472053</v>
-      </c>
-      <c r="Z16" s="5" t="n">
-        <v>59.44</v>
-      </c>
+        <v>2980</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="14" t="n">
-        <v>-2.1239</v>
-      </c>
-      <c r="AB16" s="5" t="n">
-        <v>-1.575</v>
+        <v>-3</v>
+      </c>
+      <c r="AB16" s="14" t="n">
+        <f aca="false">AA16</f>
+        <v>-3</v>
       </c>
       <c r="AC16" s="8"/>
       <c r="AD16" s="12" t="n">
-        <v>0.00203125</v>
+        <v>0.00705467372114286</v>
       </c>
       <c r="AE16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.82033304119194</v>
+        <v>4.57561414355</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="8" t="n">
-        <v>0.73</v>
+        <v>0.6077</v>
       </c>
       <c r="I17" s="8" t="n">
-        <v>2.28945240589391</v>
+        <v>1.96422645197988</v>
       </c>
       <c r="J17" s="13" t="n">
         <f aca="false">1/I17</f>
-        <v>0.436785668671524</v>
+        <v>0.509106268776714</v>
       </c>
       <c r="K17" s="8" t="n">
         <f aca="false">100*((1/H17) - (1/1.53))</f>
-        <v>71.62682424568</v>
+        <v>99.1954019279809</v>
       </c>
       <c r="L17" s="8" t="n">
         <f aca="false">I17*(M17-K17*(1- (1/I17)))</f>
-        <v>128.651567823179</v>
+        <v>151.905866018979</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>96.5344149999999</v>
+        <v>126.030629626838</v>
       </c>
       <c r="N17" s="12" t="n">
-        <v>0.559481945361776</v>
-      </c>
-      <c r="O17" s="5" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="P17" s="5" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>0.24</v>
-      </c>
+        <v>0.4455</v>
+      </c>
+      <c r="O17" s="14" t="n">
+        <v>-1.5011</v>
+      </c>
+      <c r="P17" s="14" t="n">
+        <v>5.31784425645142</v>
+      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="4" t="n">
-        <v>2436.47453228934</v>
-      </c>
-      <c r="V17" s="10" t="n">
-        <v>0.2723431183</v>
-      </c>
-      <c r="W17" s="11" t="n">
-        <v>-4.048237444</v>
-      </c>
-      <c r="X17" s="11" t="n">
-        <v>-7.936104741</v>
-      </c>
-      <c r="Y17" s="11" t="n">
-        <v>-11.82397204</v>
-      </c>
-      <c r="Z17" s="11" t="n">
-        <v>13.34416461</v>
+        <v>1320</v>
+      </c>
+      <c r="V17" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>-4.2680973065</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>-4.671333333</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>-5.306472053</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>59.44</v>
       </c>
       <c r="AA17" s="14" t="n">
-        <v>-3.31752191897109</v>
+        <v>-2.1239</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>-2.3</v>
+        <v>-1.575</v>
       </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="12" t="n">
-        <v>0.0079936</v>
+        <v>0.00203125</v>
       </c>
       <c r="AE17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.88</v>
+        <v>4.82033304119194</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13.8945</v>
+        <v>12.1</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="4" t="n">
-        <v>109.70364178</v>
-      </c>
+      <c r="G18" s="12"/>
       <c r="H18" s="8" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>1.80587174083789</v>
+        <v>2.28945240589391</v>
       </c>
       <c r="J18" s="13" t="n">
         <f aca="false">1/I18</f>
-        <v>0.553749182395434</v>
+        <v>0.436785668671524</v>
       </c>
       <c r="K18" s="8" t="n">
         <f aca="false">100*((1/H18) - (1/1.53))</f>
-        <v>45.7516339869281</v>
+        <v>71.62682424568</v>
       </c>
       <c r="L18" s="8" t="n">
         <f aca="false">I18*(M18-K18*(1- (1/I18)))</f>
-        <v>131.352495724182</v>
+        <v>128.651567823179</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>93.1530411862769</v>
+        <v>96.5344149999999</v>
       </c>
       <c r="N18" s="12" t="n">
-        <v>0.567636358187107</v>
+        <v>0.559481945361776</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>-1.16</v>
+        <v>-2.37</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>19.26</v>
+        <v>17.23</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="4" t="n">
-        <v>1154.78476961139</v>
+        <v>2436.47453228934</v>
       </c>
       <c r="V18" s="10" t="n">
-        <v>0.16</v>
+        <v>0.2723431183</v>
       </c>
       <c r="W18" s="11" t="n">
-        <v>-4.93</v>
+        <v>-4.048237444</v>
       </c>
       <c r="X18" s="11" t="n">
-        <v>-7.13</v>
+        <v>-7.936104741</v>
       </c>
       <c r="Y18" s="11" t="n">
-        <v>-9.33</v>
+        <v>-11.82397204</v>
       </c>
       <c r="Z18" s="11" t="n">
-        <v>24.98</v>
+        <v>13.34416461</v>
       </c>
       <c r="AA18" s="14" t="n">
-        <v>-2.98834690821897</v>
+        <v>-3.31752191897109</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>-3.05</v>
+        <v>-2.3</v>
       </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="12" t="n">
-        <v>0.001659</v>
-      </c>
-      <c r="AE18" s="8" t="n">
-        <v>0.205</v>
-      </c>
+        <v>0.0079936</v>
+      </c>
+      <c r="AE18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>4.8305439331</v>
+        <v>6.88</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12.75</v>
+        <v>13.8945</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="n">
+        <v>109.70364178</v>
+      </c>
       <c r="H19" s="8" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>3.1146926282787</v>
+        <v>1.80587174083789</v>
       </c>
       <c r="J19" s="13" t="n">
         <f aca="false">1/I19</f>
-        <v>0.321058967719919</v>
+        <v>0.553749182395434</v>
       </c>
       <c r="K19" s="8" t="n">
         <f aca="false">100*((1/H19) - (1/1.53))</f>
-        <v>77.4976657329599</v>
+        <v>45.7516339869281</v>
       </c>
       <c r="L19" s="8" t="n">
         <f aca="false">I19*(M19-K19*(1- (1/I19)))</f>
-        <v>304.589805648626</v>
+        <v>131.352495724182</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>150.407633751591</v>
+        <v>93.1530411862769</v>
       </c>
       <c r="N19" s="12" t="n">
-        <v>0.367287331287258</v>
-      </c>
-      <c r="O19" s="14" t="n">
-        <v>-1.42274895336093</v>
-      </c>
-      <c r="P19" s="14" t="n">
-        <v>6.71280382204902</v>
-      </c>
-      <c r="Q19" s="7"/>
+        <v>0.567636358187107</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>0.17</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="4"/>
+      <c r="U19" s="4" t="n">
+        <v>1154.78476961139</v>
+      </c>
       <c r="V19" s="10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W19" s="11" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="X19" s="11" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="Y19" s="11" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="Z19" s="11" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="AA19" s="14" t="n">
+        <v>-2.98834690821897</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="12" t="n">
+        <v>0.001659</v>
+      </c>
+      <c r="AE19" s="8" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>4.8305439331</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3.1146926282787</v>
+      </c>
+      <c r="J20" s="13" t="n">
+        <f aca="false">1/I20</f>
+        <v>0.321058967719919</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <f aca="false">100*((1/H20) - (1/1.53))</f>
+        <v>77.4976657329599</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <f aca="false">I20*(M20-K20*(1- (1/I20)))</f>
+        <v>304.589805648626</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>150.407633751591</v>
+      </c>
+      <c r="N20" s="12" t="n">
+        <v>0.367287331287258</v>
+      </c>
+      <c r="O20" s="14" t="n">
+        <v>-1.42274895336093</v>
+      </c>
+      <c r="P20" s="14" t="n">
+        <v>6.71280382204902</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="10" t="n">
         <v>0.3134571207</v>
       </c>
-      <c r="W19" s="11" t="n">
+      <c r="W20" s="11" t="n">
         <v>-5.713847822</v>
       </c>
-      <c r="X19" s="11" t="n">
+      <c r="X20" s="11" t="n">
         <v>-10.35976827</v>
       </c>
-      <c r="Y19" s="11" t="n">
+      <c r="Y20" s="11" t="n">
         <v>-15.00568872</v>
       </c>
-      <c r="Z19" s="11" t="n">
+      <c r="Z20" s="11" t="n">
         <v>11.102207209</v>
       </c>
-      <c r="AA19" s="14" t="n">
+      <c r="AA20" s="14" t="n">
         <v>-1.97322438194395</v>
       </c>
-      <c r="AB19" s="14" t="n">
-        <f aca="false">AA19</f>
+      <c r="AB20" s="14" t="n">
+        <f aca="false">AA20</f>
         <v>-1.97322438194395</v>
       </c>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+    </row>
     <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AE19">
-    <sortState ref="A2:AE19">
-      <sortCondition ref="A2:A19" customList=""/>
+  <autoFilter ref="A1:AE20">
+    <sortState ref="A2:AE20">
+      <sortCondition ref="A2:A20" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8545,14 +8601,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y15" activeCellId="0" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9960,7 +10016,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="16" t="n">
         <f aca="false">EXP(LN(C15)/1.4)</f>
@@ -9974,487 +10030,584 @@
         <v>2204.21501725585</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.80621691921868</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>8.2</v>
+        <v>40.13</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>42.42</v>
       </c>
       <c r="G15" s="17" t="n">
-        <v>55.01</v>
+        <v>25.9</v>
       </c>
       <c r="H15" s="17" t="n">
-        <v>157.6</v>
+        <v>52.16</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>1.482</v>
+        <v>1.5</v>
       </c>
       <c r="K15" s="13" t="n">
         <f aca="false">1/J15</f>
-        <v>0.67476383265857</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L15" s="4" t="n">
         <f aca="false">100*((1/I15) - (1/1.53))</f>
-        <v>113.211951447246</v>
+        <v>95.9308454564622</v>
       </c>
       <c r="M15" s="4" t="n">
         <f aca="false">J15*(N15-L15*(1- (1/J15)))</f>
-        <v>115.388832426428</v>
+        <v>180.698858271769</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>114.680832</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>135</v>
+        <v>152.442854</v>
+      </c>
+      <c r="O15" s="18" t="n">
+        <v>-1.64</v>
       </c>
       <c r="P15" s="18" t="n">
-        <v>12.6</v>
+        <v>13.57</v>
       </c>
       <c r="Q15" s="19" t="n">
-        <v>0.272</v>
+        <v>0.2609</v>
       </c>
       <c r="R15" s="18" t="n">
         <f aca="false">0.52-4.16*I15</f>
-        <v>-1.8096</v>
+        <v>-2.0592</v>
       </c>
       <c r="S15" s="18" t="n">
         <f aca="false">(1.02*EXP(8.5*I15)- 2.89)^0.5</f>
-        <v>10.7791857028706</v>
+        <v>13.9790658376839</v>
       </c>
       <c r="T15" s="19" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="U15" s="4" t="n">
-        <v>2980</v>
+        <v>0.6096</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>13004</v>
       </c>
       <c r="V15" s="19" t="n">
-        <v>0.3268</v>
+        <v>2.91</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>-5.71</v>
+        <v>-1.215</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>-9.42</v>
+        <v>-2.39</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>-12.64</v>
-      </c>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="24" t="n">
-        <v>-3</v>
+        <v>-4.039</v>
+      </c>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="18" t="n">
+        <v>-1.608</v>
       </c>
       <c r="AB15" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="AC15" s="12" t="n">
-        <v>0.00705467372114286</v>
-      </c>
-      <c r="AD15" s="20" t="n">
-        <v>0.084</v>
+      <c r="AC15" s="21" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="AD15" s="21" t="n">
+        <v>0.3066</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="16" t="n">
         <f aca="false">EXP(LN(C16)/1.4)</f>
-        <v>267.362200013348</v>
+        <v>185.625062808954</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="16" t="n">
         <f aca="false">EXP(LN(C16)/0.95)</f>
-        <v>3773.80066347525</v>
+        <v>2204.21501725585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.57561414355</v>
+        <v>5.80621691921868</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>11.8</v>
+        <v>8.2</v>
       </c>
       <c r="G16" s="17" t="n">
-        <v>54.36</v>
+        <v>55.01</v>
       </c>
       <c r="H16" s="17" t="n">
-        <v>120.6</v>
+        <v>157.6</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>0.6077</v>
+        <v>0.56</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>1.96422645197988</v>
+        <v>1.482</v>
       </c>
       <c r="K16" s="13" t="n">
         <f aca="false">1/J16</f>
-        <v>0.509106268776714</v>
+        <v>0.67476383265857</v>
       </c>
       <c r="L16" s="4" t="n">
         <f aca="false">100*((1/I16) - (1/1.53))</f>
-        <v>99.1954019279809</v>
+        <v>113.211951447246</v>
       </c>
       <c r="M16" s="4" t="n">
         <f aca="false">J16*(N16-L16*(1- (1/J16)))</f>
-        <v>151.905866018979</v>
+        <v>115.388832426428</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>126.030629626838</v>
-      </c>
-      <c r="O16" s="24" t="n">
-        <v>-1.5011</v>
-      </c>
-      <c r="P16" s="24" t="n">
-        <v>5.31784425645142</v>
-      </c>
-      <c r="Q16" s="20" t="n">
-        <v>0.35</v>
+        <v>114.680832</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="18" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q16" s="19" t="n">
+        <v>0.272</v>
       </c>
       <c r="R16" s="18" t="n">
         <f aca="false">0.52-4.16*I16</f>
-        <v>-2.008032</v>
+        <v>-1.8096</v>
       </c>
       <c r="S16" s="18" t="n">
         <f aca="false">(1.02*EXP(8.5*I16)- 2.89)^0.5</f>
-        <v>13.2562652363486</v>
+        <v>10.7791857028706</v>
       </c>
       <c r="T16" s="19" t="n">
-        <v>0.9289</v>
+        <v>0.932</v>
       </c>
       <c r="U16" s="4" t="n">
-        <v>1320</v>
-      </c>
-      <c r="V16" s="5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>-4.2680973065</v>
-      </c>
-      <c r="X16" s="6" t="n">
-        <v>-4.671333333</v>
-      </c>
-      <c r="Y16" s="6" t="n">
-        <v>-5.306472053</v>
-      </c>
-      <c r="Z16" s="4" t="n">
-        <v>59.44</v>
-      </c>
-      <c r="AA16" s="6" t="n">
-        <v>-1.575</v>
+        <v>2980</v>
+      </c>
+      <c r="V16" s="19" t="n">
+        <v>0.3268</v>
+      </c>
+      <c r="W16" s="18" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="X16" s="18" t="n">
+        <v>-9.42</v>
+      </c>
+      <c r="Y16" s="18" t="n">
+        <v>-12.64</v>
+      </c>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="24" t="n">
+        <v>-3</v>
       </c>
       <c r="AB16" s="20" t="n">
         <v>30</v>
       </c>
       <c r="AC16" s="12" t="n">
-        <v>0.00203125</v>
+        <v>0.00705467372114286</v>
       </c>
       <c r="AD16" s="20" t="n">
-        <v>0.158</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="16" t="n">
         <f aca="false">EXP(LN(C17)/1.4)</f>
-        <v>185.625062808954</v>
+        <v>267.362200013348</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D17" s="16" t="n">
         <f aca="false">EXP(LN(C17)/0.95)</f>
-        <v>2204.21501725585</v>
+        <v>3773.80066347525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.82033304119194</v>
+        <v>4.57561414355</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="G17" s="17" t="n">
-        <v>60.11</v>
+        <v>54.36</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>106.37</v>
+        <v>120.6</v>
       </c>
       <c r="I17" s="8" t="n">
-        <v>0.73</v>
+        <v>0.6077</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>2.28945240589391</v>
+        <v>1.96422645197988</v>
       </c>
       <c r="K17" s="13" t="n">
         <f aca="false">1/J17</f>
-        <v>0.436785668671524</v>
+        <v>0.509106268776714</v>
       </c>
       <c r="L17" s="4" t="n">
         <f aca="false">100*((1/I17) - (1/1.53))</f>
-        <v>71.62682424568</v>
+        <v>99.1954019279809</v>
       </c>
       <c r="M17" s="4" t="n">
         <f aca="false">J17*(N17-L17*(1- (1/J17)))</f>
-        <v>128.651567823179</v>
+        <v>151.905866018979</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>96.5344149999999</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>0.24</v>
+        <v>126.030629626838</v>
+      </c>
+      <c r="O17" s="24" t="n">
+        <v>-1.5011</v>
+      </c>
+      <c r="P17" s="24" t="n">
+        <v>5.31784425645142</v>
+      </c>
+      <c r="Q17" s="20" t="n">
+        <v>0.35</v>
       </c>
       <c r="R17" s="18" t="n">
         <f aca="false">0.52-4.16*I17</f>
-        <v>-2.5168</v>
+        <v>-2.008032</v>
       </c>
       <c r="S17" s="18" t="n">
         <f aca="false">(1.02*EXP(8.5*I17)- 2.89)^0.5</f>
-        <v>22.4105630241409</v>
+        <v>13.2562652363486</v>
       </c>
       <c r="T17" s="19" t="n">
-        <v>0.585</v>
+        <v>0.9289</v>
       </c>
       <c r="U17" s="4" t="n">
-        <v>2436.47453228934</v>
-      </c>
-      <c r="V17" s="11" t="n">
-        <v>0.2723431183</v>
-      </c>
-      <c r="W17" s="22" t="n">
-        <v>-4.048237444</v>
-      </c>
-      <c r="X17" s="22" t="n">
-        <v>-7.936104741</v>
-      </c>
-      <c r="Y17" s="22" t="n">
-        <v>-11.82397204</v>
-      </c>
-      <c r="Z17" s="23" t="n">
-        <v>13.34416461</v>
+        <v>1320</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>-4.2680973065</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>-4.671333333</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>-5.306472053</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>59.44</v>
       </c>
       <c r="AA17" s="6" t="n">
-        <v>-2.3</v>
+        <v>-1.575</v>
       </c>
       <c r="AB17" s="20" t="n">
         <v>30</v>
       </c>
       <c r="AC17" s="12" t="n">
-        <v>0.0079936</v>
+        <v>0.00203125</v>
       </c>
       <c r="AD17" s="20" t="n">
-        <v>0.219</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16" t="n">
         <f aca="false">EXP(LN(C18)/1.4)</f>
-        <v>267.362200013348</v>
+        <v>185.625062808954</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="16" t="n">
         <f aca="false">EXP(LN(C18)/0.95)</f>
-        <v>3773.80066347525</v>
+        <v>2204.21501725585</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.88</v>
+        <v>4.82033304119194</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13.8945</v>
+        <v>12.1</v>
       </c>
       <c r="G18" s="17" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>109.70364178</v>
+        <v>60.11</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <v>106.37</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>1.80587174083789</v>
+        <v>2.28945240589391</v>
       </c>
       <c r="K18" s="13" t="n">
         <f aca="false">1/J18</f>
-        <v>0.553749182395434</v>
+        <v>0.436785668671524</v>
       </c>
       <c r="L18" s="4" t="n">
         <f aca="false">100*((1/I18) - (1/1.53))</f>
-        <v>45.7516339869281</v>
+        <v>71.62682424568</v>
       </c>
       <c r="M18" s="4" t="n">
         <f aca="false">J18*(N18-L18*(1- (1/J18)))</f>
-        <v>131.352495724182</v>
+        <v>128.651567823179</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>93.1530411862769</v>
+        <v>96.5344149999999</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>-1.16</v>
+        <v>-2.37</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>19.26</v>
+        <v>17.23</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="R18" s="18" t="n">
         <f aca="false">0.52-4.16*I18</f>
-        <v>-3.224</v>
+        <v>-2.5168</v>
       </c>
       <c r="S18" s="18" t="n">
         <f aca="false">(1.02*EXP(8.5*I18)- 2.89)^0.5</f>
-        <v>46.2576318158267</v>
+        <v>22.4105630241409</v>
       </c>
       <c r="T18" s="19" t="n">
         <v>0.585</v>
       </c>
       <c r="U18" s="4" t="n">
-        <v>1154.78476961139</v>
+        <v>2436.47453228934</v>
       </c>
       <c r="V18" s="11" t="n">
-        <v>0.16</v>
+        <v>0.2723431183</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>-4.93</v>
+        <v>-4.048237444</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>-7.13</v>
+        <v>-7.936104741</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>-9.33</v>
+        <v>-11.82397204</v>
       </c>
       <c r="Z18" s="23" t="n">
-        <v>24.98</v>
+        <v>13.34416461</v>
       </c>
       <c r="AA18" s="6" t="n">
-        <v>-3.05</v>
+        <v>-2.3</v>
       </c>
       <c r="AB18" s="20" t="n">
         <v>30</v>
       </c>
       <c r="AC18" s="12" t="n">
-        <v>0.001659</v>
-      </c>
-      <c r="AD18" s="8" t="n">
-        <v>0.205</v>
+        <v>0.0079936</v>
+      </c>
+      <c r="AD18" s="20" t="n">
+        <v>0.219</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="16" t="n">
         <f aca="false">EXP(LN(C19)/1.4)</f>
-        <v>72.2128157528199</v>
+        <v>267.362200013348</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="D19" s="16" t="n">
         <f aca="false">EXP(LN(C19)/0.95)</f>
-        <v>548.290242550687</v>
+        <v>3773.80066347525</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4.8305439331</v>
+        <v>6.88</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12.75</v>
+        <v>13.8945</v>
       </c>
       <c r="G19" s="17" t="n">
-        <v>71.69</v>
-      </c>
-      <c r="H19" s="17" t="n">
-        <v>123.43</v>
+        <v>39.45</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>109.70364178</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>3.1146926282787</v>
+        <v>1.80587174083789</v>
       </c>
       <c r="K19" s="13" t="n">
         <f aca="false">1/J19</f>
-        <v>0.321058967719919</v>
+        <v>0.553749182395434</v>
       </c>
       <c r="L19" s="4" t="n">
         <f aca="false">100*((1/I19) - (1/1.53))</f>
-        <v>77.4976657329599</v>
+        <v>45.7516339869281</v>
       </c>
       <c r="M19" s="4" t="n">
         <f aca="false">J19*(N19-L19*(1- (1/J19)))</f>
-        <v>304.589805648626</v>
+        <v>131.352495724182</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>150.407633751591</v>
-      </c>
-      <c r="O19" s="24" t="n">
-        <v>-1.42274895336093</v>
-      </c>
-      <c r="P19" s="24" t="n">
-        <v>6.71280382204902</v>
-      </c>
-      <c r="Q19" s="20" t="n">
-        <v>0.22</v>
+        <v>93.1530411862769</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>0.17</v>
       </c>
       <c r="R19" s="18" t="n">
         <f aca="false">0.52-4.16*I19</f>
-        <v>-2.392</v>
+        <v>-3.224</v>
       </c>
       <c r="S19" s="18" t="n">
         <f aca="false">(1.02*EXP(8.5*I19)- 2.89)^0.5</f>
-        <v>19.7113775734304</v>
+        <v>46.2576318158267</v>
       </c>
       <c r="T19" s="19" t="n">
-        <v>0.6817</v>
-      </c>
-      <c r="U19" s="17" t="n">
-        <v>6104.68</v>
+        <v>0.585</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>1154.78476961139</v>
       </c>
       <c r="V19" s="11" t="n">
-        <v>0.3134571207</v>
+        <v>0.16</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>-5.713847822</v>
+        <v>-4.93</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>-10.35976827</v>
+        <v>-7.13</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>-15.00568872</v>
+        <v>-9.33</v>
       </c>
       <c r="Z19" s="23" t="n">
-        <v>11.102207209</v>
-      </c>
-      <c r="AA19" s="24" t="n">
-        <v>-1.97322438194395</v>
+        <v>24.98</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>-3.05</v>
       </c>
       <c r="AB19" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="AC19" s="21" t="n">
+      <c r="AC19" s="12" t="n">
+        <v>0.001659</v>
+      </c>
+      <c r="AD19" s="8" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="16" t="n">
+        <f aca="false">EXP(LN(C20)/1.4)</f>
+        <v>72.2128157528199</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D20" s="16" t="n">
+        <f aca="false">EXP(LN(C20)/0.95)</f>
+        <v>548.290242550687</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>4.8305439331</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>123.43</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>3.1146926282787</v>
+      </c>
+      <c r="K20" s="13" t="n">
+        <f aca="false">1/J20</f>
+        <v>0.321058967719919</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <f aca="false">100*((1/I20) - (1/1.53))</f>
+        <v>77.4976657329599</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <f aca="false">J20*(N20-L20*(1- (1/J20)))</f>
+        <v>304.589805648626</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>150.407633751591</v>
+      </c>
+      <c r="O20" s="24" t="n">
+        <v>-1.42274895336093</v>
+      </c>
+      <c r="P20" s="24" t="n">
+        <v>6.71280382204902</v>
+      </c>
+      <c r="Q20" s="20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R20" s="18" t="n">
+        <f aca="false">0.52-4.16*I20</f>
+        <v>-2.392</v>
+      </c>
+      <c r="S20" s="18" t="n">
+        <f aca="false">(1.02*EXP(8.5*I20)- 2.89)^0.5</f>
+        <v>19.7113775734304</v>
+      </c>
+      <c r="T20" s="19" t="n">
+        <v>0.6817</v>
+      </c>
+      <c r="U20" s="17" t="n">
+        <v>6104.68</v>
+      </c>
+      <c r="V20" s="11" t="n">
+        <v>0.3134571207</v>
+      </c>
+      <c r="W20" s="22" t="n">
+        <v>-5.713847822</v>
+      </c>
+      <c r="X20" s="22" t="n">
+        <v>-10.35976827</v>
+      </c>
+      <c r="Y20" s="22" t="n">
+        <v>-15.00568872</v>
+      </c>
+      <c r="Z20" s="23" t="n">
+        <v>11.102207209</v>
+      </c>
+      <c r="AA20" s="24" t="n">
+        <v>-1.97322438194395</v>
+      </c>
+      <c r="AB20" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC20" s="21" t="n">
         <v>0.0052</v>
       </c>
-      <c r="AD19" s="21" t="n">
+      <c r="AD20" s="21" t="n">
         <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD19">
-    <sortState ref="A2:AD19">
-      <sortCondition ref="A2:A19" customList=""/>
+  <autoFilter ref="A1:AD20">
+    <sortState ref="A2:AD20">
+      <sortCondition ref="A2:A20" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -7042,7 +7042,7 @@
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8277,10 +8277,10 @@
       </c>
       <c r="L17" s="8" t="n">
         <f aca="false">I17*(M17-K17*(1- (1/I17)))</f>
-        <v>151.905866018979</v>
+        <v>140.06034378385</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>126.030629626838</v>
+        <v>120</v>
       </c>
       <c r="N17" s="12" t="n">
         <v>0.4455</v>
@@ -8608,7 +8608,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10251,10 +10251,10 @@
       </c>
       <c r="M17" s="4" t="n">
         <f aca="false">J17*(N17-L17*(1- (1/J17)))</f>
-        <v>151.905866018979</v>
+        <v>140.06034378385</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>126.030629626838</v>
+        <v>120</v>
       </c>
       <c r="O17" s="24" t="n">
         <v>-1.5011</v>

--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -31,6 +31,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Autoria desconeguda</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Revegetation Guide (Australia)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="142">
   <si>
@@ -472,7 +494,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -516,6 +538,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -7042,7 +7069,7 @@
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7191,7 +7218,7 @@
         <v>120.0791734</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>2.358</v>
@@ -7202,11 +7229,11 @@
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">100*((1/H2) - (1/1.53))</f>
-        <v>142.97385620915</v>
+        <v>75.4855932983522</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">I2*(M2-K2*(1- (1/I2)))</f>
-        <v>95.0697180759738</v>
+        <v>186.718779108838</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>122.658276</v>
@@ -8604,11 +8631,11 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="Y23" activeCellId="0" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8761,7 +8788,7 @@
         <v>120.0791734</v>
       </c>
       <c r="I2" s="8" t="n">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>2.358</v>
@@ -8772,11 +8799,11 @@
       </c>
       <c r="L2" s="4" t="n">
         <f aca="false">100*((1/I2) - (1/1.53))</f>
-        <v>142.97385620915</v>
+        <v>75.4855932983522</v>
       </c>
       <c r="M2" s="4" t="n">
         <f aca="false">J2*(N2-L2*(1- (1/J2)))</f>
-        <v>95.0697180759738</v>
+        <v>186.718779108838</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>122.658276</v>
@@ -8792,11 +8819,11 @@
       </c>
       <c r="R2" s="18" t="n">
         <f aca="false">0.52-4.16*I2</f>
-        <v>-1.4768</v>
+        <v>-2.4336</v>
       </c>
       <c r="S2" s="18" t="n">
         <f aca="false">(1.02*EXP(8.5*I2)- 2.89)^0.5</f>
-        <v>7.57881120274677</v>
+        <v>20.5733999579821</v>
       </c>
       <c r="T2" s="19" t="n">
         <v>0.755</v>
@@ -10617,7 +10644,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Pàgina &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -593,7 +593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -658,6 +658,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -678,7 +686,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,10 +695,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,7 +734,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
+          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -738,7 +742,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FFC9211E"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1003,7 +1007,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4112,11 +4116,11 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7069,7 +7073,7 @@
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7305,11 +7309,11 @@
       <c r="N3" s="12" t="n">
         <v>0.442</v>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>7</v>
+      <c r="O3" s="14" t="n">
+        <v>-2.24061076355396</v>
+      </c>
+      <c r="P3" s="14" t="n">
+        <v>13.6861585450528</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -7718,18 +7722,18 @@
       <c r="H9" s="8" t="n">
         <v>0.7</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="16" t="n">
         <v>3.85794536330718</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="17" t="n">
         <f aca="false">1/I9</f>
         <v>0.259205329736127</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="16" t="n">
         <f aca="false">100*((1/H9) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="16" t="n">
         <f aca="false">I9*(M9-K9*(1- (1/I9)))</f>
         <v>361.065655410742</v>
       </c>
@@ -8394,11 +8398,11 @@
       <c r="N18" s="12" t="n">
         <v>0.559481945361776</v>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="P18" s="5" t="n">
-        <v>17.23</v>
+      <c r="O18" s="14" t="n">
+        <v>-3.22489123711149</v>
+      </c>
+      <c r="P18" s="14" t="n">
+        <v>26.1350516060853</v>
       </c>
       <c r="Q18" s="7" t="n">
         <v>0.24</v>
@@ -8480,11 +8484,11 @@
       <c r="N19" s="12" t="n">
         <v>0.567636358187107</v>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>19.26</v>
+      <c r="O19" s="14" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="P19" s="14" t="n">
+        <v>10.46</v>
       </c>
       <c r="Q19" s="7" t="n">
         <v>0.17</v>
@@ -8631,11 +8635,11 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y23" activeCellId="0" sqref="Y23"/>
+      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8764,14 +8768,14 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="18" t="n">
         <f aca="false">EXP(LN(C2)/1.4)</f>
         <v>267.362200013348</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="18" t="n">
         <f aca="false">EXP(LN(C2)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
@@ -8781,7 +8785,7 @@
       <c r="F2" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="G2" s="17" t="n">
+      <c r="G2" s="19" t="n">
         <v>51.5</v>
       </c>
       <c r="H2" s="4" t="n">
@@ -8808,24 +8812,24 @@
       <c r="N2" s="4" t="n">
         <v>122.658276</v>
       </c>
-      <c r="O2" s="18" t="n">
+      <c r="O2" s="20" t="n">
         <v>-2.48</v>
       </c>
-      <c r="P2" s="18" t="n">
+      <c r="P2" s="20" t="n">
         <v>14.72</v>
       </c>
-      <c r="Q2" s="19" t="n">
+      <c r="Q2" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R2" s="18" t="n">
+      <c r="R2" s="20" t="n">
         <f aca="false">0.52-4.16*I2</f>
         <v>-2.4336</v>
       </c>
-      <c r="S2" s="18" t="n">
+      <c r="S2" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I2)- 2.89)^0.5</f>
         <v>20.5733999579821</v>
       </c>
-      <c r="T2" s="19" t="n">
+      <c r="T2" s="21" t="n">
         <v>0.755</v>
       </c>
       <c r="U2" s="4" t="n">
@@ -8834,28 +8838,28 @@
       <c r="V2" s="5" t="n">
         <v>2.695</v>
       </c>
-      <c r="W2" s="18" t="n">
+      <c r="W2" s="20" t="n">
         <v>-2.142</v>
       </c>
-      <c r="X2" s="18" t="n">
+      <c r="X2" s="20" t="n">
         <v>-3.84</v>
       </c>
-      <c r="Y2" s="18" t="n">
+      <c r="Y2" s="20" t="n">
         <v>-5.8133</v>
       </c>
-      <c r="Z2" s="17" t="n">
+      <c r="Z2" s="19" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA2" s="18" t="n">
+      <c r="AA2" s="20" t="n">
         <v>-2.72</v>
       </c>
-      <c r="AB2" s="20" t="n">
+      <c r="AB2" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC2" s="21" t="n">
+      <c r="AC2" s="16" t="n">
         <v>0.0042</v>
       </c>
-      <c r="AD2" s="21" t="n">
+      <c r="AD2" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -8863,14 +8867,14 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="18" t="n">
         <f aca="false">EXP(LN(C3)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="18" t="n">
         <f aca="false">EXP(LN(C3)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -8880,7 +8884,7 @@
       <c r="F3" s="6" t="n">
         <v>14.1</v>
       </c>
-      <c r="G3" s="17" t="n">
+      <c r="G3" s="19" t="n">
         <v>49.2</v>
       </c>
       <c r="H3" s="4" t="n">
@@ -8907,24 +8911,24 @@
       <c r="N3" s="4" t="n">
         <v>140.0561185</v>
       </c>
-      <c r="O3" s="6" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="19" t="n">
+      <c r="O3" s="23" t="n">
+        <v>-2.24061076355396</v>
+      </c>
+      <c r="P3" s="23" t="n">
+        <v>13.6861585450528</v>
+      </c>
+      <c r="Q3" s="21" t="n">
         <v>0.72</v>
       </c>
-      <c r="R3" s="18" t="n">
+      <c r="R3" s="20" t="n">
         <f aca="false">0.52-4.16*I3</f>
         <v>-2.7664</v>
       </c>
-      <c r="S3" s="18" t="n">
+      <c r="S3" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I3)- 2.89)^0.5</f>
         <v>28.9531939902222</v>
       </c>
-      <c r="T3" s="19" t="n">
+      <c r="T3" s="21" t="n">
         <v>0.7423</v>
       </c>
       <c r="U3" s="4" t="n">
@@ -8933,22 +8937,22 @@
       <c r="V3" s="11" t="n">
         <v>0.4212287</v>
       </c>
-      <c r="W3" s="22" t="n">
+      <c r="W3" s="24" t="n">
         <v>-6.684601329</v>
       </c>
-      <c r="X3" s="22" t="n">
+      <c r="X3" s="24" t="n">
         <v>-8.22732559</v>
       </c>
-      <c r="Y3" s="22" t="n">
+      <c r="Y3" s="24" t="n">
         <v>-9.770049851</v>
       </c>
-      <c r="Z3" s="23" t="n">
+      <c r="Z3" s="25" t="n">
         <v>40.20557204</v>
       </c>
-      <c r="AA3" s="24" t="n">
+      <c r="AA3" s="23" t="n">
         <v>-2.32449789044832</v>
       </c>
-      <c r="AB3" s="20" t="n">
+      <c r="AB3" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC3" s="12" t="n">
@@ -8962,14 +8966,14 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="18" t="n">
         <f aca="false">EXP(LN(C4)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="18" t="n">
         <f aca="false">EXP(LN(C4)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -8979,10 +8983,10 @@
       <c r="F4" s="6" t="n">
         <v>18.5979166666666</v>
       </c>
-      <c r="G4" s="17" t="n">
+      <c r="G4" s="19" t="n">
         <v>66.43</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="19" t="n">
         <v>115.7</v>
       </c>
       <c r="I4" s="8" t="n">
@@ -9006,54 +9010,54 @@
       <c r="N4" s="4" t="n">
         <v>113.974968</v>
       </c>
-      <c r="O4" s="24" t="n">
+      <c r="O4" s="23" t="n">
         <v>-2.32190138989068</v>
       </c>
-      <c r="P4" s="24" t="n">
+      <c r="P4" s="23" t="n">
         <v>13.741165480704</v>
       </c>
-      <c r="Q4" s="19" t="n">
+      <c r="Q4" s="21" t="n">
         <v>0.29</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="20" t="n">
         <f aca="false">0.52-4.16*I4</f>
         <v>-2.808</v>
       </c>
-      <c r="S4" s="18" t="n">
+      <c r="S4" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I4)- 2.89)^0.5</f>
         <v>30.2144706636311</v>
       </c>
-      <c r="T4" s="19" t="n">
+      <c r="T4" s="21" t="n">
         <v>0.833</v>
       </c>
-      <c r="U4" s="17" t="n">
+      <c r="U4" s="19" t="n">
         <v>2284.9</v>
       </c>
       <c r="V4" s="11" t="n">
         <v>0.1393276892</v>
       </c>
-      <c r="W4" s="22" t="n">
+      <c r="W4" s="24" t="n">
         <v>-0.531000697</v>
       </c>
-      <c r="X4" s="22" t="n">
+      <c r="X4" s="24" t="n">
         <v>-3.849174089</v>
       </c>
-      <c r="Y4" s="22" t="n">
+      <c r="Y4" s="24" t="n">
         <v>-7.167347481</v>
       </c>
-      <c r="Z4" s="23" t="n">
+      <c r="Z4" s="25" t="n">
         <v>43.383557803</v>
       </c>
-      <c r="AA4" s="24" t="n">
+      <c r="AA4" s="23" t="n">
         <v>-2.92181955290895</v>
       </c>
-      <c r="AB4" s="20" t="n">
+      <c r="AB4" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC4" s="12" t="n">
         <v>0.001516</v>
       </c>
-      <c r="AD4" s="21" t="n">
+      <c r="AD4" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9061,14 +9065,14 @@
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="18" t="n">
         <f aca="false">EXP(LN(C5)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="18" t="n">
         <f aca="false">EXP(LN(C5)/0.95)</f>
         <v>548.290242550687</v>
       </c>
@@ -9078,10 +9082,10 @@
       <c r="F5" s="6" t="n">
         <v>15.55</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="19" t="n">
         <v>95.29</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="19" t="n">
         <v>167</v>
       </c>
       <c r="I5" s="8" t="n">
@@ -9105,24 +9109,24 @@
       <c r="N5" s="4" t="n">
         <v>125.651043</v>
       </c>
-      <c r="O5" s="24" t="n">
+      <c r="O5" s="23" t="n">
         <v>-1.71902985909749</v>
       </c>
-      <c r="P5" s="24" t="n">
+      <c r="P5" s="23" t="n">
         <v>6.40509511402895</v>
       </c>
-      <c r="Q5" s="19" t="n">
+      <c r="Q5" s="21" t="n">
         <v>0.29</v>
       </c>
-      <c r="R5" s="18" t="n">
+      <c r="R5" s="20" t="n">
         <f aca="false">0.52-4.16*I5</f>
         <v>-2.7248</v>
       </c>
-      <c r="S5" s="18" t="n">
+      <c r="S5" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I5)- 2.89)^0.5</f>
         <v>27.7442212731705</v>
       </c>
-      <c r="T5" s="19" t="n">
+      <c r="T5" s="21" t="n">
         <v>0.7</v>
       </c>
       <c r="U5" s="4" t="n">
@@ -9131,28 +9135,28 @@
       <c r="V5" s="11" t="n">
         <v>0.1689526292</v>
       </c>
-      <c r="W5" s="22" t="n">
+      <c r="W5" s="24" t="n">
         <v>-6.733965191</v>
       </c>
-      <c r="X5" s="22" t="n">
+      <c r="X5" s="24" t="n">
         <v>-10.14762341</v>
       </c>
-      <c r="Y5" s="22" t="n">
+      <c r="Y5" s="24" t="n">
         <v>-13.56128162</v>
       </c>
-      <c r="Z5" s="23" t="n">
+      <c r="Z5" s="25" t="n">
         <v>15.849100066</v>
       </c>
-      <c r="AA5" s="24" t="n">
+      <c r="AA5" s="23" t="n">
         <v>-2.17054287918342</v>
       </c>
-      <c r="AB5" s="20" t="n">
+      <c r="AB5" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC5" s="12" t="n">
         <v>0.003437</v>
       </c>
-      <c r="AD5" s="21" t="n">
+      <c r="AD5" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9160,14 +9164,14 @@
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="18" t="n">
         <f aca="false">EXP(LN(C6)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="18" t="n">
         <f aca="false">EXP(LN(C6)/0.95)</f>
         <v>548.290242550687</v>
       </c>
@@ -9177,10 +9181,10 @@
       <c r="F6" s="6" t="n">
         <v>14.31</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="19" t="n">
         <v>95.28</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="19" t="n">
         <v>167</v>
       </c>
       <c r="I6" s="8" t="n">
@@ -9204,30 +9208,30 @@
       <c r="N6" s="4" t="n">
         <v>133.659804</v>
       </c>
-      <c r="O6" s="24" t="n">
+      <c r="O6" s="23" t="n">
         <v>-1.9796889440226</v>
       </c>
-      <c r="P6" s="24" t="n">
+      <c r="P6" s="23" t="n">
         <v>9.61055583128884</v>
       </c>
-      <c r="Q6" s="19" t="n">
+      <c r="Q6" s="21" t="n">
         <v>0.29</v>
       </c>
-      <c r="R6" s="18" t="n">
+      <c r="R6" s="20" t="n">
         <f aca="false">0.52-4.16*I6</f>
         <v>-2.7248</v>
       </c>
-      <c r="S6" s="18" t="n">
+      <c r="S6" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I6)- 2.89)^0.5</f>
         <v>27.7442212731705</v>
       </c>
-      <c r="T6" s="19" t="n">
+      <c r="T6" s="21" t="n">
         <v>0.7</v>
       </c>
-      <c r="U6" s="17" t="n">
+      <c r="U6" s="19" t="n">
         <v>1457.7</v>
       </c>
-      <c r="V6" s="19" t="n">
+      <c r="V6" s="21" t="n">
         <v>0.426</v>
       </c>
       <c r="W6" s="6" t="n">
@@ -9236,22 +9240,22 @@
       <c r="X6" s="6" t="n">
         <v>-10.2</v>
       </c>
-      <c r="Y6" s="18" t="n">
+      <c r="Y6" s="20" t="n">
         <v>-13.56</v>
       </c>
-      <c r="Z6" s="17" t="n">
+      <c r="Z6" s="19" t="n">
         <v>14.34</v>
       </c>
-      <c r="AA6" s="24" t="n">
+      <c r="AA6" s="23" t="n">
         <v>-2.16254532499295</v>
       </c>
-      <c r="AB6" s="20" t="n">
+      <c r="AB6" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC6" s="12" t="n">
         <v>0.004014</v>
       </c>
-      <c r="AD6" s="21" t="n">
+      <c r="AD6" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9259,27 +9263,27 @@
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="18" t="n">
         <f aca="false">EXP(LN(C7)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="18" t="n">
         <f aca="false">EXP(LN(C7)/0.95)</f>
         <v>548.290242550687</v>
       </c>
       <c r="E7" s="14" t="n">
         <v>6.047</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="20" t="n">
         <v>49.7</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="G7" s="19" t="n">
         <v>113.83</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="19" t="n">
         <v>182.6</v>
       </c>
       <c r="I7" s="8" t="n">
@@ -9303,52 +9307,52 @@
       <c r="N7" s="15" t="n">
         <v>176.9466165</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="20" t="n">
         <v>-1.642</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="20" t="n">
         <v>13.577</v>
       </c>
-      <c r="Q7" s="19" t="n">
+      <c r="Q7" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="20" t="n">
         <f aca="false">0.52-4.16*I7</f>
         <v>-2.392</v>
       </c>
-      <c r="S7" s="18" t="n">
+      <c r="S7" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I7)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T7" s="19" t="n">
+      <c r="T7" s="21" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U7" s="17" t="n">
+      <c r="U7" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V7" s="19" t="n">
+      <c r="V7" s="21" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W7" s="18" t="n">
+      <c r="W7" s="20" t="n">
         <v>-1.215</v>
       </c>
-      <c r="X7" s="18" t="n">
+      <c r="X7" s="20" t="n">
         <v>-2.39</v>
       </c>
-      <c r="Y7" s="18" t="n">
+      <c r="Y7" s="20" t="n">
         <v>-4.03</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="25" t="n">
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="26" t="n">
         <v>-1.608</v>
       </c>
-      <c r="AB7" s="20" t="n">
+      <c r="AB7" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC7" s="21" t="n">
+      <c r="AC7" s="16" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD7" s="21" t="n">
+      <c r="AD7" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9356,27 +9360,27 @@
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="18" t="n">
         <f aca="false">EXP(LN(C8)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="18" t="n">
         <f aca="false">EXP(LN(C8)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="21" t="n">
         <v>16.2</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="20" t="n">
         <v>29.2</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="19" t="n">
         <v>54.99</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="19" t="n">
         <v>98.6</v>
       </c>
       <c r="I8" s="8" t="n">
@@ -9400,52 +9404,52 @@
       <c r="N8" s="15" t="n">
         <v>122.752844</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="20" t="n">
         <v>-0.72</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="20" t="n">
         <v>5.92</v>
       </c>
-      <c r="Q8" s="19" t="n">
+      <c r="Q8" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="20" t="n">
         <f aca="false">0.52-4.16*I8</f>
         <v>-2.392</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I8)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T8" s="19" t="n">
+      <c r="T8" s="21" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U8" s="17" t="n">
+      <c r="U8" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V8" s="19" t="n">
+      <c r="V8" s="21" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W8" s="18" t="n">
+      <c r="W8" s="20" t="n">
         <v>-2.001</v>
       </c>
-      <c r="X8" s="18" t="n">
+      <c r="X8" s="20" t="n">
         <v>-3.62</v>
       </c>
-      <c r="Y8" s="18" t="n">
+      <c r="Y8" s="20" t="n">
         <v>-5.54</v>
       </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="18" t="n">
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="20" t="n">
         <v>-0.56</v>
       </c>
-      <c r="AB8" s="20" t="n">
+      <c r="AB8" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC8" s="21" t="n">
+      <c r="AC8" s="16" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD8" s="21" t="n">
+      <c r="AD8" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9453,14 +9457,14 @@
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="18" t="n">
         <f aca="false">EXP(LN(C9)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="18" t="n">
         <f aca="false">EXP(LN(C9)/0.95)</f>
         <v>548.290242550687</v>
       </c>
@@ -9470,19 +9474,19 @@
       <c r="F9" s="6" t="n">
         <v>29.2083333333333</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="19" t="n">
         <v>55.01</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="19" t="n">
         <v>98.63</v>
       </c>
       <c r="I9" s="8" t="n">
         <v>0.7</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="16" t="n">
         <v>3.85794536330718</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="17" t="n">
         <f aca="false">1/J9</f>
         <v>0.259205329736127</v>
       </c>
@@ -9500,27 +9504,27 @@
       <c r="O9" s="6" t="n">
         <v>-0.72</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>5.92</v>
       </c>
-      <c r="Q9" s="19" t="n">
+      <c r="Q9" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="20" t="n">
         <f aca="false">0.52-4.16*I9</f>
         <v>-2.392</v>
       </c>
-      <c r="S9" s="18" t="n">
+      <c r="S9" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I9)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T9" s="19" t="n">
+      <c r="T9" s="21" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U9" s="17" t="n">
+      <c r="U9" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V9" s="19" t="n">
+      <c r="V9" s="21" t="n">
         <v>2.9075</v>
       </c>
       <c r="W9" s="5" t="n">
@@ -9535,16 +9539,16 @@
       <c r="Z9" s="4" t="n">
         <v>65.50862069</v>
       </c>
-      <c r="AA9" s="18" t="n">
+      <c r="AA9" s="20" t="n">
         <v>-0.56</v>
       </c>
-      <c r="AB9" s="20" t="n">
+      <c r="AB9" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC9" s="21" t="n">
+      <c r="AC9" s="16" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD9" s="21" t="n">
+      <c r="AD9" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9552,14 +9556,14 @@
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="18" t="n">
         <f aca="false">EXP(LN(C10)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="18" t="n">
         <f aca="false">EXP(LN(C10)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -9569,10 +9573,10 @@
       <c r="F10" s="6" t="n">
         <v>10.675</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="19" t="n">
         <v>51.19</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="19" t="n">
         <v>92.79</v>
       </c>
       <c r="I10" s="8" t="n">
@@ -9596,24 +9600,24 @@
       <c r="N10" s="4" t="n">
         <v>108.649759138841</v>
       </c>
-      <c r="O10" s="24" t="n">
+      <c r="O10" s="23" t="n">
         <v>-2.80162794800361</v>
       </c>
-      <c r="P10" s="24" t="n">
+      <c r="P10" s="23" t="n">
         <v>22.3517952586394</v>
       </c>
-      <c r="Q10" s="19" t="n">
+      <c r="Q10" s="21" t="n">
         <v>0.466</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="20" t="n">
         <f aca="false">0.52-4.16*I10</f>
         <v>-2.4752</v>
       </c>
-      <c r="S10" s="18" t="n">
+      <c r="S10" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I10)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T10" s="19" t="n">
+      <c r="T10" s="21" t="n">
         <v>0.742</v>
       </c>
       <c r="U10" s="4" t="n">
@@ -9622,28 +9626,28 @@
       <c r="V10" s="11" t="n">
         <v>0.0693018125</v>
       </c>
-      <c r="W10" s="22" t="n">
+      <c r="W10" s="24" t="n">
         <v>-4.338385029</v>
       </c>
-      <c r="X10" s="22" t="n">
+      <c r="X10" s="24" t="n">
         <v>-11.4510026</v>
       </c>
-      <c r="Y10" s="22" t="n">
+      <c r="Y10" s="24" t="n">
         <v>-18.56362017</v>
       </c>
-      <c r="Z10" s="23" t="n">
+      <c r="Z10" s="25" t="n">
         <v>7.0420149194</v>
       </c>
-      <c r="AA10" s="24" t="n">
+      <c r="AA10" s="23" t="n">
         <v>-3.24247138458736</v>
       </c>
-      <c r="AB10" s="20" t="n">
+      <c r="AB10" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC10" s="12" t="n">
         <v>0.0053115</v>
       </c>
-      <c r="AD10" s="21" t="n">
+      <c r="AD10" s="16" t="n">
         <v>0.17233</v>
       </c>
     </row>
@@ -9651,14 +9655,14 @@
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="18" t="n">
         <f aca="false">EXP(LN(C11)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="18" t="n">
         <f aca="false">EXP(LN(C11)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -9668,10 +9672,10 @@
       <c r="F11" s="6" t="n">
         <v>14.1416666665</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="19" t="n">
         <v>46.77</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="19" t="n">
         <v>85.97</v>
       </c>
       <c r="I11" s="8" t="n">
@@ -9695,52 +9699,52 @@
       <c r="N11" s="4" t="n">
         <v>117.426973</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="20" t="n">
         <v>-1.67</v>
       </c>
-      <c r="P11" s="18" t="n">
+      <c r="P11" s="20" t="n">
         <v>14.38</v>
       </c>
-      <c r="Q11" s="19" t="n">
+      <c r="Q11" s="21" t="n">
         <v>0.466</v>
       </c>
-      <c r="R11" s="18" t="n">
+      <c r="R11" s="20" t="n">
         <f aca="false">0.52-4.16*I11</f>
         <v>-2.4752</v>
       </c>
-      <c r="S11" s="18" t="n">
+      <c r="S11" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I11)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T11" s="19" t="n">
+      <c r="T11" s="21" t="n">
         <v>0.742</v>
       </c>
-      <c r="U11" s="17" t="n">
+      <c r="U11" s="19" t="n">
         <v>2042.495</v>
       </c>
-      <c r="V11" s="19" t="n">
+      <c r="V11" s="21" t="n">
         <v>0.668</v>
       </c>
-      <c r="W11" s="18" t="n">
+      <c r="W11" s="20" t="n">
         <v>-1.41</v>
       </c>
-      <c r="X11" s="18" t="n">
+      <c r="X11" s="20" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Y11" s="18" t="n">
+      <c r="Y11" s="20" t="n">
         <v>-4.41</v>
       </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="18" t="n">
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="20" t="n">
         <v>-1.63</v>
       </c>
-      <c r="AB11" s="20" t="n">
+      <c r="AB11" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC11" s="21" t="n">
+      <c r="AC11" s="16" t="n">
         <v>0.00414</v>
       </c>
-      <c r="AD11" s="21" t="n">
+      <c r="AD11" s="16" t="n">
         <v>0.17233</v>
       </c>
     </row>
@@ -9748,14 +9752,14 @@
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="18" t="n">
         <f aca="false">EXP(LN(C12)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="18" t="n">
         <f aca="false">EXP(LN(C12)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -9765,10 +9769,10 @@
       <c r="F12" s="6" t="n">
         <v>13.6</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="19" t="n">
         <v>63.24</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="19" t="n">
         <v>110.99</v>
       </c>
       <c r="I12" s="8" t="n">
@@ -9792,54 +9796,54 @@
       <c r="N12" s="4" t="n">
         <v>123.0427035</v>
       </c>
-      <c r="O12" s="24" t="n">
+      <c r="O12" s="23" t="n">
         <v>-2.20987373229647</v>
       </c>
-      <c r="P12" s="24" t="n">
+      <c r="P12" s="23" t="n">
         <v>45.2098777291801</v>
       </c>
-      <c r="Q12" s="19" t="n">
+      <c r="Q12" s="21" t="n">
         <v>0.466</v>
       </c>
-      <c r="R12" s="18" t="n">
+      <c r="R12" s="20" t="n">
         <f aca="false">0.52-4.16*I12</f>
         <v>-2.4752</v>
       </c>
-      <c r="S12" s="18" t="n">
+      <c r="S12" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I12)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T12" s="19" t="n">
+      <c r="T12" s="21" t="n">
         <v>0.742</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="19" t="n">
         <v>2042.495</v>
       </c>
       <c r="V12" s="11" t="n">
         <v>0.1975867375</v>
       </c>
-      <c r="W12" s="22" t="n">
+      <c r="W12" s="24" t="n">
         <v>-0.926429729</v>
       </c>
-      <c r="X12" s="22" t="n">
+      <c r="X12" s="24" t="n">
         <v>-7.341125025</v>
       </c>
-      <c r="Y12" s="22" t="n">
+      <c r="Y12" s="24" t="n">
         <v>-13.75582032</v>
       </c>
-      <c r="Z12" s="23" t="n">
+      <c r="Z12" s="25" t="n">
         <v>7.813877822</v>
       </c>
-      <c r="AA12" s="24" t="n">
+      <c r="AA12" s="23" t="n">
         <v>-2.93066544939765</v>
       </c>
-      <c r="AB12" s="20" t="n">
+      <c r="AB12" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC12" s="12" t="n">
         <v>0.004711</v>
       </c>
-      <c r="AD12" s="21" t="n">
+      <c r="AD12" s="16" t="n">
         <v>0.17233</v>
       </c>
     </row>
@@ -9847,27 +9851,27 @@
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="16" t="n">
+      <c r="B13" s="18" t="n">
         <f aca="false">EXP(LN(C13)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="18" t="n">
         <f aca="false">EXP(LN(C13)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
       <c r="E13" s="14" t="n">
         <v>10.858</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="20" t="n">
         <v>26.32</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="19" t="n">
         <v>69.95</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="19" t="n">
         <v>120.89</v>
       </c>
       <c r="I13" s="8" t="n">
@@ -9891,54 +9895,54 @@
       <c r="N13" s="4" t="n">
         <v>136.43075</v>
       </c>
-      <c r="O13" s="24" t="n">
+      <c r="O13" s="23" t="n">
         <v>-1.8525592242383</v>
       </c>
-      <c r="P13" s="24" t="n">
+      <c r="P13" s="23" t="n">
         <v>8.13590559168222</v>
       </c>
-      <c r="Q13" s="19" t="n">
+      <c r="Q13" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R13" s="18" t="n">
+      <c r="R13" s="20" t="n">
         <f aca="false">0.52-4.16*I13</f>
         <v>-2.0592</v>
       </c>
-      <c r="S13" s="18" t="n">
+      <c r="S13" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I13)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T13" s="19" t="n">
+      <c r="T13" s="21" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U13" s="17" t="n">
+      <c r="U13" s="19" t="n">
         <v>13004</v>
       </c>
       <c r="V13" s="11" t="n">
         <v>0.1286961952</v>
       </c>
-      <c r="W13" s="22" t="n">
+      <c r="W13" s="24" t="n">
         <v>-4.1592617</v>
       </c>
-      <c r="X13" s="22" t="n">
+      <c r="X13" s="24" t="n">
         <v>-7.073297018</v>
       </c>
-      <c r="Y13" s="22" t="n">
+      <c r="Y13" s="24" t="n">
         <v>-9.987332337</v>
       </c>
-      <c r="Z13" s="23" t="n">
+      <c r="Z13" s="25" t="n">
         <v>17.886935033</v>
       </c>
-      <c r="AA13" s="24" t="n">
+      <c r="AA13" s="23" t="n">
         <v>-2.58059968993449</v>
       </c>
-      <c r="AB13" s="20" t="n">
+      <c r="AB13" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC13" s="12" t="n">
         <v>0.01399</v>
       </c>
-      <c r="AD13" s="21" t="n">
+      <c r="AD13" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9946,27 +9950,27 @@
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="18" t="n">
         <f aca="false">EXP(LN(C14)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="18" t="n">
         <f aca="false">EXP(LN(C14)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>5.928</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="20" t="n">
         <v>26.3</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="G14" s="19" t="n">
         <v>88.537</v>
       </c>
-      <c r="H14" s="17" t="n">
+      <c r="H14" s="19" t="n">
         <v>147.59</v>
       </c>
       <c r="I14" s="8" t="n">
@@ -9990,54 +9994,54 @@
       <c r="N14" s="4" t="n">
         <v>116.165506643314</v>
       </c>
-      <c r="O14" s="24" t="n">
+      <c r="O14" s="23" t="n">
         <v>-1.9269940661065</v>
       </c>
-      <c r="P14" s="24" t="n">
+      <c r="P14" s="23" t="n">
         <v>13.6175966567185</v>
       </c>
-      <c r="Q14" s="19" t="n">
+      <c r="Q14" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R14" s="18" t="n">
+      <c r="R14" s="20" t="n">
         <f aca="false">0.52-4.16*I14</f>
         <v>-2.0592</v>
       </c>
-      <c r="S14" s="18" t="n">
+      <c r="S14" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I14)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T14" s="19" t="n">
+      <c r="T14" s="21" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U14" s="17" t="n">
+      <c r="U14" s="19" t="n">
         <v>13004</v>
       </c>
       <c r="V14" s="11" t="n">
         <v>0.2084861967</v>
       </c>
-      <c r="W14" s="22" t="n">
+      <c r="W14" s="24" t="n">
         <v>-2.956328846</v>
       </c>
-      <c r="X14" s="22" t="n">
+      <c r="X14" s="24" t="n">
         <v>-5.517944502</v>
       </c>
-      <c r="Y14" s="22" t="n">
+      <c r="Y14" s="24" t="n">
         <v>-8.079560157</v>
       </c>
-      <c r="Z14" s="23" t="n">
+      <c r="Z14" s="25" t="n">
         <v>21.388584916</v>
       </c>
-      <c r="AA14" s="24" t="n">
+      <c r="AA14" s="23" t="n">
         <v>-2.33723157320728</v>
       </c>
-      <c r="AB14" s="20" t="n">
+      <c r="AB14" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC14" s="12" t="n">
         <v>0.01658</v>
       </c>
-      <c r="AD14" s="21" t="n">
+      <c r="AD14" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -10045,27 +10049,27 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="18" t="n">
         <f aca="false">EXP(LN(C15)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="18" t="n">
         <f aca="false">EXP(LN(C15)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>40.13</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="20" t="n">
         <v>42.42</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="19" t="n">
         <v>25.9</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="19" t="n">
         <v>52.16</v>
       </c>
       <c r="I15" s="8" t="n">
@@ -10089,52 +10093,52 @@
       <c r="N15" s="4" t="n">
         <v>152.442854</v>
       </c>
-      <c r="O15" s="18" t="n">
+      <c r="O15" s="20" t="n">
         <v>-1.64</v>
       </c>
-      <c r="P15" s="18" t="n">
+      <c r="P15" s="20" t="n">
         <v>13.57</v>
       </c>
-      <c r="Q15" s="19" t="n">
+      <c r="Q15" s="21" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R15" s="18" t="n">
+      <c r="R15" s="20" t="n">
         <f aca="false">0.52-4.16*I15</f>
         <v>-2.0592</v>
       </c>
-      <c r="S15" s="18" t="n">
+      <c r="S15" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I15)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T15" s="19" t="n">
+      <c r="T15" s="21" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U15" s="17" t="n">
+      <c r="U15" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V15" s="19" t="n">
+      <c r="V15" s="21" t="n">
         <v>2.91</v>
       </c>
-      <c r="W15" s="18" t="n">
+      <c r="W15" s="20" t="n">
         <v>-1.215</v>
       </c>
-      <c r="X15" s="18" t="n">
+      <c r="X15" s="20" t="n">
         <v>-2.39</v>
       </c>
-      <c r="Y15" s="18" t="n">
+      <c r="Y15" s="20" t="n">
         <v>-4.039</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="18" t="n">
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="20" t="n">
         <v>-1.608</v>
       </c>
-      <c r="AB15" s="20" t="n">
+      <c r="AB15" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC15" s="21" t="n">
+      <c r="AC15" s="16" t="n">
         <v>0.0056</v>
       </c>
-      <c r="AD15" s="21" t="n">
+      <c r="AD15" s="16" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -10142,14 +10146,14 @@
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="18" t="n">
         <f aca="false">EXP(LN(C16)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="18" t="n">
         <f aca="false">EXP(LN(C16)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -10159,10 +10163,10 @@
       <c r="F16" s="6" t="n">
         <v>8.2</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="19" t="n">
         <v>55.01</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="19" t="n">
         <v>157.6</v>
       </c>
       <c r="I16" s="8" t="n">
@@ -10186,52 +10190,52 @@
       <c r="N16" s="4" t="n">
         <v>114.680832</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="18" t="n">
+      <c r="P16" s="20" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q16" s="19" t="n">
+      <c r="Q16" s="21" t="n">
         <v>0.272</v>
       </c>
-      <c r="R16" s="18" t="n">
+      <c r="R16" s="20" t="n">
         <f aca="false">0.52-4.16*I16</f>
         <v>-1.8096</v>
       </c>
-      <c r="S16" s="18" t="n">
+      <c r="S16" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I16)- 2.89)^0.5</f>
         <v>10.7791857028706</v>
       </c>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="21" t="n">
         <v>0.932</v>
       </c>
       <c r="U16" s="4" t="n">
         <v>2980</v>
       </c>
-      <c r="V16" s="19" t="n">
+      <c r="V16" s="21" t="n">
         <v>0.3268</v>
       </c>
-      <c r="W16" s="18" t="n">
+      <c r="W16" s="20" t="n">
         <v>-5.71</v>
       </c>
-      <c r="X16" s="18" t="n">
+      <c r="X16" s="20" t="n">
         <v>-9.42</v>
       </c>
-      <c r="Y16" s="18" t="n">
+      <c r="Y16" s="20" t="n">
         <v>-12.64</v>
       </c>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="24" t="n">
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="23" t="n">
         <v>-3</v>
       </c>
-      <c r="AB16" s="20" t="n">
+      <c r="AB16" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC16" s="12" t="n">
         <v>0.00705467372114286</v>
       </c>
-      <c r="AD16" s="20" t="n">
+      <c r="AD16" s="22" t="n">
         <v>0.084</v>
       </c>
     </row>
@@ -10239,14 +10243,14 @@
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="18" t="n">
         <f aca="false">EXP(LN(C17)/1.4)</f>
         <v>267.362200013348</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="18" t="n">
         <f aca="false">EXP(LN(C17)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
@@ -10256,10 +10260,10 @@
       <c r="F17" s="6" t="n">
         <v>11.8</v>
       </c>
-      <c r="G17" s="17" t="n">
+      <c r="G17" s="19" t="n">
         <v>54.36</v>
       </c>
-      <c r="H17" s="17" t="n">
+      <c r="H17" s="19" t="n">
         <v>120.6</v>
       </c>
       <c r="I17" s="8" t="n">
@@ -10283,24 +10287,24 @@
       <c r="N17" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="O17" s="24" t="n">
+      <c r="O17" s="23" t="n">
         <v>-1.5011</v>
       </c>
-      <c r="P17" s="24" t="n">
+      <c r="P17" s="23" t="n">
         <v>5.31784425645142</v>
       </c>
-      <c r="Q17" s="20" t="n">
+      <c r="Q17" s="22" t="n">
         <v>0.35</v>
       </c>
-      <c r="R17" s="18" t="n">
+      <c r="R17" s="20" t="n">
         <f aca="false">0.52-4.16*I17</f>
         <v>-2.008032</v>
       </c>
-      <c r="S17" s="18" t="n">
+      <c r="S17" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I17)- 2.89)^0.5</f>
         <v>13.2562652363486</v>
       </c>
-      <c r="T17" s="19" t="n">
+      <c r="T17" s="21" t="n">
         <v>0.9289</v>
       </c>
       <c r="U17" s="4" t="n">
@@ -10324,13 +10328,13 @@
       <c r="AA17" s="6" t="n">
         <v>-1.575</v>
       </c>
-      <c r="AB17" s="20" t="n">
+      <c r="AB17" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC17" s="12" t="n">
         <v>0.00203125</v>
       </c>
-      <c r="AD17" s="20" t="n">
+      <c r="AD17" s="22" t="n">
         <v>0.158</v>
       </c>
     </row>
@@ -10338,14 +10342,14 @@
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="18" t="n">
         <f aca="false">EXP(LN(C18)/1.4)</f>
         <v>185.625062808954</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="18" t="n">
         <f aca="false">EXP(LN(C18)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
@@ -10355,10 +10359,10 @@
       <c r="F18" s="6" t="n">
         <v>12.1</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="19" t="n">
         <v>60.11</v>
       </c>
-      <c r="H18" s="17" t="n">
+      <c r="H18" s="19" t="n">
         <v>106.37</v>
       </c>
       <c r="I18" s="8" t="n">
@@ -10382,24 +10386,24 @@
       <c r="N18" s="4" t="n">
         <v>96.5344149999999</v>
       </c>
-      <c r="O18" s="6" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>17.23</v>
+      <c r="O18" s="23" t="n">
+        <v>-3.22489123711149</v>
+      </c>
+      <c r="P18" s="23" t="n">
+        <v>26.1350516060853</v>
       </c>
       <c r="Q18" s="7" t="n">
         <v>0.24</v>
       </c>
-      <c r="R18" s="18" t="n">
+      <c r="R18" s="20" t="n">
         <f aca="false">0.52-4.16*I18</f>
         <v>-2.5168</v>
       </c>
-      <c r="S18" s="18" t="n">
+      <c r="S18" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I18)- 2.89)^0.5</f>
         <v>22.4105630241409</v>
       </c>
-      <c r="T18" s="19" t="n">
+      <c r="T18" s="21" t="n">
         <v>0.585</v>
       </c>
       <c r="U18" s="4" t="n">
@@ -10408,28 +10412,28 @@
       <c r="V18" s="11" t="n">
         <v>0.2723431183</v>
       </c>
-      <c r="W18" s="22" t="n">
+      <c r="W18" s="24" t="n">
         <v>-4.048237444</v>
       </c>
-      <c r="X18" s="22" t="n">
+      <c r="X18" s="24" t="n">
         <v>-7.936104741</v>
       </c>
-      <c r="Y18" s="22" t="n">
+      <c r="Y18" s="24" t="n">
         <v>-11.82397204</v>
       </c>
-      <c r="Z18" s="23" t="n">
+      <c r="Z18" s="25" t="n">
         <v>13.34416461</v>
       </c>
       <c r="AA18" s="6" t="n">
         <v>-2.3</v>
       </c>
-      <c r="AB18" s="20" t="n">
+      <c r="AB18" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC18" s="12" t="n">
         <v>0.0079936</v>
       </c>
-      <c r="AD18" s="20" t="n">
+      <c r="AD18" s="22" t="n">
         <v>0.219</v>
       </c>
     </row>
@@ -10437,14 +10441,14 @@
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="18" t="n">
         <f aca="false">EXP(LN(C19)/1.4)</f>
         <v>267.362200013348</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="18" t="n">
         <f aca="false">EXP(LN(C19)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
@@ -10454,7 +10458,7 @@
       <c r="F19" s="6" t="n">
         <v>13.8945</v>
       </c>
-      <c r="G19" s="17" t="n">
+      <c r="G19" s="19" t="n">
         <v>39.45</v>
       </c>
       <c r="H19" s="4" t="n">
@@ -10481,24 +10485,24 @@
       <c r="N19" s="4" t="n">
         <v>93.1530411862769</v>
       </c>
-      <c r="O19" s="6" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>19.26</v>
+      <c r="O19" s="23" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="P19" s="23" t="n">
+        <v>10.46</v>
       </c>
       <c r="Q19" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="R19" s="18" t="n">
+      <c r="R19" s="20" t="n">
         <f aca="false">0.52-4.16*I19</f>
         <v>-3.224</v>
       </c>
-      <c r="S19" s="18" t="n">
+      <c r="S19" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I19)- 2.89)^0.5</f>
         <v>46.2576318158267</v>
       </c>
-      <c r="T19" s="19" t="n">
+      <c r="T19" s="21" t="n">
         <v>0.585</v>
       </c>
       <c r="U19" s="4" t="n">
@@ -10507,22 +10511,22 @@
       <c r="V19" s="11" t="n">
         <v>0.16</v>
       </c>
-      <c r="W19" s="22" t="n">
+      <c r="W19" s="24" t="n">
         <v>-4.93</v>
       </c>
-      <c r="X19" s="22" t="n">
+      <c r="X19" s="24" t="n">
         <v>-7.13</v>
       </c>
-      <c r="Y19" s="22" t="n">
+      <c r="Y19" s="24" t="n">
         <v>-9.33</v>
       </c>
-      <c r="Z19" s="23" t="n">
+      <c r="Z19" s="25" t="n">
         <v>24.98</v>
       </c>
       <c r="AA19" s="6" t="n">
         <v>-3.05</v>
       </c>
-      <c r="AB19" s="20" t="n">
+      <c r="AB19" s="22" t="n">
         <v>30</v>
       </c>
       <c r="AC19" s="12" t="n">
@@ -10536,14 +10540,14 @@
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="18" t="n">
         <f aca="false">EXP(LN(C20)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="18" t="n">
         <f aca="false">EXP(LN(C20)/0.95)</f>
         <v>548.290242550687</v>
       </c>
@@ -10553,10 +10557,10 @@
       <c r="F20" s="6" t="n">
         <v>12.75</v>
       </c>
-      <c r="G20" s="17" t="n">
+      <c r="G20" s="19" t="n">
         <v>71.69</v>
       </c>
-      <c r="H20" s="17" t="n">
+      <c r="H20" s="19" t="n">
         <v>123.43</v>
       </c>
       <c r="I20" s="8" t="n">
@@ -10580,54 +10584,54 @@
       <c r="N20" s="4" t="n">
         <v>150.407633751591</v>
       </c>
-      <c r="O20" s="24" t="n">
+      <c r="O20" s="23" t="n">
         <v>-1.42274895336093</v>
       </c>
-      <c r="P20" s="24" t="n">
+      <c r="P20" s="23" t="n">
         <v>6.71280382204902</v>
       </c>
-      <c r="Q20" s="20" t="n">
+      <c r="Q20" s="22" t="n">
         <v>0.22</v>
       </c>
-      <c r="R20" s="18" t="n">
+      <c r="R20" s="20" t="n">
         <f aca="false">0.52-4.16*I20</f>
         <v>-2.392</v>
       </c>
-      <c r="S20" s="18" t="n">
+      <c r="S20" s="20" t="n">
         <f aca="false">(1.02*EXP(8.5*I20)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T20" s="19" t="n">
+      <c r="T20" s="21" t="n">
         <v>0.6817</v>
       </c>
-      <c r="U20" s="17" t="n">
+      <c r="U20" s="19" t="n">
         <v>6104.68</v>
       </c>
       <c r="V20" s="11" t="n">
         <v>0.3134571207</v>
       </c>
-      <c r="W20" s="22" t="n">
+      <c r="W20" s="24" t="n">
         <v>-5.713847822</v>
       </c>
-      <c r="X20" s="22" t="n">
+      <c r="X20" s="24" t="n">
         <v>-10.35976827</v>
       </c>
-      <c r="Y20" s="22" t="n">
+      <c r="Y20" s="24" t="n">
         <v>-15.00568872</v>
       </c>
-      <c r="Z20" s="23" t="n">
+      <c r="Z20" s="25" t="n">
         <v>11.102207209</v>
       </c>
-      <c r="AA20" s="24" t="n">
+      <c r="AA20" s="23" t="n">
         <v>-1.97322438194395</v>
       </c>
-      <c r="AB20" s="20" t="n">
+      <c r="AB20" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="AC20" s="21" t="n">
+      <c r="AC20" s="16" t="n">
         <v>0.0052</v>
       </c>
-      <c r="AD20" s="21" t="n">
+      <c r="AD20" s="16" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -10666,22 +10670,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>141</v>
       </c>
     </row>

--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SpParams_default" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,7 +15,6 @@
     <sheet name="SpParams_final" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="SpParams_final_imputed" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Full1" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Full2" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Full1!$A$1:$F$18</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="142">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1003,11 +1002,11 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="S4" activeCellId="0" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2180,7 +2179,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4116,11 +4115,11 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7072,8 +7071,8 @@
   </sheetPr>
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7408,18 +7407,14 @@
       <c r="V4" s="10" t="n">
         <v>0.1393276892</v>
       </c>
-      <c r="W4" s="11" t="n">
-        <v>-0.531000697</v>
-      </c>
-      <c r="X4" s="11" t="n">
-        <v>-3.849174089</v>
-      </c>
-      <c r="Y4" s="11" t="n">
-        <v>-7.167347481</v>
-      </c>
-      <c r="Z4" s="11" t="n">
-        <v>43.383557803</v>
-      </c>
+      <c r="W4" s="5" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="14" t="n">
         <v>-2.92181955290895</v>
       </c>
@@ -8634,12 +8629,12 @@
   </sheetPr>
   <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="W4" activeCellId="0" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8650,7 +8645,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="2" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="2" width="9.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="7.45"/>
@@ -8759,8 +8755,8 @@
       <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="XFA1" s="2"/>
-      <c r="XFB1" s="2"/>
+      <c r="XFA1" s="0"/>
+      <c r="XFB1" s="0"/>
       <c r="XFC1" s="2"/>
       <c r="XFD1" s="2"/>
     </row>
@@ -9036,18 +9032,14 @@
       <c r="V4" s="11" t="n">
         <v>0.1393276892</v>
       </c>
-      <c r="W4" s="24" t="n">
-        <v>-0.531000697</v>
-      </c>
-      <c r="X4" s="24" t="n">
-        <v>-3.849174089</v>
-      </c>
-      <c r="Y4" s="24" t="n">
-        <v>-7.167347481</v>
-      </c>
-      <c r="Z4" s="25" t="n">
-        <v>43.383557803</v>
-      </c>
+      <c r="W4" s="5" t="n">
+        <v>-4.94</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="23" t="n">
         <v>-2.92181955290895</v>
       </c>
@@ -9877,10 +9869,10 @@
       <c r="I13" s="8" t="n">
         <v>0.62</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="17" t="n">
         <f aca="false">1/J13</f>
         <v>0.666666666666667</v>
       </c>
@@ -9976,10 +9968,10 @@
       <c r="I14" s="8" t="n">
         <v>0.62</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="17" t="n">
         <f aca="false">1/J14</f>
         <v>0.666666666666667</v>
       </c>
@@ -10075,10 +10067,10 @@
       <c r="I15" s="8" t="n">
         <v>0.62</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="17" t="n">
         <f aca="false">1/J15</f>
         <v>0.666666666666667</v>
       </c>
@@ -10661,7 +10653,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11044,1110 +11036,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.36"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>11.1296605453534</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>120.0791734</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="n">
-        <v>122.658276</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>122.658276</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="4" t="n">
-        <v>4776.130138</v>
-      </c>
-      <c r="R2" s="8" t="n">
-        <v>2.695</v>
-      </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>7.921182266</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>1.6691407554284</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>140.0561185</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>150.171194054683</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="4" t="n">
-        <v>1990</v>
-      </c>
-      <c r="R3" s="10" t="n">
-        <v>0.4212287</v>
-      </c>
-      <c r="S3" s="11" t="n">
-        <v>-6.684601329</v>
-      </c>
-      <c r="T3" s="11" t="n">
-        <v>-8.22732559</v>
-      </c>
-      <c r="U3" s="11" t="n">
-        <v>-9.770049851</v>
-      </c>
-      <c r="V3" s="11" t="n">
-        <v>40.20557204</v>
-      </c>
-      <c r="W3" s="14" t="n">
-        <v>-2.32449789044832</v>
-      </c>
-      <c r="X3" s="14" t="n">
-        <f aca="false">W3</f>
-        <v>-2.32449789044832</v>
-      </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="12" t="n">
-        <v>0.002819</v>
-      </c>
-      <c r="AA3" s="8" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>8.4348179086</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>18.5979166666666</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="n">
-        <v>1.6674653809253</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>113.974968</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>114.926648</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0.377067686871033</v>
-      </c>
-      <c r="K4" s="14" t="n">
-        <v>-2.32190138989068</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>13.741165480704</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="10" t="n">
-        <v>0.1393276892</v>
-      </c>
-      <c r="S4" s="11" t="n">
-        <v>-0.531000697</v>
-      </c>
-      <c r="T4" s="11" t="n">
-        <v>-3.849174089</v>
-      </c>
-      <c r="U4" s="11" t="n">
-        <v>-7.167347481</v>
-      </c>
-      <c r="V4" s="11" t="n">
-        <v>43.383557803</v>
-      </c>
-      <c r="W4" s="14" t="n">
-        <v>-2.92181955290895</v>
-      </c>
-      <c r="X4" s="14" t="n">
-        <f aca="false">W4</f>
-        <v>-2.92181955290895</v>
-      </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="12" t="n">
-        <v>0.001516</v>
-      </c>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>400</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>6.866</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4" t="n">
-        <v>125.651043</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>125.3460715</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>0.382039773906984</v>
-      </c>
-      <c r="K5" s="14" t="n">
-        <v>-1.71902985909749</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>6.40509511402895</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="4" t="n">
-        <v>3530</v>
-      </c>
-      <c r="R5" s="10" t="n">
-        <v>0.1689526292</v>
-      </c>
-      <c r="S5" s="11" t="n">
-        <v>-6.733965191</v>
-      </c>
-      <c r="T5" s="11" t="n">
-        <v>-10.14762341</v>
-      </c>
-      <c r="U5" s="11" t="n">
-        <v>-13.56128162</v>
-      </c>
-      <c r="V5" s="11" t="n">
-        <v>15.849100066</v>
-      </c>
-      <c r="W5" s="14" t="n">
-        <v>-2.17054287918342</v>
-      </c>
-      <c r="X5" s="14" t="n">
-        <f aca="false">W5</f>
-        <v>-2.17054287918342</v>
-      </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="12" t="n">
-        <v>0.003437</v>
-      </c>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>400</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>6.5871813451</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="n">
-        <v>2.86827625720614</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>133.659804</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>157.534169565348</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>0.406391821418118</v>
-      </c>
-      <c r="K6" s="14" t="n">
-        <v>-1.9796889440226</v>
-      </c>
-      <c r="L6" s="14" t="n">
-        <v>9.61055583128884</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="5" t="n">
-        <v>-8.3</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="14" t="n">
-        <v>-2.16254532499295</v>
-      </c>
-      <c r="X6" s="14" t="n">
-        <f aca="false">W6</f>
-        <v>-2.16254532499295</v>
-      </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="12" t="n">
-        <v>0.004014</v>
-      </c>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8" t="n">
-        <v>5.67380422886498</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>176.9466165</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>176.9466165</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>400</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="n">
-        <v>3.85794536330718</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>122.752844</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>122.752844</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>10.675</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8" t="n">
-        <v>1.95223310621838</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>108.649759138841</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>99.062326</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>0.544991614526915</v>
-      </c>
-      <c r="K9" s="14" t="n">
-        <v>-2.80162794800361</v>
-      </c>
-      <c r="L9" s="14" t="n">
-        <v>22.3517952586394</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="4" t="n">
-        <v>2040</v>
-      </c>
-      <c r="R9" s="10" t="n">
-        <v>0.0693018125</v>
-      </c>
-      <c r="S9" s="11" t="n">
-        <v>-4.338385029</v>
-      </c>
-      <c r="T9" s="11" t="n">
-        <v>-11.4510026</v>
-      </c>
-      <c r="U9" s="11" t="n">
-        <v>-18.56362017</v>
-      </c>
-      <c r="V9" s="11" t="n">
-        <v>7.0420149194</v>
-      </c>
-      <c r="W9" s="14" t="n">
-        <v>-3.24247138458736</v>
-      </c>
-      <c r="X9" s="14" t="n">
-        <f aca="false">W9</f>
-        <v>-3.24247138458736</v>
-      </c>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="12" t="n">
-        <v>0.0053115</v>
-      </c>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>14.1416666665</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4" t="n">
-        <v>117.426973</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>117.47692</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>6.975</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8" t="n">
-        <v>2.55484265546135</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>123.0427035</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>122.563993</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>0.459880979766896</v>
-      </c>
-      <c r="K11" s="14" t="n">
-        <v>-2.20987373229647</v>
-      </c>
-      <c r="L11" s="14" t="n">
-        <v>45.2098777291801</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="10" t="n">
-        <v>0.1975867375</v>
-      </c>
-      <c r="S11" s="11" t="n">
-        <v>-0.926429729</v>
-      </c>
-      <c r="T11" s="11" t="n">
-        <v>-7.341125025</v>
-      </c>
-      <c r="U11" s="11" t="n">
-        <v>-13.75582032</v>
-      </c>
-      <c r="V11" s="11" t="n">
-        <v>7.813877822</v>
-      </c>
-      <c r="W11" s="14" t="n">
-        <v>-2.93066544939765</v>
-      </c>
-      <c r="X11" s="14" t="n">
-        <f aca="false">W11</f>
-        <v>-2.93066544939765</v>
-      </c>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="12" t="n">
-        <v>0.004711</v>
-      </c>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="14" t="n">
-        <v>10.858</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4" t="n">
-        <v>136.43075</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>136.43075</v>
-      </c>
-      <c r="J12" s="12" t="n">
-        <v>0.517066670710112</v>
-      </c>
-      <c r="K12" s="14" t="n">
-        <v>-1.8525592242383</v>
-      </c>
-      <c r="L12" s="14" t="n">
-        <v>8.13590559168222</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="10" t="n">
-        <v>0.1286961952</v>
-      </c>
-      <c r="S12" s="11" t="n">
-        <v>-4.1592617</v>
-      </c>
-      <c r="T12" s="11" t="n">
-        <v>-7.073297018</v>
-      </c>
-      <c r="U12" s="11" t="n">
-        <v>-9.987332337</v>
-      </c>
-      <c r="V12" s="11" t="n">
-        <v>17.886935033</v>
-      </c>
-      <c r="W12" s="14" t="n">
-        <v>-2.58059968993449</v>
-      </c>
-      <c r="X12" s="14" t="n">
-        <f aca="false">W12</f>
-        <v>-2.58059968993449</v>
-      </c>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="12" t="n">
-        <v>0.01399</v>
-      </c>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>5.928</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="n">
-        <v>116.165506643314</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>111.2654425</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>0.452838139572568</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <v>-1.9269940661065</v>
-      </c>
-      <c r="L13" s="14" t="n">
-        <v>13.6175966567185</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="10" t="n">
-        <v>0.2084861967</v>
-      </c>
-      <c r="S13" s="11" t="n">
-        <v>-2.956328846</v>
-      </c>
-      <c r="T13" s="11" t="n">
-        <v>-5.517944502</v>
-      </c>
-      <c r="U13" s="11" t="n">
-        <v>-8.079560157</v>
-      </c>
-      <c r="V13" s="11" t="n">
-        <v>21.388584916</v>
-      </c>
-      <c r="W13" s="14" t="n">
-        <v>-2.33723157320728</v>
-      </c>
-      <c r="X13" s="14" t="n">
-        <f aca="false">W13</f>
-        <v>-2.33723157320728</v>
-      </c>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="12" t="n">
-        <v>0.01658</v>
-      </c>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>5.80621691921868</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4" t="n">
-        <v>114.680832</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>114.667568</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="4" t="n">
-        <v>2980</v>
-      </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X14" s="14" t="n">
-        <f aca="false">W14</f>
-        <v>-3</v>
-      </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="12" t="n">
-        <v>0.00705467372114286</v>
-      </c>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>4.57561414355</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8" t="n">
-        <v>1.96422645197988</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>126.030629626838</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>120.733092319275</v>
-      </c>
-      <c r="J15" s="12" t="n">
-        <v>0.4455</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>-1.5011</v>
-      </c>
-      <c r="L15" s="14" t="n">
-        <v>5.31784425645142</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="4" t="n">
-        <v>1320</v>
-      </c>
-      <c r="R15" s="8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>-4.2680973065</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>-4.671333333</v>
-      </c>
-      <c r="U15" s="5" t="n">
-        <v>-5.306472053</v>
-      </c>
-      <c r="V15" s="5" t="n">
-        <v>59.44</v>
-      </c>
-      <c r="W15" s="14" t="n">
-        <v>-2.1239</v>
-      </c>
-      <c r="X15" s="5" t="n">
-        <v>-1.575</v>
-      </c>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="12" t="n">
-        <v>0.00203125</v>
-      </c>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>4.82033304119194</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8" t="n">
-        <v>2.28945240589391</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>96.5344149999999</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>96.7258480255697</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>0.559481945361776</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="4" t="n">
-        <v>2436.47453228934</v>
-      </c>
-      <c r="R16" s="10" t="n">
-        <v>0.2723431183</v>
-      </c>
-      <c r="S16" s="11" t="n">
-        <v>-4.048237444</v>
-      </c>
-      <c r="T16" s="11" t="n">
-        <v>-7.936104741</v>
-      </c>
-      <c r="U16" s="11" t="n">
-        <v>-11.82397204</v>
-      </c>
-      <c r="V16" s="11" t="n">
-        <v>13.34416461</v>
-      </c>
-      <c r="W16" s="14" t="n">
-        <v>-3.31752191897109</v>
-      </c>
-      <c r="X16" s="5" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="12" t="n">
-        <v>0.0079936</v>
-      </c>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>13.8945</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>109.70364178</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>1.80587174083789</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>93.1530411862769</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>88.740054</v>
-      </c>
-      <c r="J17" s="12" t="n">
-        <v>0.567636358187107</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="4" t="n">
-        <v>1154.78476961139</v>
-      </c>
-      <c r="R17" s="10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S17" s="11" t="n">
-        <v>-4.93</v>
-      </c>
-      <c r="T17" s="11" t="n">
-        <v>-7.13</v>
-      </c>
-      <c r="U17" s="11" t="n">
-        <v>-9.33</v>
-      </c>
-      <c r="V17" s="11" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="W17" s="14" t="n">
-        <v>-2.98834690821897</v>
-      </c>
-      <c r="X17" s="5" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="12" t="n">
-        <v>0.001659</v>
-      </c>
-      <c r="AA17" s="8" t="n">
-        <v>0.205</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>400</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>4.8305439331</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="n">
-        <v>3.1146926282787</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>150.407633751591</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>140.103958666373</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>0.367287331287258</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v>-1.42274895336093</v>
-      </c>
-      <c r="L18" s="14" t="n">
-        <v>6.71280382204902</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10" t="n">
-        <v>0.3134571207</v>
-      </c>
-      <c r="S18" s="11" t="n">
-        <v>-5.713847822</v>
-      </c>
-      <c r="T18" s="11" t="n">
-        <v>-10.35976827</v>
-      </c>
-      <c r="U18" s="11" t="n">
-        <v>-15.00568872</v>
-      </c>
-      <c r="V18" s="11" t="n">
-        <v>11.102207209</v>
-      </c>
-      <c r="W18" s="14" t="n">
-        <v>-1.97322438194395</v>
-      </c>
-      <c r="X18" s="14" t="n">
-        <f aca="false">W18</f>
-        <v>-1.97322438194395</v>
-      </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SpParams_default" sheetId="1" state="visible" r:id="rId3"/>
@@ -493,7 +493,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -534,6 +534,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF069A2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -592,7 +599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,11 +672,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,7 +704,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -693,11 +728,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4119,7 +4154,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P20" activeCellId="0" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="K50" activeCellId="0" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7071,8 +7106,8 @@
   </sheetPr>
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8629,12 +8664,12 @@
   </sheetPr>
   <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W4" activeCellId="0" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="V15" activeCellId="0" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8657,14 +8692,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="10.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="2" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8755,8 +8791,8 @@
       <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="XFA1" s="0"/>
-      <c r="XFB1" s="0"/>
+      <c r="XFA1" s="2"/>
+      <c r="XFB1" s="2"/>
       <c r="XFC1" s="2"/>
       <c r="XFD1" s="2"/>
     </row>
@@ -8768,94 +8804,94 @@
         <f aca="false">EXP(LN(C2)/1.4)</f>
         <v>267.362200013348</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="18" t="n">
         <v>2500</v>
       </c>
       <c r="D2" s="18" t="n">
         <f aca="false">EXP(LN(C2)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="19" t="n">
         <v>11.1296605453534</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="20" t="n">
         <v>35</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="G2" s="18" t="n">
         <v>51.5</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="21" t="n">
         <v>120.0791734</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="22" t="n">
         <v>0.71</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="3" t="n">
         <v>2.358</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="23" t="n">
         <f aca="false">1/J2</f>
         <v>0.424088210347752</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="18" t="n">
         <f aca="false">100*((1/I2) - (1/1.53))</f>
         <v>75.4855932983522</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="18" t="n">
         <f aca="false">J2*(N2-L2*(1- (1/J2)))</f>
         <v>186.718779108838</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="21" t="n">
         <v>122.658276</v>
       </c>
-      <c r="O2" s="20" t="n">
+      <c r="O2" s="24" t="n">
         <v>-2.48</v>
       </c>
-      <c r="P2" s="20" t="n">
+      <c r="P2" s="24" t="n">
         <v>14.72</v>
       </c>
-      <c r="Q2" s="21" t="n">
+      <c r="Q2" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R2" s="20" t="n">
+      <c r="R2" s="26" t="n">
         <f aca="false">0.52-4.16*I2</f>
         <v>-2.4336</v>
       </c>
-      <c r="S2" s="20" t="n">
+      <c r="S2" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I2)- 2.89)^0.5</f>
         <v>20.5733999579821</v>
       </c>
-      <c r="T2" s="21" t="n">
+      <c r="T2" s="27" t="n">
         <v>0.755</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="21" t="n">
         <v>4776.130138</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="19" t="n">
         <v>2.695</v>
       </c>
-      <c r="W2" s="20" t="n">
+      <c r="W2" s="26" t="n">
         <v>-2.142</v>
       </c>
-      <c r="X2" s="20" t="n">
+      <c r="X2" s="26" t="n">
         <v>-3.84</v>
       </c>
-      <c r="Y2" s="20" t="n">
+      <c r="Y2" s="26" t="n">
         <v>-5.8133</v>
       </c>
-      <c r="Z2" s="19" t="n">
+      <c r="Z2" s="18" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA2" s="20" t="n">
+      <c r="AA2" s="26" t="n">
         <v>-2.72</v>
       </c>
-      <c r="AB2" s="22" t="n">
+      <c r="AB2" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC2" s="16" t="n">
+      <c r="AC2" s="29" t="n">
         <v>0.0042</v>
       </c>
-      <c r="AD2" s="16" t="n">
+      <c r="AD2" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -8867,94 +8903,94 @@
         <f aca="false">EXP(LN(C3)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D3" s="18" t="n">
         <f aca="false">EXP(LN(C3)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="19" t="n">
         <v>7.921182266</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="20" t="n">
         <v>14.1</v>
       </c>
-      <c r="G3" s="19" t="n">
+      <c r="G3" s="18" t="n">
         <v>49.2</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="21" t="n">
         <v>98.5</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="22" t="n">
         <v>0.79</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="22" t="n">
         <v>1.6691407554284</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="23" t="n">
         <f aca="false">1/J3</f>
         <v>0.599110648246883</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="18" t="n">
         <f aca="false">100*((1/I3) - (1/1.53))</f>
         <v>61.2228013568296</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="18" t="n">
         <f aca="false">J3*(N3-L3*(1- (1/J3)))</f>
         <v>192.806703886108</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="21" t="n">
         <v>140.0561185</v>
       </c>
-      <c r="O3" s="23" t="n">
+      <c r="O3" s="30" t="n">
         <v>-2.24061076355396</v>
       </c>
-      <c r="P3" s="23" t="n">
+      <c r="P3" s="30" t="n">
         <v>13.6861585450528</v>
       </c>
-      <c r="Q3" s="21" t="n">
+      <c r="Q3" s="25" t="n">
         <v>0.72</v>
       </c>
-      <c r="R3" s="20" t="n">
+      <c r="R3" s="26" t="n">
         <f aca="false">0.52-4.16*I3</f>
         <v>-2.7664</v>
       </c>
-      <c r="S3" s="20" t="n">
+      <c r="S3" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I3)- 2.89)^0.5</f>
         <v>28.9531939902222</v>
       </c>
-      <c r="T3" s="21" t="n">
+      <c r="T3" s="27" t="n">
         <v>0.7423</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="21" t="n">
         <v>1990</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="14" t="n">
         <v>0.4212287</v>
       </c>
-      <c r="W3" s="24" t="n">
+      <c r="W3" s="30" t="n">
         <v>-6.684601329</v>
       </c>
-      <c r="X3" s="24" t="n">
+      <c r="X3" s="30" t="n">
         <v>-8.22732559</v>
       </c>
-      <c r="Y3" s="24" t="n">
+      <c r="Y3" s="30" t="n">
         <v>-9.770049851</v>
       </c>
-      <c r="Z3" s="25" t="n">
+      <c r="Z3" s="15" t="n">
         <v>40.20557204</v>
       </c>
-      <c r="AA3" s="23" t="n">
+      <c r="AA3" s="30" t="n">
         <v>-2.32449789044832</v>
       </c>
-      <c r="AB3" s="22" t="n">
+      <c r="AB3" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC3" s="12" t="n">
         <v>0.002819</v>
       </c>
-      <c r="AD3" s="8" t="n">
+      <c r="AD3" s="22" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -8966,90 +9002,95 @@
         <f aca="false">EXP(LN(C4)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D4" s="18" t="n">
         <f aca="false">EXP(LN(C4)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="19" t="n">
         <v>8.4348179086</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="20" t="n">
         <v>18.5979166666666</v>
       </c>
-      <c r="G4" s="19" t="n">
+      <c r="G4" s="18" t="n">
         <v>66.43</v>
       </c>
-      <c r="H4" s="19" t="n">
+      <c r="H4" s="18" t="n">
         <v>115.7</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="22" t="n">
         <v>1.6674653809253</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="23" t="n">
         <f aca="false">1/J4</f>
         <v>0.599712600596893</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="18" t="n">
         <f aca="false">100*((1/I4) - (1/1.53))</f>
         <v>59.640522875817</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="18" t="n">
         <f aca="false">J4*(N4-L4*(1- (1/J4)))</f>
         <v>150.241329112178</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="21" t="n">
         <v>113.974968</v>
       </c>
-      <c r="O4" s="23" t="n">
+      <c r="O4" s="30" t="n">
         <v>-2.32190138989068</v>
       </c>
-      <c r="P4" s="23" t="n">
+      <c r="P4" s="30" t="n">
         <v>13.741165480704</v>
       </c>
-      <c r="Q4" s="21" t="n">
+      <c r="Q4" s="25" t="n">
         <v>0.29</v>
       </c>
-      <c r="R4" s="20" t="n">
+      <c r="R4" s="26" t="n">
         <f aca="false">0.52-4.16*I4</f>
         <v>-2.808</v>
       </c>
-      <c r="S4" s="20" t="n">
+      <c r="S4" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I4)- 2.89)^0.5</f>
         <v>30.2144706636311</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="27" t="n">
         <v>0.833</v>
       </c>
-      <c r="U4" s="19" t="n">
+      <c r="U4" s="18" t="n">
         <v>2284.9</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="14" t="n">
         <v>0.1393276892</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="20" t="n">
         <v>-4.94</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="19" t="n">
         <v>-8</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="23" t="n">
+      <c r="Y4" s="26" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="Z4" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y4)- ABS(W4))</f>
+        <v>12.751677852349</v>
+      </c>
+      <c r="AA4" s="30" t="n">
         <v>-2.92181955290895</v>
       </c>
-      <c r="AB4" s="22" t="n">
+      <c r="AB4" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC4" s="12" t="n">
         <v>0.001516</v>
       </c>
-      <c r="AD4" s="16" t="n">
+      <c r="AD4" s="29" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9061,94 +9102,94 @@
         <f aca="false">EXP(LN(C5)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="18" t="n">
         <v>400</v>
       </c>
       <c r="D5" s="18" t="n">
         <f aca="false">EXP(LN(C5)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="19" t="n">
         <v>6.866</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="20" t="n">
         <v>15.55</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="18" t="n">
         <v>95.29</v>
       </c>
-      <c r="H5" s="19" t="n">
+      <c r="H5" s="18" t="n">
         <v>167</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="22" t="n">
         <v>0.78</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="22" t="n">
         <v>2.86827625720614</v>
       </c>
-      <c r="K5" s="13" t="n">
+      <c r="K5" s="23" t="n">
         <f aca="false">1/J5</f>
         <v>0.348641452331393</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="18" t="n">
         <f aca="false">100*((1/I5) - (1/1.53))</f>
         <v>62.8456510809452</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="18" t="n">
         <f aca="false">J5*(N5-L5*(1- (1/J5)))</f>
         <v>242.988865546897</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="21" t="n">
         <v>125.651043</v>
       </c>
-      <c r="O5" s="23" t="n">
+      <c r="O5" s="30" t="n">
         <v>-1.71902985909749</v>
       </c>
-      <c r="P5" s="23" t="n">
+      <c r="P5" s="30" t="n">
         <v>6.40509511402895</v>
       </c>
-      <c r="Q5" s="21" t="n">
+      <c r="Q5" s="25" t="n">
         <v>0.29</v>
       </c>
-      <c r="R5" s="20" t="n">
+      <c r="R5" s="26" t="n">
         <f aca="false">0.52-4.16*I5</f>
         <v>-2.7248</v>
       </c>
-      <c r="S5" s="20" t="n">
+      <c r="S5" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I5)- 2.89)^0.5</f>
         <v>27.7442212731705</v>
       </c>
-      <c r="T5" s="21" t="n">
+      <c r="T5" s="27" t="n">
         <v>0.7</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="21" t="n">
         <v>3530</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="14" t="n">
         <v>0.1689526292</v>
       </c>
-      <c r="W5" s="24" t="n">
+      <c r="W5" s="30" t="n">
         <v>-6.733965191</v>
       </c>
-      <c r="X5" s="24" t="n">
+      <c r="X5" s="30" t="n">
         <v>-10.14762341</v>
       </c>
-      <c r="Y5" s="24" t="n">
+      <c r="Y5" s="30" t="n">
         <v>-13.56128162</v>
       </c>
-      <c r="Z5" s="25" t="n">
+      <c r="Z5" s="15" t="n">
         <v>15.849100066</v>
       </c>
-      <c r="AA5" s="23" t="n">
+      <c r="AA5" s="30" t="n">
         <v>-2.17054287918342</v>
       </c>
-      <c r="AB5" s="22" t="n">
+      <c r="AB5" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC5" s="12" t="n">
         <v>0.003437</v>
       </c>
-      <c r="AD5" s="16" t="n">
+      <c r="AD5" s="29" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9160,94 +9201,95 @@
         <f aca="false">EXP(LN(C6)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="18" t="n">
         <v>400</v>
       </c>
       <c r="D6" s="18" t="n">
         <f aca="false">EXP(LN(C6)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="19" t="n">
         <v>6.5871813451</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="20" t="n">
         <v>14.31</v>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="18" t="n">
         <v>95.28</v>
       </c>
-      <c r="H6" s="19" t="n">
+      <c r="H6" s="18" t="n">
         <v>167</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="22" t="n">
         <v>0.78</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="22" t="n">
         <v>2.86827625720614</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="23" t="n">
         <f aca="false">1/J6</f>
         <v>0.348641452331393</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="18" t="n">
         <f aca="false">100*((1/I6) - (1/1.53))</f>
         <v>62.8456510809452</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="18" t="n">
         <f aca="false">J6*(N6-L6*(1- (1/J6)))</f>
         <v>265.960204572835</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="21" t="n">
         <v>133.659804</v>
       </c>
-      <c r="O6" s="23" t="n">
+      <c r="O6" s="30" t="n">
         <v>-1.9796889440226</v>
       </c>
-      <c r="P6" s="23" t="n">
+      <c r="P6" s="30" t="n">
         <v>9.61055583128884</v>
       </c>
-      <c r="Q6" s="21" t="n">
+      <c r="Q6" s="25" t="n">
         <v>0.29</v>
       </c>
-      <c r="R6" s="20" t="n">
+      <c r="R6" s="26" t="n">
         <f aca="false">0.52-4.16*I6</f>
         <v>-2.7248</v>
       </c>
-      <c r="S6" s="20" t="n">
+      <c r="S6" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I6)- 2.89)^0.5</f>
         <v>27.7442212731705</v>
       </c>
-      <c r="T6" s="21" t="n">
+      <c r="T6" s="27" t="n">
         <v>0.7</v>
       </c>
-      <c r="U6" s="19" t="n">
+      <c r="U6" s="18" t="n">
         <v>1457.7</v>
       </c>
-      <c r="V6" s="21" t="n">
+      <c r="V6" s="27" t="n">
         <v>0.426</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="20" t="n">
         <v>-8.3</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="20" t="n">
         <v>-10.2</v>
       </c>
-      <c r="Y6" s="20" t="n">
+      <c r="Y6" s="26" t="n">
         <v>-13.56</v>
       </c>
-      <c r="Z6" s="19" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="AA6" s="23" t="n">
+      <c r="Z6" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y6)- ABS(W6))</f>
+        <v>14.4486692015209</v>
+      </c>
+      <c r="AA6" s="30" t="n">
         <v>-2.16254532499295</v>
       </c>
-      <c r="AB6" s="22" t="n">
+      <c r="AB6" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC6" s="12" t="n">
         <v>0.004014</v>
       </c>
-      <c r="AD6" s="16" t="n">
+      <c r="AD6" s="29" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9259,7 +9301,7 @@
         <f aca="false">EXP(LN(C7)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="18" t="n">
         <v>400</v>
       </c>
       <c r="D7" s="18" t="n">
@@ -9269,82 +9311,85 @@
       <c r="E7" s="14" t="n">
         <v>6.047</v>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="26" t="n">
         <v>49.7</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="18" t="n">
         <v>113.83</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="18" t="n">
         <v>182.6</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="22" t="n">
         <v>0.7</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="22" t="n">
         <v>5.67380422886498</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="23" t="n">
         <f aca="false">1/J7</f>
         <v>0.176248590833041</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="18" t="n">
         <f aca="false">100*((1/I7) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="18" t="n">
         <f aca="false">J7*(N7-L7*(1- (1/J7)))</f>
         <v>641.751543151177</v>
       </c>
       <c r="N7" s="15" t="n">
         <v>176.9466165</v>
       </c>
-      <c r="O7" s="20" t="n">
+      <c r="O7" s="24" t="n">
         <v>-1.642</v>
       </c>
-      <c r="P7" s="20" t="n">
+      <c r="P7" s="24" t="n">
         <v>13.577</v>
       </c>
-      <c r="Q7" s="21" t="n">
+      <c r="Q7" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R7" s="20" t="n">
+      <c r="R7" s="26" t="n">
         <f aca="false">0.52-4.16*I7</f>
         <v>-2.392</v>
       </c>
-      <c r="S7" s="20" t="n">
+      <c r="S7" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I7)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T7" s="21" t="n">
+      <c r="T7" s="27" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U7" s="19" t="n">
+      <c r="U7" s="18" t="n">
         <v>13004</v>
       </c>
-      <c r="V7" s="21" t="n">
+      <c r="V7" s="27" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W7" s="20" t="n">
+      <c r="W7" s="26" t="n">
         <v>-1.215</v>
       </c>
-      <c r="X7" s="20" t="n">
+      <c r="X7" s="26" t="n">
         <v>-2.39</v>
       </c>
-      <c r="Y7" s="20" t="n">
+      <c r="Y7" s="26" t="n">
         <v>-4.03</v>
       </c>
-      <c r="Z7" s="19"/>
+      <c r="Z7" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y7)- ABS(W7))</f>
+        <v>26.9982238010657</v>
+      </c>
       <c r="AA7" s="26" t="n">
         <v>-1.608</v>
       </c>
-      <c r="AB7" s="22" t="n">
+      <c r="AB7" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC7" s="16" t="n">
+      <c r="AC7" s="29" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD7" s="16" t="n">
+      <c r="AD7" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9356,92 +9401,95 @@
         <f aca="false">EXP(LN(C8)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="18" t="n">
         <v>400</v>
       </c>
       <c r="D8" s="18" t="n">
         <f aca="false">EXP(LN(C8)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E8" s="21" t="n">
+      <c r="E8" s="27" t="n">
         <v>16.2</v>
       </c>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="26" t="n">
         <v>29.2</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="18" t="n">
         <v>54.99</v>
       </c>
-      <c r="H8" s="19" t="n">
+      <c r="H8" s="18" t="n">
         <v>98.6</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="22" t="n">
         <v>0.7</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="22" t="n">
         <v>3.85794536330718</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="23" t="n">
         <f aca="false">1/J8</f>
         <v>0.259205329736127</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="18" t="n">
         <f aca="false">100*((1/I8) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="18" t="n">
         <f aca="false">J8*(N8-L8*(1- (1/J8)))</f>
         <v>252.089670893927</v>
       </c>
       <c r="N8" s="15" t="n">
         <v>122.752844</v>
       </c>
-      <c r="O8" s="20" t="n">
+      <c r="O8" s="24" t="n">
         <v>-0.72</v>
       </c>
-      <c r="P8" s="20" t="n">
+      <c r="P8" s="24" t="n">
         <v>5.92</v>
       </c>
-      <c r="Q8" s="21" t="n">
+      <c r="Q8" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R8" s="20" t="n">
+      <c r="R8" s="26" t="n">
         <f aca="false">0.52-4.16*I8</f>
         <v>-2.392</v>
       </c>
-      <c r="S8" s="20" t="n">
+      <c r="S8" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I8)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T8" s="21" t="n">
+      <c r="T8" s="27" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U8" s="19" t="n">
+      <c r="U8" s="18" t="n">
         <v>13004</v>
       </c>
-      <c r="V8" s="21" t="n">
+      <c r="V8" s="27" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W8" s="20" t="n">
+      <c r="W8" s="26" t="n">
         <v>-2.001</v>
       </c>
-      <c r="X8" s="20" t="n">
+      <c r="X8" s="26" t="n">
         <v>-3.62</v>
       </c>
-      <c r="Y8" s="20" t="n">
+      <c r="Y8" s="26" t="n">
         <v>-5.54</v>
       </c>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="20" t="n">
+      <c r="Z8" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y8)- ABS(W8))</f>
+        <v>21.4749929358576</v>
+      </c>
+      <c r="AA8" s="26" t="n">
         <v>-0.56</v>
       </c>
-      <c r="AB8" s="22" t="n">
+      <c r="AB8" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC8" s="16" t="n">
+      <c r="AC8" s="29" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD8" s="16" t="n">
+      <c r="AD8" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9453,44 +9501,44 @@
         <f aca="false">EXP(LN(C9)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="18" t="n">
         <v>400</v>
       </c>
       <c r="D9" s="18" t="n">
         <f aca="false">EXP(LN(C9)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="19" t="n">
         <v>16.192170819</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="20" t="n">
         <v>29.2083333333333</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="18" t="n">
         <v>55.01</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="18" t="n">
         <v>98.63</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="22" t="n">
         <v>0.7</v>
       </c>
-      <c r="J9" s="16" t="n">
+      <c r="J9" s="29" t="n">
         <v>3.85794536330718</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="23" t="n">
         <f aca="false">1/J9</f>
         <v>0.259205329736127</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="18" t="n">
         <f aca="false">100*((1/I9) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="18" t="n">
         <f aca="false">J9*(N9-L9*(1- (1/J9)))</f>
         <v>361.065655410742</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="21" t="n">
         <v>151</v>
       </c>
       <c r="O9" s="6" t="n">
@@ -9499,48 +9547,48 @@
       <c r="P9" s="6" t="n">
         <v>5.92</v>
       </c>
-      <c r="Q9" s="21" t="n">
+      <c r="Q9" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R9" s="20" t="n">
+      <c r="R9" s="26" t="n">
         <f aca="false">0.52-4.16*I9</f>
         <v>-2.392</v>
       </c>
-      <c r="S9" s="20" t="n">
+      <c r="S9" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I9)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T9" s="21" t="n">
+      <c r="T9" s="27" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U9" s="19" t="n">
+      <c r="U9" s="18" t="n">
         <v>13004</v>
       </c>
-      <c r="V9" s="21" t="n">
+      <c r="V9" s="27" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="20" t="n">
         <v>-2.8</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="20" t="n">
         <v>-3.62</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="20" t="n">
         <v>-4.2</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="21" t="n">
         <v>65.50862069</v>
       </c>
-      <c r="AA9" s="20" t="n">
+      <c r="AA9" s="26" t="n">
         <v>-0.56</v>
       </c>
-      <c r="AB9" s="22" t="n">
+      <c r="AB9" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC9" s="16" t="n">
+      <c r="AC9" s="29" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD9" s="16" t="n">
+      <c r="AD9" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9552,94 +9600,94 @@
         <f aca="false">EXP(LN(C10)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D10" s="18" t="n">
         <f aca="false">EXP(LN(C10)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="19" t="n">
         <v>8.03</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="20" t="n">
         <v>10.675</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="18" t="n">
         <v>51.19</v>
       </c>
-      <c r="H10" s="19" t="n">
+      <c r="H10" s="18" t="n">
         <v>92.79</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="22" t="n">
         <v>0.72</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="22" t="n">
         <v>1.95223310621838</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="23" t="n">
         <f aca="false">1/J10</f>
         <v>0.512233911419049</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="18" t="n">
         <f aca="false">100*((1/I10) - (1/1.53))</f>
         <v>73.5294117647059</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="18" t="n">
         <f aca="false">J10*(N10-L10*(1- (1/J10)))</f>
         <v>142.092516610382</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="21" t="n">
         <v>108.649759138841</v>
       </c>
-      <c r="O10" s="23" t="n">
+      <c r="O10" s="30" t="n">
         <v>-2.80162794800361</v>
       </c>
-      <c r="P10" s="23" t="n">
+      <c r="P10" s="30" t="n">
         <v>22.3517952586394</v>
       </c>
-      <c r="Q10" s="21" t="n">
+      <c r="Q10" s="25" t="n">
         <v>0.466</v>
       </c>
-      <c r="R10" s="20" t="n">
+      <c r="R10" s="26" t="n">
         <f aca="false">0.52-4.16*I10</f>
         <v>-2.4752</v>
       </c>
-      <c r="S10" s="20" t="n">
+      <c r="S10" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I10)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T10" s="21" t="n">
+      <c r="T10" s="27" t="n">
         <v>0.742</v>
       </c>
-      <c r="U10" s="4" t="n">
+      <c r="U10" s="21" t="n">
         <v>2040</v>
       </c>
-      <c r="V10" s="11" t="n">
+      <c r="V10" s="14" t="n">
         <v>0.0693018125</v>
       </c>
-      <c r="W10" s="24" t="n">
+      <c r="W10" s="31" t="n">
         <v>-4.338385029</v>
       </c>
-      <c r="X10" s="24" t="n">
+      <c r="X10" s="30" t="n">
         <v>-11.4510026</v>
       </c>
-      <c r="Y10" s="24" t="n">
+      <c r="Y10" s="30" t="n">
         <v>-18.56362017</v>
       </c>
-      <c r="Z10" s="25" t="n">
+      <c r="Z10" s="15" t="n">
         <v>7.0420149194</v>
       </c>
-      <c r="AA10" s="23" t="n">
+      <c r="AA10" s="30" t="n">
         <v>-3.24247138458736</v>
       </c>
-      <c r="AB10" s="22" t="n">
+      <c r="AB10" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC10" s="12" t="n">
         <v>0.0053115</v>
       </c>
-      <c r="AD10" s="16" t="n">
+      <c r="AD10" s="29" t="n">
         <v>0.17233</v>
       </c>
     </row>
@@ -9651,92 +9699,95 @@
         <f aca="false">EXP(LN(C11)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D11" s="18" t="n">
         <f aca="false">EXP(LN(C11)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="19" t="n">
         <v>10.87</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="20" t="n">
         <v>14.1416666665</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="H11" s="18" t="n">
         <v>85.97</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="22" t="n">
         <v>0.72</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="22" t="n">
         <v>2.55484265546135</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="23" t="n">
         <f aca="false">1/J11</f>
         <v>0.391413536901129</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="18" t="n">
         <f aca="false">100*((1/I11) - (1/1.53))</f>
         <v>73.5294117647059</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="18" t="n">
         <f aca="false">J11*(N11-L11*(1- (1/J11)))</f>
         <v>185.680773679362</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="21" t="n">
         <v>117.426973</v>
       </c>
-      <c r="O11" s="20" t="n">
+      <c r="O11" s="24" t="n">
         <v>-1.67</v>
       </c>
-      <c r="P11" s="20" t="n">
+      <c r="P11" s="24" t="n">
         <v>14.38</v>
       </c>
-      <c r="Q11" s="21" t="n">
+      <c r="Q11" s="25" t="n">
         <v>0.466</v>
       </c>
-      <c r="R11" s="20" t="n">
+      <c r="R11" s="26" t="n">
         <f aca="false">0.52-4.16*I11</f>
         <v>-2.4752</v>
       </c>
-      <c r="S11" s="20" t="n">
+      <c r="S11" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I11)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T11" s="21" t="n">
+      <c r="T11" s="27" t="n">
         <v>0.742</v>
       </c>
-      <c r="U11" s="19" t="n">
+      <c r="U11" s="18" t="n">
         <v>2042.495</v>
       </c>
-      <c r="V11" s="21" t="n">
+      <c r="V11" s="27" t="n">
         <v>0.668</v>
       </c>
-      <c r="W11" s="20" t="n">
+      <c r="W11" s="26" t="n">
         <v>-1.41</v>
       </c>
-      <c r="X11" s="20" t="n">
+      <c r="X11" s="26" t="n">
         <v>-2.7</v>
       </c>
-      <c r="Y11" s="20" t="n">
+      <c r="Y11" s="26" t="n">
         <v>-4.41</v>
       </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="20" t="n">
+      <c r="Z11" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y11)- ABS(W11))</f>
+        <v>25.3333333333333</v>
+      </c>
+      <c r="AA11" s="26" t="n">
         <v>-1.63</v>
       </c>
-      <c r="AB11" s="22" t="n">
+      <c r="AB11" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC11" s="16" t="n">
+      <c r="AC11" s="29" t="n">
         <v>0.00414</v>
       </c>
-      <c r="AD11" s="16" t="n">
+      <c r="AD11" s="29" t="n">
         <v>0.17233</v>
       </c>
     </row>
@@ -9748,94 +9799,94 @@
         <f aca="false">EXP(LN(C12)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D12" s="18" t="n">
         <f aca="false">EXP(LN(C12)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="19" t="n">
         <v>6.975</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="20" t="n">
         <v>13.6</v>
       </c>
-      <c r="G12" s="19" t="n">
+      <c r="G12" s="18" t="n">
         <v>63.24</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="18" t="n">
         <v>110.99</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="22" t="n">
         <v>0.72</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="22" t="n">
         <v>2.55484265546135</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="23" t="n">
         <f aca="false">1/J12</f>
         <v>0.391413536901129</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="18" t="n">
         <f aca="false">100*((1/I12) - (1/1.53))</f>
         <v>73.5294117647059</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="18" t="n">
         <f aca="false">J12*(N12-L12*(1- (1/J12)))</f>
         <v>200.028081502337</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="21" t="n">
         <v>123.0427035</v>
       </c>
-      <c r="O12" s="23" t="n">
+      <c r="O12" s="30" t="n">
         <v>-2.20987373229647</v>
       </c>
-      <c r="P12" s="23" t="n">
+      <c r="P12" s="30" t="n">
         <v>45.2098777291801</v>
       </c>
-      <c r="Q12" s="21" t="n">
+      <c r="Q12" s="25" t="n">
         <v>0.466</v>
       </c>
-      <c r="R12" s="20" t="n">
+      <c r="R12" s="26" t="n">
         <f aca="false">0.52-4.16*I12</f>
         <v>-2.4752</v>
       </c>
-      <c r="S12" s="20" t="n">
+      <c r="S12" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I12)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T12" s="21" t="n">
+      <c r="T12" s="27" t="n">
         <v>0.742</v>
       </c>
-      <c r="U12" s="19" t="n">
+      <c r="U12" s="18" t="n">
         <v>2042.495</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="14" t="n">
         <v>0.1975867375</v>
       </c>
-      <c r="W12" s="24" t="n">
+      <c r="W12" s="30" t="n">
         <v>-0.926429729</v>
       </c>
-      <c r="X12" s="24" t="n">
+      <c r="X12" s="30" t="n">
         <v>-7.341125025</v>
       </c>
-      <c r="Y12" s="24" t="n">
+      <c r="Y12" s="30" t="n">
         <v>-13.75582032</v>
       </c>
-      <c r="Z12" s="25" t="n">
+      <c r="Z12" s="15" t="n">
         <v>7.813877822</v>
       </c>
-      <c r="AA12" s="23" t="n">
+      <c r="AA12" s="30" t="n">
         <v>-2.93066544939765</v>
       </c>
-      <c r="AB12" s="22" t="n">
+      <c r="AB12" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC12" s="12" t="n">
         <v>0.004711</v>
       </c>
-      <c r="AD12" s="16" t="n">
+      <c r="AD12" s="29" t="n">
         <v>0.17233</v>
       </c>
     </row>
@@ -9847,7 +9898,7 @@
         <f aca="false">EXP(LN(C13)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D13" s="18" t="n">
@@ -9857,84 +9908,84 @@
       <c r="E13" s="14" t="n">
         <v>10.858</v>
       </c>
-      <c r="F13" s="20" t="n">
+      <c r="F13" s="26" t="n">
         <v>26.32</v>
       </c>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="18" t="n">
         <v>69.95</v>
       </c>
-      <c r="H13" s="19" t="n">
+      <c r="H13" s="18" t="n">
         <v>120.89</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="22" t="n">
         <v>0.62</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="23" t="n">
         <f aca="false">1/J13</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="18" t="n">
         <f aca="false">100*((1/I13) - (1/1.53))</f>
         <v>95.9308454564622</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="18" t="n">
         <f aca="false">J13*(N13-L13*(1- (1/J13)))</f>
         <v>156.680702271769</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="21" t="n">
         <v>136.43075</v>
       </c>
-      <c r="O13" s="23" t="n">
+      <c r="O13" s="30" t="n">
         <v>-1.8525592242383</v>
       </c>
-      <c r="P13" s="23" t="n">
+      <c r="P13" s="30" t="n">
         <v>8.13590559168222</v>
       </c>
-      <c r="Q13" s="21" t="n">
+      <c r="Q13" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R13" s="20" t="n">
+      <c r="R13" s="26" t="n">
         <f aca="false">0.52-4.16*I13</f>
         <v>-2.0592</v>
       </c>
-      <c r="S13" s="20" t="n">
+      <c r="S13" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I13)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T13" s="21" t="n">
+      <c r="T13" s="27" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U13" s="19" t="n">
+      <c r="U13" s="18" t="n">
         <v>13004</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="14" t="n">
         <v>0.1286961952</v>
       </c>
-      <c r="W13" s="24" t="n">
+      <c r="W13" s="30" t="n">
         <v>-4.1592617</v>
       </c>
-      <c r="X13" s="24" t="n">
+      <c r="X13" s="30" t="n">
         <v>-7.073297018</v>
       </c>
-      <c r="Y13" s="24" t="n">
+      <c r="Y13" s="30" t="n">
         <v>-9.987332337</v>
       </c>
-      <c r="Z13" s="25" t="n">
+      <c r="Z13" s="15" t="n">
         <v>17.886935033</v>
       </c>
-      <c r="AA13" s="23" t="n">
+      <c r="AA13" s="30" t="n">
         <v>-2.58059968993449</v>
       </c>
-      <c r="AB13" s="22" t="n">
+      <c r="AB13" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC13" s="12" t="n">
         <v>0.01399</v>
       </c>
-      <c r="AD13" s="16" t="n">
+      <c r="AD13" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -9946,94 +9997,94 @@
         <f aca="false">EXP(LN(C14)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D14" s="18" t="n">
         <f aca="false">EXP(LN(C14)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="19" t="n">
         <v>5.928</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="F14" s="26" t="n">
         <v>26.3</v>
       </c>
-      <c r="G14" s="19" t="n">
+      <c r="G14" s="18" t="n">
         <v>88.537</v>
       </c>
-      <c r="H14" s="19" t="n">
+      <c r="H14" s="18" t="n">
         <v>147.59</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="22" t="n">
         <v>0.62</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="23" t="n">
         <f aca="false">1/J14</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="18" t="n">
         <f aca="false">100*((1/I14) - (1/1.53))</f>
         <v>95.9308454564622</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="18" t="n">
         <f aca="false">J14*(N14-L14*(1- (1/J14)))</f>
         <v>126.28283723674</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="21" t="n">
         <v>116.165506643314</v>
       </c>
-      <c r="O14" s="23" t="n">
+      <c r="O14" s="30" t="n">
         <v>-1.9269940661065</v>
       </c>
-      <c r="P14" s="23" t="n">
+      <c r="P14" s="30" t="n">
         <v>13.6175966567185</v>
       </c>
-      <c r="Q14" s="21" t="n">
+      <c r="Q14" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R14" s="20" t="n">
+      <c r="R14" s="26" t="n">
         <f aca="false">0.52-4.16*I14</f>
         <v>-2.0592</v>
       </c>
-      <c r="S14" s="20" t="n">
+      <c r="S14" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I14)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T14" s="21" t="n">
+      <c r="T14" s="27" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U14" s="19" t="n">
+      <c r="U14" s="18" t="n">
         <v>13004</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="14" t="n">
         <v>0.2084861967</v>
       </c>
-      <c r="W14" s="24" t="n">
+      <c r="W14" s="30" t="n">
         <v>-2.956328846</v>
       </c>
-      <c r="X14" s="24" t="n">
+      <c r="X14" s="30" t="n">
         <v>-5.517944502</v>
       </c>
-      <c r="Y14" s="24" t="n">
+      <c r="Y14" s="30" t="n">
         <v>-8.079560157</v>
       </c>
-      <c r="Z14" s="25" t="n">
+      <c r="Z14" s="15" t="n">
         <v>21.388584916</v>
       </c>
-      <c r="AA14" s="23" t="n">
+      <c r="AA14" s="30" t="n">
         <v>-2.33723157320728</v>
       </c>
-      <c r="AB14" s="22" t="n">
+      <c r="AB14" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC14" s="12" t="n">
         <v>0.01658</v>
       </c>
-      <c r="AD14" s="16" t="n">
+      <c r="AD14" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -10045,92 +10096,95 @@
         <f aca="false">EXP(LN(C15)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D15" s="18" t="n">
         <f aca="false">EXP(LN(C15)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="19" t="n">
         <v>40.13</v>
       </c>
-      <c r="F15" s="20" t="n">
+      <c r="F15" s="26" t="n">
         <v>42.42</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="18" t="n">
         <v>25.9</v>
       </c>
-      <c r="H15" s="19" t="n">
+      <c r="H15" s="18" t="n">
         <v>52.16</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="22" t="n">
         <v>0.62</v>
       </c>
-      <c r="J15" s="16" t="n">
+      <c r="J15" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="23" t="n">
         <f aca="false">1/J15</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="18" t="n">
         <f aca="false">100*((1/I15) - (1/1.53))</f>
         <v>95.9308454564622</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="18" t="n">
         <f aca="false">J15*(N15-L15*(1- (1/J15)))</f>
         <v>180.698858271769</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="21" t="n">
         <v>152.442854</v>
       </c>
-      <c r="O15" s="20" t="n">
+      <c r="O15" s="24" t="n">
         <v>-1.64</v>
       </c>
-      <c r="P15" s="20" t="n">
+      <c r="P15" s="24" t="n">
         <v>13.57</v>
       </c>
-      <c r="Q15" s="21" t="n">
+      <c r="Q15" s="25" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R15" s="20" t="n">
+      <c r="R15" s="26" t="n">
         <f aca="false">0.52-4.16*I15</f>
         <v>-2.0592</v>
       </c>
-      <c r="S15" s="20" t="n">
+      <c r="S15" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I15)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T15" s="21" t="n">
+      <c r="T15" s="27" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U15" s="19" t="n">
+      <c r="U15" s="18" t="n">
         <v>13004</v>
       </c>
-      <c r="V15" s="21" t="n">
+      <c r="V15" s="27" t="n">
         <v>2.91</v>
       </c>
-      <c r="W15" s="20" t="n">
+      <c r="W15" s="26" t="n">
         <v>-1.215</v>
       </c>
-      <c r="X15" s="20" t="n">
+      <c r="X15" s="26" t="n">
         <v>-2.39</v>
       </c>
-      <c r="Y15" s="20" t="n">
+      <c r="Y15" s="26" t="n">
         <v>-4.039</v>
       </c>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="20" t="n">
+      <c r="Z15" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y15)- ABS(W15))</f>
+        <v>26.9121813031162</v>
+      </c>
+      <c r="AA15" s="26" t="n">
         <v>-1.608</v>
       </c>
-      <c r="AB15" s="22" t="n">
+      <c r="AB15" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC15" s="16" t="n">
+      <c r="AC15" s="29" t="n">
         <v>0.0056</v>
       </c>
-      <c r="AD15" s="16" t="n">
+      <c r="AD15" s="29" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -10142,92 +10196,95 @@
         <f aca="false">EXP(LN(C16)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D16" s="18" t="n">
         <f aca="false">EXP(LN(C16)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="19" t="n">
         <v>5.80621691921868</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="20" t="n">
         <v>8.2</v>
       </c>
-      <c r="G16" s="19" t="n">
+      <c r="G16" s="18" t="n">
         <v>55.01</v>
       </c>
-      <c r="H16" s="19" t="n">
+      <c r="H16" s="18" t="n">
         <v>157.6</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="22" t="n">
         <v>0.56</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="22" t="n">
         <v>1.482</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="23" t="n">
         <f aca="false">1/J16</f>
         <v>0.67476383265857</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="18" t="n">
         <f aca="false">100*((1/I16) - (1/1.53))</f>
         <v>113.211951447246</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="18" t="n">
         <f aca="false">J16*(N16-L16*(1- (1/J16)))</f>
         <v>115.388832426428</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="21" t="n">
         <v>114.680832</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="20" t="n">
+      <c r="P16" s="24" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q16" s="21" t="n">
+      <c r="Q16" s="25" t="n">
         <v>0.272</v>
       </c>
-      <c r="R16" s="20" t="n">
+      <c r="R16" s="26" t="n">
         <f aca="false">0.52-4.16*I16</f>
         <v>-1.8096</v>
       </c>
-      <c r="S16" s="20" t="n">
+      <c r="S16" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I16)- 2.89)^0.5</f>
         <v>10.7791857028706</v>
       </c>
-      <c r="T16" s="21" t="n">
+      <c r="T16" s="27" t="n">
         <v>0.932</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="21" t="n">
         <v>2980</v>
       </c>
-      <c r="V16" s="21" t="n">
+      <c r="V16" s="27" t="n">
         <v>0.3268</v>
       </c>
-      <c r="W16" s="20" t="n">
+      <c r="W16" s="26" t="n">
         <v>-5.71</v>
       </c>
-      <c r="X16" s="20" t="n">
+      <c r="X16" s="26" t="n">
         <v>-9.42</v>
       </c>
-      <c r="Y16" s="20" t="n">
+      <c r="Y16" s="26" t="n">
         <v>-12.64</v>
       </c>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="23" t="n">
+      <c r="Z16" s="18" t="n">
+        <f aca="false">(88-12)/(ABS(Y16)- ABS(W16))</f>
+        <v>10.966810966811</v>
+      </c>
+      <c r="AA16" s="30" t="n">
         <v>-3</v>
       </c>
-      <c r="AB16" s="22" t="n">
+      <c r="AB16" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC16" s="12" t="n">
         <v>0.00705467372114286</v>
       </c>
-      <c r="AD16" s="22" t="n">
+      <c r="AD16" s="28" t="n">
         <v>0.084</v>
       </c>
     </row>
@@ -10239,94 +10296,94 @@
         <f aca="false">EXP(LN(C17)/1.4)</f>
         <v>267.362200013348</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="18" t="n">
         <v>2500</v>
       </c>
       <c r="D17" s="18" t="n">
         <f aca="false">EXP(LN(C17)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="19" t="n">
         <v>4.57561414355</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="20" t="n">
         <v>11.8</v>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="G17" s="18" t="n">
         <v>54.36</v>
       </c>
-      <c r="H17" s="19" t="n">
+      <c r="H17" s="18" t="n">
         <v>120.6</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="22" t="n">
         <v>0.6077</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="22" t="n">
         <v>1.96422645197988</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="23" t="n">
         <f aca="false">1/J17</f>
         <v>0.509106268776714</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="18" t="n">
         <f aca="false">100*((1/I17) - (1/1.53))</f>
         <v>99.1954019279809</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="18" t="n">
         <f aca="false">J17*(N17-L17*(1- (1/J17)))</f>
         <v>140.06034378385</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="O17" s="23" t="n">
+      <c r="O17" s="30" t="n">
         <v>-1.5011</v>
       </c>
-      <c r="P17" s="23" t="n">
+      <c r="P17" s="30" t="n">
         <v>5.31784425645142</v>
       </c>
-      <c r="Q17" s="22" t="n">
+      <c r="Q17" s="32" t="n">
         <v>0.35</v>
       </c>
-      <c r="R17" s="20" t="n">
+      <c r="R17" s="26" t="n">
         <f aca="false">0.52-4.16*I17</f>
         <v>-2.008032</v>
       </c>
-      <c r="S17" s="20" t="n">
+      <c r="S17" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I17)- 2.89)^0.5</f>
         <v>13.2562652363486</v>
       </c>
-      <c r="T17" s="21" t="n">
+      <c r="T17" s="27" t="n">
         <v>0.9289</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="21" t="n">
         <v>1320</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="19" t="n">
         <v>0.15</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="W17" s="20" t="n">
         <v>-4.2680973065</v>
       </c>
-      <c r="X17" s="6" t="n">
+      <c r="X17" s="20" t="n">
         <v>-4.671333333</v>
       </c>
-      <c r="Y17" s="6" t="n">
+      <c r="Y17" s="20" t="n">
         <v>-5.306472053</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="Z17" s="21" t="n">
         <v>59.44</v>
       </c>
-      <c r="AA17" s="6" t="n">
+      <c r="AA17" s="20" t="n">
         <v>-1.575</v>
       </c>
-      <c r="AB17" s="22" t="n">
+      <c r="AB17" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC17" s="12" t="n">
         <v>0.00203125</v>
       </c>
-      <c r="AD17" s="22" t="n">
+      <c r="AD17" s="28" t="n">
         <v>0.158</v>
       </c>
     </row>
@@ -10338,94 +10395,94 @@
         <f aca="false">EXP(LN(C18)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="18" t="n">
         <v>1500</v>
       </c>
       <c r="D18" s="18" t="n">
         <f aca="false">EXP(LN(C18)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="19" t="n">
         <v>4.82033304119194</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="20" t="n">
         <v>12.1</v>
       </c>
-      <c r="G18" s="19" t="n">
+      <c r="G18" s="18" t="n">
         <v>60.11</v>
       </c>
-      <c r="H18" s="19" t="n">
+      <c r="H18" s="18" t="n">
         <v>106.37</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="22" t="n">
         <v>0.73</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="22" t="n">
         <v>2.28945240589391</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="23" t="n">
         <f aca="false">1/J18</f>
         <v>0.436785668671524</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="18" t="n">
         <f aca="false">100*((1/I18) - (1/1.53))</f>
         <v>71.62682424568</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="18" t="n">
         <f aca="false">J18*(N18-L18*(1- (1/J18)))</f>
         <v>128.651567823179</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="21" t="n">
         <v>96.5344149999999</v>
       </c>
-      <c r="O18" s="23" t="n">
+      <c r="O18" s="30" t="n">
         <v>-3.22489123711149</v>
       </c>
-      <c r="P18" s="23" t="n">
+      <c r="P18" s="30" t="n">
         <v>26.1350516060853</v>
       </c>
       <c r="Q18" s="7" t="n">
         <v>0.24</v>
       </c>
-      <c r="R18" s="20" t="n">
+      <c r="R18" s="26" t="n">
         <f aca="false">0.52-4.16*I18</f>
         <v>-2.5168</v>
       </c>
-      <c r="S18" s="20" t="n">
+      <c r="S18" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I18)- 2.89)^0.5</f>
         <v>22.4105630241409</v>
       </c>
-      <c r="T18" s="21" t="n">
+      <c r="T18" s="27" t="n">
         <v>0.585</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="21" t="n">
         <v>2436.47453228934</v>
       </c>
-      <c r="V18" s="11" t="n">
+      <c r="V18" s="14" t="n">
         <v>0.2723431183</v>
       </c>
-      <c r="W18" s="24" t="n">
+      <c r="W18" s="30" t="n">
         <v>-4.048237444</v>
       </c>
-      <c r="X18" s="24" t="n">
+      <c r="X18" s="30" t="n">
         <v>-7.936104741</v>
       </c>
-      <c r="Y18" s="24" t="n">
+      <c r="Y18" s="30" t="n">
         <v>-11.82397204</v>
       </c>
-      <c r="Z18" s="25" t="n">
+      <c r="Z18" s="15" t="n">
         <v>13.34416461</v>
       </c>
-      <c r="AA18" s="6" t="n">
+      <c r="AA18" s="20" t="n">
         <v>-2.3</v>
       </c>
-      <c r="AB18" s="22" t="n">
+      <c r="AB18" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC18" s="12" t="n">
         <v>0.0079936</v>
       </c>
-      <c r="AD18" s="22" t="n">
+      <c r="AD18" s="28" t="n">
         <v>0.219</v>
       </c>
     </row>
@@ -10437,94 +10494,94 @@
         <f aca="false">EXP(LN(C19)/1.4)</f>
         <v>267.362200013348</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="18" t="n">
         <v>2500</v>
       </c>
       <c r="D19" s="18" t="n">
         <f aca="false">EXP(LN(C19)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="19" t="n">
         <v>6.88</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="20" t="n">
         <v>13.8945</v>
       </c>
-      <c r="G19" s="19" t="n">
+      <c r="G19" s="18" t="n">
         <v>39.45</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="21" t="n">
         <v>109.70364178</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="22" t="n">
         <v>0.9</v>
       </c>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="22" t="n">
         <v>1.80587174083789</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="23" t="n">
         <f aca="false">1/J19</f>
         <v>0.553749182395434</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="18" t="n">
         <f aca="false">100*((1/I19) - (1/1.53))</f>
         <v>45.7516339869281</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="18" t="n">
         <f aca="false">J19*(N19-L19*(1- (1/J19)))</f>
         <v>131.352495724182</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="21" t="n">
         <v>93.1530411862769</v>
       </c>
-      <c r="O19" s="23" t="n">
+      <c r="O19" s="30" t="n">
         <v>-2.66</v>
       </c>
-      <c r="P19" s="23" t="n">
+      <c r="P19" s="30" t="n">
         <v>10.46</v>
       </c>
       <c r="Q19" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="R19" s="20" t="n">
+      <c r="R19" s="26" t="n">
         <f aca="false">0.52-4.16*I19</f>
         <v>-3.224</v>
       </c>
-      <c r="S19" s="20" t="n">
+      <c r="S19" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I19)- 2.89)^0.5</f>
         <v>46.2576318158267</v>
       </c>
-      <c r="T19" s="21" t="n">
+      <c r="T19" s="27" t="n">
         <v>0.585</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="21" t="n">
         <v>1154.78476961139</v>
       </c>
-      <c r="V19" s="11" t="n">
+      <c r="V19" s="14" t="n">
         <v>0.16</v>
       </c>
-      <c r="W19" s="24" t="n">
+      <c r="W19" s="30" t="n">
         <v>-4.93</v>
       </c>
-      <c r="X19" s="24" t="n">
+      <c r="X19" s="30" t="n">
         <v>-7.13</v>
       </c>
-      <c r="Y19" s="24" t="n">
+      <c r="Y19" s="30" t="n">
         <v>-9.33</v>
       </c>
-      <c r="Z19" s="25" t="n">
+      <c r="Z19" s="15" t="n">
         <v>24.98</v>
       </c>
-      <c r="AA19" s="6" t="n">
+      <c r="AA19" s="20" t="n">
         <v>-3.05</v>
       </c>
-      <c r="AB19" s="22" t="n">
+      <c r="AB19" s="28" t="n">
         <v>30</v>
       </c>
       <c r="AC19" s="12" t="n">
         <v>0.001659</v>
       </c>
-      <c r="AD19" s="8" t="n">
+      <c r="AD19" s="22" t="n">
         <v>0.205</v>
       </c>
     </row>
@@ -10536,94 +10593,94 @@
         <f aca="false">EXP(LN(C20)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="18" t="n">
         <v>400</v>
       </c>
       <c r="D20" s="18" t="n">
         <f aca="false">EXP(LN(C20)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="19" t="n">
         <v>4.8305439331</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="20" t="n">
         <v>12.75</v>
       </c>
-      <c r="G20" s="19" t="n">
+      <c r="G20" s="18" t="n">
         <v>71.69</v>
       </c>
-      <c r="H20" s="19" t="n">
+      <c r="H20" s="33" t="n">
         <v>123.43</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="22" t="n">
         <v>0.7</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="22" t="n">
         <v>3.1146926282787</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="23" t="n">
         <f aca="false">1/J20</f>
         <v>0.321058967719919</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="18" t="n">
         <f aca="false">100*((1/I20) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="18" t="n">
         <f aca="false">J20*(N20-L20*(1- (1/J20)))</f>
         <v>304.589805648626</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="21" t="n">
         <v>150.407633751591</v>
       </c>
-      <c r="O20" s="23" t="n">
+      <c r="O20" s="30" t="n">
         <v>-1.42274895336093</v>
       </c>
-      <c r="P20" s="23" t="n">
+      <c r="P20" s="30" t="n">
         <v>6.71280382204902</v>
       </c>
-      <c r="Q20" s="22" t="n">
+      <c r="Q20" s="32" t="n">
         <v>0.22</v>
       </c>
-      <c r="R20" s="20" t="n">
+      <c r="R20" s="26" t="n">
         <f aca="false">0.52-4.16*I20</f>
         <v>-2.392</v>
       </c>
-      <c r="S20" s="20" t="n">
+      <c r="S20" s="26" t="n">
         <f aca="false">(1.02*EXP(8.5*I20)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T20" s="21" t="n">
+      <c r="T20" s="27" t="n">
         <v>0.6817</v>
       </c>
-      <c r="U20" s="19" t="n">
+      <c r="U20" s="18" t="n">
         <v>6104.68</v>
       </c>
-      <c r="V20" s="11" t="n">
+      <c r="V20" s="14" t="n">
         <v>0.3134571207</v>
       </c>
-      <c r="W20" s="24" t="n">
+      <c r="W20" s="30" t="n">
         <v>-5.713847822</v>
       </c>
-      <c r="X20" s="24" t="n">
+      <c r="X20" s="30" t="n">
         <v>-10.35976827</v>
       </c>
-      <c r="Y20" s="24" t="n">
+      <c r="Y20" s="30" t="n">
         <v>-15.00568872</v>
       </c>
-      <c r="Z20" s="25" t="n">
+      <c r="Z20" s="15" t="n">
         <v>11.102207209</v>
       </c>
-      <c r="AA20" s="23" t="n">
+      <c r="AA20" s="30" t="n">
         <v>-1.97322438194395</v>
       </c>
-      <c r="AB20" s="22" t="n">
+      <c r="AB20" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="AC20" s="16" t="n">
+      <c r="AC20" s="29" t="n">
         <v>0.0052</v>
       </c>
-      <c r="AD20" s="16" t="n">
+      <c r="AD20" s="29" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -10662,22 +10719,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="34" t="s">
         <v>141</v>
       </c>
     </row>

--- a/data/inputs/SpParamsAlbert.xlsx
+++ b/data/inputs/SpParamsAlbert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SpParams_default" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Full1!$A$1:$F$18</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final!$A$1:$AE$20</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final_imputed!$A$1:$AD$20</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final!$A$1:$AE$21</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SpParams_final_imputed!$A$1:$AD$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="142">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -660,15 +660,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,10 +717,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,11 +1037,11 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" activeCellId="0" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7104,10 +7104,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>400</v>
@@ -7474,81 +7474,56 @@
         <v>133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.866</v>
+        <v>12.85</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>15.55</v>
+        <v>18.9</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="8" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>2.86827625720614</v>
-      </c>
-      <c r="J5" s="13" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="J5" s="16" t="n">
         <f aca="false">1/I5</f>
-        <v>0.348641452331393</v>
+        <v>0.330469266358229</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">100*((1/H5) - (1/1.53))</f>
-        <v>62.8456510809452</v>
+        <v>98.5749491053252</v>
       </c>
       <c r="L5" s="8" t="n">
         <f aca="false">I5*(M5-K5*(1- (1/I5)))</f>
-        <v>242.988865546897</v>
+        <v>157.839313112611</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>125.651043</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>0.382039773906984</v>
-      </c>
-      <c r="O5" s="14" t="n">
-        <v>-1.71902985909749</v>
-      </c>
-      <c r="P5" s="14" t="n">
-        <v>6.40509511402895</v>
-      </c>
+        <v>118.16</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="4" t="n">
-        <v>3530</v>
-      </c>
-      <c r="V5" s="10" t="n">
-        <v>0.1689526292</v>
-      </c>
-      <c r="W5" s="11" t="n">
-        <v>-6.733965191</v>
-      </c>
-      <c r="X5" s="11" t="n">
-        <v>-10.14762341</v>
-      </c>
-      <c r="Y5" s="11" t="n">
-        <v>-13.56128162</v>
-      </c>
-      <c r="Z5" s="11" t="n">
-        <v>15.849100066</v>
-      </c>
-      <c r="AA5" s="14" t="n">
-        <v>-2.17054287918342</v>
-      </c>
-      <c r="AB5" s="14" t="n">
-        <f aca="false">AA5</f>
-        <v>-2.17054287918342</v>
-      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
       <c r="AC5" s="8"/>
-      <c r="AD5" s="12" t="n">
-        <v>0.003437</v>
-      </c>
+      <c r="AD5" s="12"/>
       <c r="AE5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>400</v>
@@ -7557,10 +7532,10 @@
         <v>133</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.5871813451</v>
+        <v>6.866</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14.31</v>
+        <v>15.55</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7580,50 +7555,58 @@
       </c>
       <c r="L6" s="8" t="n">
         <f aca="false">I6*(M6-K6*(1- (1/I6)))</f>
-        <v>265.960204572835</v>
+        <v>242.988865546897</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>133.659804</v>
+        <v>125.651043</v>
       </c>
       <c r="N6" s="12" t="n">
-        <v>0.406391821418118</v>
+        <v>0.382039773906984</v>
       </c>
       <c r="O6" s="14" t="n">
-        <v>-1.9796889440226</v>
+        <v>-1.71902985909749</v>
       </c>
       <c r="P6" s="14" t="n">
-        <v>9.61055583128884</v>
+        <v>6.40509511402895</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="5" t="n">
-        <v>-8.3</v>
-      </c>
-      <c r="X6" s="5" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="U6" s="4" t="n">
+        <v>3530</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>0.1689526292</v>
+      </c>
+      <c r="W6" s="11" t="n">
+        <v>-6.733965191</v>
+      </c>
+      <c r="X6" s="11" t="n">
+        <v>-10.14762341</v>
+      </c>
+      <c r="Y6" s="11" t="n">
+        <v>-13.56128162</v>
+      </c>
+      <c r="Z6" s="11" t="n">
+        <v>15.849100066</v>
+      </c>
       <c r="AA6" s="14" t="n">
-        <v>-2.16254532499295</v>
+        <v>-2.17054287918342</v>
       </c>
       <c r="AB6" s="14" t="n">
         <f aca="false">AA6</f>
-        <v>-2.16254532499295</v>
+        <v>-2.17054287918342</v>
       </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="12" t="n">
-        <v>0.004014</v>
+        <v>0.003437</v>
       </c>
       <c r="AE6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>400</v>
@@ -7631,55 +7614,74 @@
       <c r="C7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="D7" s="5" t="n">
+        <v>6.5871813451</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>14.31</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="8" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>5.67380422886498</v>
+        <v>2.86827625720614</v>
       </c>
       <c r="J7" s="13" t="n">
         <f aca="false">1/I7</f>
-        <v>0.176248590833041</v>
+        <v>0.348641452331393</v>
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">100*((1/H7) - (1/1.53))</f>
-        <v>77.4976657329599</v>
+        <v>62.8456510809452</v>
       </c>
       <c r="L7" s="8" t="n">
         <f aca="false">I7*(M7-K7*(1- (1/I7)))</f>
-        <v>641.751543151177</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <v>176.9466165</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+        <v>265.960204572835</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>133.659804</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>0.406391821418118</v>
+      </c>
+      <c r="O7" s="14" t="n">
+        <v>-1.9796889440226</v>
+      </c>
+      <c r="P7" s="14" t="n">
+        <v>9.61055583128884</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="W7" s="5" t="n">
+        <v>-8.3</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>-10.2</v>
+      </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="AA7" s="14" t="n">
+        <v>-2.16254532499295</v>
+      </c>
+      <c r="AB7" s="14" t="n">
+        <f aca="false">AA7</f>
+        <v>-2.16254532499295</v>
+      </c>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
+      <c r="AD7" s="12" t="n">
+        <v>0.004014</v>
+      </c>
       <c r="AE7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>400</v>
@@ -7687,7 +7689,9 @@
       <c r="C8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14" t="n">
+        <v>6.047</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -7695,11 +7699,11 @@
         <v>0.7</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>3.85794536330718</v>
+        <v>5.67380422886498</v>
       </c>
       <c r="J8" s="13" t="n">
         <f aca="false">1/I8</f>
-        <v>0.259205329736127</v>
+        <v>0.176248590833041</v>
       </c>
       <c r="K8" s="8" t="n">
         <f aca="false">100*((1/H8) - (1/1.53))</f>
@@ -7707,10 +7711,10 @@
       </c>
       <c r="L8" s="8" t="n">
         <f aca="false">I8*(M8-K8*(1- (1/I8)))</f>
-        <v>252.089670893927</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>122.752844</v>
+        <v>641.751543151177</v>
+      </c>
+      <c r="M8" s="17" t="n">
+        <v>176.9466165</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="5"/>
@@ -7733,7 +7737,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>400</v>
@@ -7741,60 +7745,44 @@
       <c r="C9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>16.192170819</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>29.2083333333333</v>
-      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="8" t="n">
         <v>0.7</v>
       </c>
-      <c r="I9" s="16" t="n">
+      <c r="I9" s="8" t="n">
         <v>3.85794536330718</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="13" t="n">
         <f aca="false">1/I9</f>
         <v>0.259205329736127</v>
       </c>
-      <c r="K9" s="16" t="n">
+      <c r="K9" s="8" t="n">
         <f aca="false">100*((1/H9) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="L9" s="16" t="n">
+      <c r="L9" s="8" t="n">
         <f aca="false">I9*(M9-K9*(1- (1/I9)))</f>
-        <v>361.065655410742</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>151</v>
+        <v>252.089670893927</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>122.752844</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="7" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="5" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="X9" s="5" t="n">
-        <v>-3.62</v>
-      </c>
-      <c r="Y9" s="5" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="Z9" s="5" t="n">
-        <v>65.50862069</v>
-      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="8"/>
@@ -7803,90 +7791,77 @@
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.03</v>
+        <v>16.192170819</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10.675</v>
+        <v>29.2083333333333</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="8" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>1.95223310621838</v>
-      </c>
-      <c r="J10" s="13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>3.85794536330718</v>
+      </c>
+      <c r="J10" s="16" t="n">
         <f aca="false">1/I10</f>
-        <v>0.512233911419049</v>
-      </c>
-      <c r="K10" s="8" t="n">
+        <v>0.259205329736127</v>
+      </c>
+      <c r="K10" s="18" t="n">
         <f aca="false">100*((1/H10) - (1/1.53))</f>
-        <v>73.5294117647059</v>
-      </c>
-      <c r="L10" s="8" t="n">
+        <v>77.4976657329599</v>
+      </c>
+      <c r="L10" s="18" t="n">
         <f aca="false">I10*(M10-K10*(1- (1/I10)))</f>
-        <v>142.092516610382</v>
+        <v>361.065655410742</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>108.649759138841</v>
-      </c>
-      <c r="N10" s="12" t="n">
-        <v>0.544991614526915</v>
-      </c>
-      <c r="O10" s="14" t="n">
-        <v>-2.80162794800361</v>
-      </c>
-      <c r="P10" s="14" t="n">
-        <v>22.3517952586394</v>
+        <v>151</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="7" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>5.92</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="4" t="n">
-        <v>2040</v>
-      </c>
-      <c r="V10" s="10" t="n">
-        <v>0.0693018125</v>
-      </c>
-      <c r="W10" s="11" t="n">
-        <v>-4.338385029</v>
-      </c>
-      <c r="X10" s="11" t="n">
-        <v>-11.4510026</v>
-      </c>
-      <c r="Y10" s="11" t="n">
-        <v>-18.56362017</v>
-      </c>
-      <c r="Z10" s="11" t="n">
-        <v>7.0420149194</v>
-      </c>
-      <c r="AA10" s="14" t="n">
-        <v>-3.24247138458736</v>
-      </c>
-      <c r="AB10" s="14" t="n">
-        <f aca="false">AA10</f>
-        <v>-3.24247138458736</v>
-      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="5" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>65.50862069</v>
+      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="12" t="n">
-        <v>0.0053115</v>
-      </c>
+      <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>1500</v>
@@ -7895,10 +7870,10 @@
         <v>132</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.87</v>
+        <v>8.03</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14.1416666665</v>
+        <v>10.675</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -7906,11 +7881,11 @@
         <v>0.72</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>2.55484265546135</v>
+        <v>1.95223310621838</v>
       </c>
       <c r="J11" s="13" t="n">
         <f aca="false">1/I11</f>
-        <v>0.391413536901129</v>
+        <v>0.512233911419049</v>
       </c>
       <c r="K11" s="8" t="n">
         <f aca="false">100*((1/H11) - (1/1.53))</f>
@@ -7918,33 +7893,58 @@
       </c>
       <c r="L11" s="8" t="n">
         <f aca="false">I11*(M11-K11*(1- (1/I11)))</f>
-        <v>185.680773679362</v>
+        <v>142.092516610382</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>117.426973</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+        <v>108.649759138841</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>0.544991614526915</v>
+      </c>
+      <c r="O11" s="14" t="n">
+        <v>-2.80162794800361</v>
+      </c>
+      <c r="P11" s="14" t="n">
+        <v>22.3517952586394</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="U11" s="4" t="n">
+        <v>2040</v>
+      </c>
+      <c r="V11" s="10" t="n">
+        <v>0.0693018125</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>-4.338385029</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>-11.4510026</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>-18.56362017</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>7.0420149194</v>
+      </c>
+      <c r="AA11" s="14" t="n">
+        <v>-3.24247138458736</v>
+      </c>
+      <c r="AB11" s="14" t="n">
+        <f aca="false">AA11</f>
+        <v>-3.24247138458736</v>
+      </c>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
+      <c r="AD11" s="12" t="n">
+        <v>0.0053115</v>
+      </c>
       <c r="AE11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>1500</v>
@@ -7953,10 +7953,10 @@
         <v>132</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.975</v>
+        <v>10.87</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>13.6</v>
+        <v>14.1416666665</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -7976,56 +7976,33 @@
       </c>
       <c r="L12" s="8" t="n">
         <f aca="false">I12*(M12-K12*(1- (1/I12)))</f>
-        <v>200.028081502337</v>
+        <v>185.680773679362</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>123.0427035</v>
-      </c>
-      <c r="N12" s="12" t="n">
-        <v>0.459880979766896</v>
-      </c>
-      <c r="O12" s="14" t="n">
-        <v>-2.20987373229647</v>
-      </c>
-      <c r="P12" s="14" t="n">
-        <v>45.2098777291801</v>
-      </c>
+        <v>117.426973</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="10" t="n">
-        <v>0.1975867375</v>
-      </c>
-      <c r="W12" s="11" t="n">
-        <v>-0.926429729</v>
-      </c>
-      <c r="X12" s="11" t="n">
-        <v>-7.341125025</v>
-      </c>
-      <c r="Y12" s="11" t="n">
-        <v>-13.75582032</v>
-      </c>
-      <c r="Z12" s="11" t="n">
-        <v>7.813877822</v>
-      </c>
-      <c r="AA12" s="14" t="n">
-        <v>-2.93066544939765</v>
-      </c>
-      <c r="AB12" s="14" t="n">
-        <f aca="false">AA12</f>
-        <v>-2.93066544939765</v>
-      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="12" t="n">
-        <v>0.004711</v>
-      </c>
+      <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>1500</v>
@@ -8033,41 +8010,43 @@
       <c r="C13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>10.858</v>
-      </c>
-      <c r="E13" s="12"/>
+      <c r="D13" s="5" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>13.6</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="8" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>1.5</v>
+        <v>2.55484265546135</v>
       </c>
       <c r="J13" s="13" t="n">
         <f aca="false">1/I13</f>
-        <v>0.666666666666667</v>
+        <v>0.391413536901129</v>
       </c>
       <c r="K13" s="8" t="n">
         <f aca="false">100*((1/H13) - (1/1.53))</f>
-        <v>95.9308454564622</v>
+        <v>73.5294117647059</v>
       </c>
       <c r="L13" s="8" t="n">
         <f aca="false">I13*(M13-K13*(1- (1/I13)))</f>
-        <v>156.680702271769</v>
+        <v>200.028081502337</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>136.43075</v>
+        <v>123.0427035</v>
       </c>
       <c r="N13" s="12" t="n">
-        <v>0.517066670710112</v>
+        <v>0.459880979766896</v>
       </c>
       <c r="O13" s="14" t="n">
-        <v>-1.8525592242383</v>
+        <v>-2.20987373229647</v>
       </c>
       <c r="P13" s="14" t="n">
-        <v>8.13590559168222</v>
+        <v>45.2098777291801</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -8075,36 +8054,36 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
       <c r="V13" s="10" t="n">
-        <v>0.1286961952</v>
+        <v>0.1975867375</v>
       </c>
       <c r="W13" s="11" t="n">
-        <v>-4.1592617</v>
+        <v>-0.926429729</v>
       </c>
       <c r="X13" s="11" t="n">
-        <v>-7.073297018</v>
+        <v>-7.341125025</v>
       </c>
       <c r="Y13" s="11" t="n">
-        <v>-9.987332337</v>
+        <v>-13.75582032</v>
       </c>
       <c r="Z13" s="11" t="n">
-        <v>17.886935033</v>
+        <v>7.813877822</v>
       </c>
       <c r="AA13" s="14" t="n">
-        <v>-2.58059968993449</v>
+        <v>-2.93066544939765</v>
       </c>
       <c r="AB13" s="14" t="n">
         <f aca="false">AA13</f>
-        <v>-2.58059968993449</v>
+        <v>-2.93066544939765</v>
       </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="12" t="n">
-        <v>0.01399</v>
+        <v>0.004711</v>
       </c>
       <c r="AE13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>1500</v>
@@ -8112,8 +8091,8 @@
       <c r="C14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>5.928</v>
+      <c r="D14" s="14" t="n">
+        <v>10.858</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -8134,19 +8113,19 @@
       </c>
       <c r="L14" s="8" t="n">
         <f aca="false">I14*(M14-K14*(1- (1/I14)))</f>
-        <v>126.28283723674</v>
+        <v>156.680702271769</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>116.165506643314</v>
+        <v>136.43075</v>
       </c>
       <c r="N14" s="12" t="n">
-        <v>0.452838139572568</v>
+        <v>0.517066670710112</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>-1.9269940661065</v>
+        <v>-1.8525592242383</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>13.6175966567185</v>
+        <v>8.13590559168222</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -8154,36 +8133,36 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
       <c r="V14" s="10" t="n">
-        <v>0.2084861967</v>
+        <v>0.1286961952</v>
       </c>
       <c r="W14" s="11" t="n">
-        <v>-2.956328846</v>
+        <v>-4.1592617</v>
       </c>
       <c r="X14" s="11" t="n">
-        <v>-5.517944502</v>
+        <v>-7.073297018</v>
       </c>
       <c r="Y14" s="11" t="n">
-        <v>-8.079560157</v>
+        <v>-9.987332337</v>
       </c>
       <c r="Z14" s="11" t="n">
-        <v>21.388584916</v>
+        <v>17.886935033</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>-2.33723157320728</v>
+        <v>-2.58059968993449</v>
       </c>
       <c r="AB14" s="14" t="n">
         <f aca="false">AA14</f>
-        <v>-2.33723157320728</v>
+        <v>-2.58059968993449</v>
       </c>
       <c r="AC14" s="8"/>
       <c r="AD14" s="12" t="n">
-        <v>0.01658</v>
+        <v>0.01399</v>
       </c>
       <c r="AE14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>1500</v>
@@ -8192,7 +8171,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>40.13</v>
+        <v>5.928</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -8213,33 +8192,56 @@
       </c>
       <c r="L15" s="8" t="n">
         <f aca="false">I15*(M15-K15*(1- (1/I15)))</f>
-        <v>180.034577271769</v>
+        <v>126.28283723674</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>152</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+        <v>116.165506643314</v>
+      </c>
+      <c r="N15" s="12" t="n">
+        <v>0.452838139572568</v>
+      </c>
+      <c r="O15" s="14" t="n">
+        <v>-1.9269940661065</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>13.6175966567185</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
+      <c r="V15" s="10" t="n">
+        <v>0.2084861967</v>
+      </c>
+      <c r="W15" s="11" t="n">
+        <v>-2.956328846</v>
+      </c>
+      <c r="X15" s="11" t="n">
+        <v>-5.517944502</v>
+      </c>
+      <c r="Y15" s="11" t="n">
+        <v>-8.079560157</v>
+      </c>
+      <c r="Z15" s="11" t="n">
+        <v>21.388584916</v>
+      </c>
+      <c r="AA15" s="14" t="n">
+        <v>-2.33723157320728</v>
+      </c>
+      <c r="AB15" s="14" t="n">
+        <f aca="false">AA15</f>
+        <v>-2.33723157320728</v>
+      </c>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="12"/>
+      <c r="AD15" s="12" t="n">
+        <v>0.01658</v>
+      </c>
       <c r="AE15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>1500</v>
@@ -8248,402 +8250,458 @@
         <v>132</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.80621691921868</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>8.2</v>
-      </c>
+        <v>40.13</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="8" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>1.482</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="13" t="n">
         <f aca="false">1/I16</f>
-        <v>0.67476383265857</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K16" s="8" t="n">
         <f aca="false">100*((1/H16) - (1/1.53))</f>
-        <v>113.211951447246</v>
+        <v>95.9308454564622</v>
       </c>
       <c r="L16" s="8" t="n">
         <f aca="false">I16*(M16-K16*(1- (1/I16)))</f>
-        <v>115.388832426428</v>
+        <v>180.034577271769</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>114.680832</v>
+        <v>152</v>
       </c>
       <c r="N16" s="12"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="4" t="n">
-        <v>2980</v>
-      </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AB16" s="14" t="n">
-        <f aca="false">AA16</f>
-        <v>-3</v>
-      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="12" t="n">
-        <v>0.00705467372114286</v>
-      </c>
+      <c r="AD16" s="12"/>
       <c r="AE16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.57561414355</v>
+        <v>5.80621691921868</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>11.8</v>
+        <v>8.2</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="8" t="n">
-        <v>0.6077</v>
+        <v>0.56</v>
       </c>
       <c r="I17" s="8" t="n">
-        <v>1.96422645197988</v>
+        <v>1.482</v>
       </c>
       <c r="J17" s="13" t="n">
         <f aca="false">1/I17</f>
-        <v>0.509106268776714</v>
+        <v>0.67476383265857</v>
       </c>
       <c r="K17" s="8" t="n">
         <f aca="false">100*((1/H17) - (1/1.53))</f>
-        <v>99.1954019279809</v>
+        <v>113.211951447246</v>
       </c>
       <c r="L17" s="8" t="n">
         <f aca="false">I17*(M17-K17*(1- (1/I17)))</f>
-        <v>140.06034378385</v>
+        <v>115.388832426428</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="N17" s="12" t="n">
-        <v>0.4455</v>
-      </c>
-      <c r="O17" s="14" t="n">
-        <v>-1.5011</v>
-      </c>
-      <c r="P17" s="14" t="n">
-        <v>5.31784425645142</v>
-      </c>
+        <v>114.680832</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="4" t="n">
-        <v>1320</v>
-      </c>
-      <c r="V17" s="8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W17" s="5" t="n">
-        <v>-4.2680973065</v>
-      </c>
-      <c r="X17" s="5" t="n">
-        <v>-4.671333333</v>
-      </c>
-      <c r="Y17" s="5" t="n">
-        <v>-5.306472053</v>
-      </c>
-      <c r="Z17" s="5" t="n">
-        <v>59.44</v>
-      </c>
+        <v>2980</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="14" t="n">
-        <v>-2.1239</v>
-      </c>
-      <c r="AB17" s="5" t="n">
-        <v>-1.575</v>
+        <v>-3</v>
+      </c>
+      <c r="AB17" s="14" t="n">
+        <f aca="false">AA17</f>
+        <v>-3</v>
       </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="12" t="n">
-        <v>0.00203125</v>
+        <v>0.00705467372114286</v>
       </c>
       <c r="AE17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.82033304119194</v>
+        <v>4.57561414355</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="n">
-        <v>0.73</v>
+        <v>0.6077</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>2.28945240589391</v>
+        <v>1.96422645197988</v>
       </c>
       <c r="J18" s="13" t="n">
         <f aca="false">1/I18</f>
-        <v>0.436785668671524</v>
+        <v>0.509106268776714</v>
       </c>
       <c r="K18" s="8" t="n">
         <f aca="false">100*((1/H18) - (1/1.53))</f>
-        <v>71.62682424568</v>
+        <v>99.1954019279809</v>
       </c>
       <c r="L18" s="8" t="n">
         <f aca="false">I18*(M18-K18*(1- (1/I18)))</f>
-        <v>128.651567823179</v>
+        <v>140.06034378385</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>96.5344149999999</v>
+        <v>120</v>
       </c>
       <c r="N18" s="12" t="n">
-        <v>0.559481945361776</v>
+        <v>0.4455</v>
       </c>
       <c r="O18" s="14" t="n">
-        <v>-3.22489123711149</v>
+        <v>-1.5011</v>
       </c>
       <c r="P18" s="14" t="n">
-        <v>26.1350516060853</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>0.24</v>
-      </c>
+        <v>5.31784425645142</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="4" t="n">
-        <v>2436.47453228934</v>
-      </c>
-      <c r="V18" s="10" t="n">
-        <v>0.2723431183</v>
-      </c>
-      <c r="W18" s="11" t="n">
-        <v>-4.048237444</v>
-      </c>
-      <c r="X18" s="11" t="n">
-        <v>-7.936104741</v>
-      </c>
-      <c r="Y18" s="11" t="n">
-        <v>-11.82397204</v>
-      </c>
-      <c r="Z18" s="11" t="n">
-        <v>13.34416461</v>
+        <v>1320</v>
+      </c>
+      <c r="V18" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>-4.2680973065</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>-4.671333333</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>-5.306472053</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>59.44</v>
       </c>
       <c r="AA18" s="14" t="n">
-        <v>-3.31752191897109</v>
+        <v>-2.1239</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>-2.3</v>
+        <v>-1.575</v>
       </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="12" t="n">
-        <v>0.0079936</v>
+        <v>0.00203125</v>
       </c>
       <c r="AE18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>6.88</v>
+        <v>4.82033304119194</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13.8945</v>
+        <v>12.1</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="4" t="n">
-        <v>109.70364178</v>
-      </c>
+      <c r="G19" s="12"/>
       <c r="H19" s="8" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>1.80587174083789</v>
+        <v>2.28945240589391</v>
       </c>
       <c r="J19" s="13" t="n">
         <f aca="false">1/I19</f>
-        <v>0.553749182395434</v>
+        <v>0.436785668671524</v>
       </c>
       <c r="K19" s="8" t="n">
         <f aca="false">100*((1/H19) - (1/1.53))</f>
-        <v>45.7516339869281</v>
+        <v>71.62682424568</v>
       </c>
       <c r="L19" s="8" t="n">
         <f aca="false">I19*(M19-K19*(1- (1/I19)))</f>
-        <v>131.352495724182</v>
+        <v>128.651567823179</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>93.1530411862769</v>
+        <v>96.5344149999999</v>
       </c>
       <c r="N19" s="12" t="n">
-        <v>0.567636358187107</v>
+        <v>0.559481945361776</v>
       </c>
       <c r="O19" s="14" t="n">
-        <v>-2.66</v>
+        <v>-3.22489123711149</v>
       </c>
       <c r="P19" s="14" t="n">
-        <v>10.46</v>
+        <v>26.1350516060853</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="4" t="n">
-        <v>1154.78476961139</v>
+        <v>2436.47453228934</v>
       </c>
       <c r="V19" s="10" t="n">
-        <v>0.16</v>
+        <v>0.2723431183</v>
       </c>
       <c r="W19" s="11" t="n">
-        <v>-4.93</v>
+        <v>-4.048237444</v>
       </c>
       <c r="X19" s="11" t="n">
-        <v>-7.13</v>
+        <v>-7.936104741</v>
       </c>
       <c r="Y19" s="11" t="n">
-        <v>-9.33</v>
+        <v>-11.82397204</v>
       </c>
       <c r="Z19" s="11" t="n">
-        <v>24.98</v>
+        <v>13.34416461</v>
       </c>
       <c r="AA19" s="14" t="n">
-        <v>-2.98834690821897</v>
+        <v>-3.31752191897109</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>-3.05</v>
+        <v>-2.3</v>
       </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="12" t="n">
-        <v>0.001659</v>
-      </c>
-      <c r="AE19" s="8" t="n">
-        <v>0.205</v>
-      </c>
+        <v>0.0079936</v>
+      </c>
+      <c r="AE19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.8305439331</v>
+        <v>6.88</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>12.75</v>
+        <v>13.8945</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="n">
+        <v>109.70364178</v>
+      </c>
       <c r="H20" s="8" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>3.1146926282787</v>
+        <v>1.80587174083789</v>
       </c>
       <c r="J20" s="13" t="n">
         <f aca="false">1/I20</f>
-        <v>0.321058967719919</v>
+        <v>0.553749182395434</v>
       </c>
       <c r="K20" s="8" t="n">
         <f aca="false">100*((1/H20) - (1/1.53))</f>
-        <v>77.4976657329599</v>
+        <v>45.7516339869281</v>
       </c>
       <c r="L20" s="8" t="n">
         <f aca="false">I20*(M20-K20*(1- (1/I20)))</f>
-        <v>304.589805648626</v>
+        <v>131.352495724182</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>150.407633751591</v>
+        <v>93.1530411862769</v>
       </c>
       <c r="N20" s="12" t="n">
-        <v>0.367287331287258</v>
+        <v>0.567636358187107</v>
       </c>
       <c r="O20" s="14" t="n">
-        <v>-1.42274895336093</v>
+        <v>-2.66</v>
       </c>
       <c r="P20" s="14" t="n">
-        <v>6.71280382204902</v>
-      </c>
-      <c r="Q20" s="7"/>
+        <v>10.46</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>0.17</v>
+      </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="4"/>
+      <c r="U20" s="4" t="n">
+        <v>1154.78476961139</v>
+      </c>
       <c r="V20" s="10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W20" s="11" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="X20" s="11" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="Y20" s="11" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="Z20" s="11" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="AA20" s="14" t="n">
+        <v>-2.98834690821897</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="12" t="n">
+        <v>0.001659</v>
+      </c>
+      <c r="AE20" s="8" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>4.8305439331</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3.1146926282787</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <f aca="false">1/I21</f>
+        <v>0.321058967719919</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <f aca="false">100*((1/H21) - (1/1.53))</f>
+        <v>77.4976657329599</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <f aca="false">I21*(M21-K21*(1- (1/I21)))</f>
+        <v>304.589805648626</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>150.407633751591</v>
+      </c>
+      <c r="N21" s="12" t="n">
+        <v>0.367287331287258</v>
+      </c>
+      <c r="O21" s="14" t="n">
+        <v>-1.42274895336093</v>
+      </c>
+      <c r="P21" s="14" t="n">
+        <v>6.71280382204902</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="10" t="n">
         <v>0.3134571207</v>
       </c>
-      <c r="W20" s="11" t="n">
+      <c r="W21" s="11" t="n">
         <v>-5.713847822</v>
       </c>
-      <c r="X20" s="11" t="n">
+      <c r="X21" s="11" t="n">
         <v>-10.35976827</v>
       </c>
-      <c r="Y20" s="11" t="n">
+      <c r="Y21" s="11" t="n">
         <v>-15.00568872</v>
       </c>
-      <c r="Z20" s="11" t="n">
+      <c r="Z21" s="11" t="n">
         <v>11.102207209</v>
       </c>
-      <c r="AA20" s="14" t="n">
+      <c r="AA21" s="14" t="n">
         <v>-1.97322438194395</v>
       </c>
-      <c r="AB20" s="14" t="n">
-        <f aca="false">AA20</f>
+      <c r="AB21" s="14" t="n">
+        <f aca="false">AA21</f>
         <v>-1.97322438194395</v>
       </c>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+    </row>
     <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AE20">
-    <sortState ref="A2:AE20">
-      <sortCondition ref="A2:A20" customList=""/>
+  <autoFilter ref="A1:AE21">
+    <sortState ref="A2:AE21">
+      <sortCondition ref="A2:A21" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8662,14 +8720,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V15" activeCellId="0" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8800,98 +8858,98 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="19" t="n">
         <f aca="false">EXP(LN(C2)/1.4)</f>
         <v>267.362200013348</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="C2" s="19" t="n">
         <v>2500</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="19" t="n">
         <f aca="false">EXP(LN(C2)/0.95)</f>
         <v>3773.80066347525</v>
       </c>
-      <c r="E2" s="19" t="n">
+      <c r="E2" s="20" t="n">
         <v>11.1296605453534</v>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="n">
+      <c r="G2" s="19" t="n">
         <v>51.5</v>
       </c>
-      <c r="H2" s="21" t="n">
+      <c r="H2" s="22" t="n">
         <v>120.0791734</v>
       </c>
-      <c r="I2" s="22" t="n">
+      <c r="I2" s="23" t="n">
         <v>0.71</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>2.358</v>
       </c>
-      <c r="K2" s="23" t="n">
+      <c r="K2" s="24" t="n">
         <f aca="false">1/J2</f>
         <v>0.424088210347752</v>
       </c>
-      <c r="L2" s="18" t="n">
+      <c r="L2" s="19" t="n">
         <f aca="false">100*((1/I2) - (1/1.53))</f>
         <v>75.4855932983522</v>
       </c>
-      <c r="M2" s="18" t="n">
+      <c r="M2" s="19" t="n">
         <f aca="false">J2*(N2-L2*(1- (1/J2)))</f>
         <v>186.718779108838</v>
       </c>
-      <c r="N2" s="21" t="n">
+      <c r="N2" s="22" t="n">
         <v>122.658276</v>
       </c>
-      <c r="O2" s="24" t="n">
+      <c r="O2" s="25" t="n">
         <v>-2.48</v>
       </c>
-      <c r="P2" s="24" t="n">
+      <c r="P2" s="25" t="n">
         <v>14.72</v>
       </c>
-      <c r="Q2" s="25" t="n">
+      <c r="Q2" s="26" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R2" s="26" t="n">
+      <c r="R2" s="27" t="n">
         <f aca="false">0.52-4.16*I2</f>
         <v>-2.4336</v>
       </c>
-      <c r="S2" s="26" t="n">
+      <c r="S2" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I2)- 2.89)^0.5</f>
         <v>20.5733999579821</v>
       </c>
-      <c r="T2" s="27" t="n">
+      <c r="T2" s="28" t="n">
         <v>0.755</v>
       </c>
-      <c r="U2" s="21" t="n">
+      <c r="U2" s="22" t="n">
         <v>4776.130138</v>
       </c>
-      <c r="V2" s="19" t="n">
+      <c r="V2" s="20" t="n">
         <v>2.695</v>
       </c>
-      <c r="W2" s="26" t="n">
+      <c r="W2" s="27" t="n">
         <v>-2.142</v>
       </c>
-      <c r="X2" s="26" t="n">
+      <c r="X2" s="27" t="n">
         <v>-3.84</v>
       </c>
-      <c r="Y2" s="26" t="n">
+      <c r="Y2" s="27" t="n">
         <v>-5.8133</v>
       </c>
-      <c r="Z2" s="18" t="n">
+      <c r="Z2" s="19" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA2" s="26" t="n">
+      <c r="AA2" s="27" t="n">
         <v>-2.72</v>
       </c>
-      <c r="AB2" s="28" t="n">
+      <c r="AB2" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC2" s="29" t="n">
+      <c r="AC2" s="15" t="n">
         <v>0.0042</v>
       </c>
-      <c r="AD2" s="29" t="n">
+      <c r="AD2" s="15" t="n">
         <v>0.3066</v>
       </c>
     </row>
@@ -8899,48 +8957,48 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="19" t="n">
         <f aca="false">EXP(LN(C3)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="19" t="n">
         <f aca="false">EXP(LN(C3)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E3" s="19" t="n">
+      <c r="E3" s="20" t="n">
         <v>7.921182266</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="21" t="n">
         <v>14.1</v>
       </c>
-      <c r="G3" s="18" t="n">
+      <c r="G3" s="19" t="n">
         <v>49.2</v>
       </c>
-      <c r="H3" s="21" t="n">
+      <c r="H3" s="22" t="n">
         <v>98.5</v>
       </c>
-      <c r="I3" s="22" t="n">
+      <c r="I3" s="23" t="n">
         <v>0.79</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="23" t="n">
         <v>1.6691407554284</v>
       </c>
-      <c r="K3" s="23" t="n">
+      <c r="K3" s="24" t="n">
         <f aca="false">1/J3</f>
         <v>0.599110648246883</v>
       </c>
-      <c r="L3" s="18" t="n">
+      <c r="L3" s="19" t="n">
         <f aca="false">100*((1/I3) - (1/1.53))</f>
         <v>61.2228013568296</v>
       </c>
-      <c r="M3" s="18" t="n">
+      <c r="M3" s="19" t="n">
         <f aca="false">J3*(N3-L3*(1- (1/J3)))</f>
         <v>192.806703886108</v>
       </c>
-      <c r="N3" s="21" t="n">
+      <c r="N3" s="22" t="n">
         <v>140.0561185</v>
       </c>
       <c r="O3" s="30" t="n">
@@ -8949,21 +9007,21 @@
       <c r="P3" s="30" t="n">
         <v>13.6861585450528</v>
       </c>
-      <c r="Q3" s="25" t="n">
+      <c r="Q3" s="26" t="n">
         <v>0.72</v>
       </c>
-      <c r="R3" s="26" t="n">
+      <c r="R3" s="27" t="n">
         <f aca="false">0.52-4.16*I3</f>
         <v>-2.7664</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I3)- 2.89)^0.5</f>
         <v>28.9531939902222</v>
       </c>
-      <c r="T3" s="27" t="n">
+      <c r="T3" s="28" t="n">
         <v>0.7423</v>
       </c>
-      <c r="U3" s="21" t="n">
+      <c r="U3" s="22" t="n">
         <v>1990</v>
       </c>
       <c r="V3" s="14" t="n">
@@ -8978,19 +9036,19 @@
       <c r="Y3" s="30" t="n">
         <v>-9.770049851</v>
       </c>
-      <c r="Z3" s="15" t="n">
+      <c r="Z3" s="17" t="n">
         <v>40.20557204</v>
       </c>
       <c r="AA3" s="30" t="n">
         <v>-2.32449789044832</v>
       </c>
-      <c r="AB3" s="28" t="n">
+      <c r="AB3" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC3" s="12" t="n">
         <v>0.002819</v>
       </c>
-      <c r="AD3" s="22" t="n">
+      <c r="AD3" s="23" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -8998,48 +9056,48 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="19" t="n">
         <f aca="false">EXP(LN(C4)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="19" t="n">
         <f aca="false">EXP(LN(C4)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E4" s="19" t="n">
+      <c r="E4" s="20" t="n">
         <v>8.4348179086</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="21" t="n">
         <v>18.5979166666666</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="19" t="n">
         <v>66.43</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="19" t="n">
         <v>115.7</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="23" t="n">
         <v>0.8</v>
       </c>
-      <c r="J4" s="22" t="n">
+      <c r="J4" s="23" t="n">
         <v>1.6674653809253</v>
       </c>
-      <c r="K4" s="23" t="n">
+      <c r="K4" s="24" t="n">
         <f aca="false">1/J4</f>
         <v>0.599712600596893</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="19" t="n">
         <f aca="false">100*((1/I4) - (1/1.53))</f>
         <v>59.640522875817</v>
       </c>
-      <c r="M4" s="18" t="n">
+      <c r="M4" s="19" t="n">
         <f aca="false">J4*(N4-L4*(1- (1/J4)))</f>
         <v>150.241329112178</v>
       </c>
-      <c r="N4" s="21" t="n">
+      <c r="N4" s="22" t="n">
         <v>113.974968</v>
       </c>
       <c r="O4" s="30" t="n">
@@ -9048,1646 +9106,1746 @@
       <c r="P4" s="30" t="n">
         <v>13.741165480704</v>
       </c>
-      <c r="Q4" s="25" t="n">
+      <c r="Q4" s="26" t="n">
         <v>0.29</v>
       </c>
-      <c r="R4" s="26" t="n">
+      <c r="R4" s="27" t="n">
         <f aca="false">0.52-4.16*I4</f>
         <v>-2.808</v>
       </c>
-      <c r="S4" s="26" t="n">
+      <c r="S4" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I4)- 2.89)^0.5</f>
         <v>30.2144706636311</v>
       </c>
-      <c r="T4" s="27" t="n">
+      <c r="T4" s="28" t="n">
         <v>0.833</v>
       </c>
-      <c r="U4" s="18" t="n">
+      <c r="U4" s="19" t="n">
         <v>2284.9</v>
       </c>
       <c r="V4" s="14" t="n">
         <v>0.1393276892</v>
       </c>
-      <c r="W4" s="20" t="n">
+      <c r="W4" s="21" t="n">
         <v>-4.94</v>
       </c>
-      <c r="X4" s="19" t="n">
+      <c r="X4" s="20" t="n">
         <v>-8</v>
       </c>
-      <c r="Y4" s="26" t="n">
+      <c r="Y4" s="27" t="n">
         <v>-10.9</v>
       </c>
-      <c r="Z4" s="18" t="n">
+      <c r="Z4" s="19" t="n">
         <f aca="false">(88-12)/(ABS(Y4)- ABS(W4))</f>
         <v>12.751677852349</v>
       </c>
       <c r="AA4" s="30" t="n">
         <v>-2.92181955290895</v>
       </c>
-      <c r="AB4" s="28" t="n">
+      <c r="AB4" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC4" s="12" t="n">
         <v>0.001516</v>
       </c>
-      <c r="AD4" s="29" t="n">
+      <c r="AD4" s="15" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="18" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" s="19" t="n">
         <f aca="false">EXP(LN(C5)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="19" t="n">
         <f aca="false">EXP(LN(C5)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E5" s="19" t="n">
-        <v>6.866</v>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="G5" s="18" t="n">
-        <v>95.29</v>
-      </c>
-      <c r="H5" s="18" t="n">
-        <v>167</v>
-      </c>
-      <c r="I5" s="22" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J5" s="22" t="n">
-        <v>2.86827625720614</v>
-      </c>
-      <c r="K5" s="23" t="n">
+      <c r="E5" s="20" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="F5" s="21" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="I5" s="23" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J5" s="15" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="K5" s="24" t="n">
         <f aca="false">1/J5</f>
-        <v>0.348641452331393</v>
-      </c>
-      <c r="L5" s="18" t="n">
+        <v>0.330469266358229</v>
+      </c>
+      <c r="L5" s="19" t="n">
         <f aca="false">100*((1/I5) - (1/1.53))</f>
-        <v>62.8456510809452</v>
-      </c>
-      <c r="M5" s="18" t="n">
+        <v>98.5749491053252</v>
+      </c>
+      <c r="M5" s="19" t="n">
         <f aca="false">J5*(N5-L5*(1- (1/J5)))</f>
-        <v>242.988865546897</v>
-      </c>
-      <c r="N5" s="21" t="n">
-        <v>125.651043</v>
-      </c>
-      <c r="O5" s="30" t="n">
-        <v>-1.71902985909749</v>
-      </c>
-      <c r="P5" s="30" t="n">
-        <v>6.40509511402895</v>
-      </c>
-      <c r="Q5" s="25" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R5" s="26" t="n">
+        <v>157.839313112611</v>
+      </c>
+      <c r="N5" s="22" t="n">
+        <v>118.16</v>
+      </c>
+      <c r="O5" s="25" t="n">
+        <v>-1.641724</v>
+      </c>
+      <c r="P5" s="25" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="Q5" s="26" t="n">
+        <v>0.2609</v>
+      </c>
+      <c r="R5" s="27" t="n">
         <f aca="false">0.52-4.16*I5</f>
-        <v>-2.7248</v>
-      </c>
-      <c r="S5" s="26" t="n">
+        <v>-2.0176</v>
+      </c>
+      <c r="S5" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I5)- 2.89)^0.5</f>
-        <v>27.7442212731705</v>
-      </c>
-      <c r="T5" s="27" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U5" s="21" t="n">
-        <v>3530</v>
-      </c>
-      <c r="V5" s="14" t="n">
-        <v>0.1689526292</v>
-      </c>
-      <c r="W5" s="30" t="n">
-        <v>-6.733965191</v>
-      </c>
-      <c r="X5" s="30" t="n">
-        <v>-10.14762341</v>
-      </c>
-      <c r="Y5" s="30" t="n">
-        <v>-13.56128162</v>
-      </c>
-      <c r="Z5" s="15" t="n">
-        <v>15.849100066</v>
-      </c>
-      <c r="AA5" s="30" t="n">
-        <v>-2.17054287918342</v>
-      </c>
-      <c r="AB5" s="28" t="n">
+        <v>13.3886115331509</v>
+      </c>
+      <c r="T5" s="28" t="n">
+        <v>0.6096</v>
+      </c>
+      <c r="U5" s="19" t="n">
+        <v>13004</v>
+      </c>
+      <c r="V5" s="28" t="n">
+        <v>2.9075</v>
+      </c>
+      <c r="W5" s="27" t="n">
+        <v>-1.215</v>
+      </c>
+      <c r="X5" s="27" t="n">
+        <v>-2.3909</v>
+      </c>
+      <c r="Y5" s="27" t="n">
+        <v>-4.039</v>
+      </c>
+      <c r="Z5" s="19" t="n">
+        <f aca="false">(88-12)/(ABS(Y5)- ABS(W5))</f>
+        <v>26.9121813031162</v>
+      </c>
+      <c r="AA5" s="27" t="n">
+        <v>-1.608</v>
+      </c>
+      <c r="AB5" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC5" s="12" t="n">
-        <v>0.003437</v>
-      </c>
-      <c r="AD5" s="29" t="n">
-        <v>0.2</v>
+      <c r="AC5" s="15" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AD5" s="15" t="n">
+        <v>0.3066</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="18" t="n">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19" t="n">
         <f aca="false">EXP(LN(C6)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="19" t="n">
         <f aca="false">EXP(LN(C6)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E6" s="19" t="n">
-        <v>6.5871813451</v>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="G6" s="18" t="n">
-        <v>95.28</v>
-      </c>
-      <c r="H6" s="18" t="n">
+      <c r="E6" s="20" t="n">
+        <v>6.866</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>95.29</v>
+      </c>
+      <c r="H6" s="19" t="n">
         <v>167</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="23" t="n">
         <v>0.78</v>
       </c>
-      <c r="J6" s="22" t="n">
+      <c r="J6" s="23" t="n">
         <v>2.86827625720614</v>
       </c>
-      <c r="K6" s="23" t="n">
+      <c r="K6" s="24" t="n">
         <f aca="false">1/J6</f>
         <v>0.348641452331393</v>
       </c>
-      <c r="L6" s="18" t="n">
+      <c r="L6" s="19" t="n">
         <f aca="false">100*((1/I6) - (1/1.53))</f>
         <v>62.8456510809452</v>
       </c>
-      <c r="M6" s="18" t="n">
+      <c r="M6" s="19" t="n">
         <f aca="false">J6*(N6-L6*(1- (1/J6)))</f>
-        <v>265.960204572835</v>
-      </c>
-      <c r="N6" s="21" t="n">
-        <v>133.659804</v>
+        <v>242.988865546897</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <v>125.651043</v>
       </c>
       <c r="O6" s="30" t="n">
-        <v>-1.9796889440226</v>
+        <v>-1.71902985909749</v>
       </c>
       <c r="P6" s="30" t="n">
-        <v>9.61055583128884</v>
-      </c>
-      <c r="Q6" s="25" t="n">
+        <v>6.40509511402895</v>
+      </c>
+      <c r="Q6" s="26" t="n">
         <v>0.29</v>
       </c>
-      <c r="R6" s="26" t="n">
+      <c r="R6" s="27" t="n">
         <f aca="false">0.52-4.16*I6</f>
         <v>-2.7248</v>
       </c>
-      <c r="S6" s="26" t="n">
+      <c r="S6" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I6)- 2.89)^0.5</f>
         <v>27.7442212731705</v>
       </c>
-      <c r="T6" s="27" t="n">
+      <c r="T6" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="U6" s="18" t="n">
-        <v>1457.7</v>
-      </c>
-      <c r="V6" s="27" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="W6" s="20" t="n">
-        <v>-8.3</v>
-      </c>
-      <c r="X6" s="20" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="Y6" s="26" t="n">
-        <v>-13.56</v>
-      </c>
-      <c r="Z6" s="18" t="n">
-        <f aca="false">(88-12)/(ABS(Y6)- ABS(W6))</f>
-        <v>14.4486692015209</v>
+      <c r="U6" s="22" t="n">
+        <v>3530</v>
+      </c>
+      <c r="V6" s="14" t="n">
+        <v>0.1689526292</v>
+      </c>
+      <c r="W6" s="30" t="n">
+        <v>-6.733965191</v>
+      </c>
+      <c r="X6" s="30" t="n">
+        <v>-10.14762341</v>
+      </c>
+      <c r="Y6" s="30" t="n">
+        <v>-13.56128162</v>
+      </c>
+      <c r="Z6" s="17" t="n">
+        <v>15.849100066</v>
       </c>
       <c r="AA6" s="30" t="n">
-        <v>-2.16254532499295</v>
-      </c>
-      <c r="AB6" s="28" t="n">
+        <v>-2.17054287918342</v>
+      </c>
+      <c r="AB6" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC6" s="12" t="n">
-        <v>0.004014</v>
-      </c>
-      <c r="AD6" s="29" t="n">
+        <v>0.003437</v>
+      </c>
+      <c r="AD6" s="15" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" s="19" t="n">
         <f aca="false">EXP(LN(C7)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="19" t="n">
         <f aca="false">EXP(LN(C7)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E7" s="14" t="n">
-        <v>6.047</v>
-      </c>
-      <c r="F7" s="26" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="G7" s="18" t="n">
-        <v>113.83</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="I7" s="22" t="n">
+      <c r="E7" s="20" t="n">
+        <v>6.5871813451</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>95.28</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>167</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>2.86827625720614</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <f aca="false">1/J7</f>
+        <v>0.348641452331393</v>
+      </c>
+      <c r="L7" s="19" t="n">
+        <f aca="false">100*((1/I7) - (1/1.53))</f>
+        <v>62.8456510809452</v>
+      </c>
+      <c r="M7" s="19" t="n">
+        <f aca="false">J7*(N7-L7*(1- (1/J7)))</f>
+        <v>265.960204572835</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>133.659804</v>
+      </c>
+      <c r="O7" s="30" t="n">
+        <v>-1.9796889440226</v>
+      </c>
+      <c r="P7" s="30" t="n">
+        <v>9.61055583128884</v>
+      </c>
+      <c r="Q7" s="26" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R7" s="27" t="n">
+        <f aca="false">0.52-4.16*I7</f>
+        <v>-2.7248</v>
+      </c>
+      <c r="S7" s="27" t="n">
+        <f aca="false">(1.02*EXP(8.5*I7)- 2.89)^0.5</f>
+        <v>27.7442212731705</v>
+      </c>
+      <c r="T7" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="J7" s="22" t="n">
-        <v>5.67380422886498</v>
-      </c>
-      <c r="K7" s="23" t="n">
-        <f aca="false">1/J7</f>
-        <v>0.176248590833041</v>
-      </c>
-      <c r="L7" s="18" t="n">
-        <f aca="false">100*((1/I7) - (1/1.53))</f>
-        <v>77.4976657329599</v>
-      </c>
-      <c r="M7" s="18" t="n">
-        <f aca="false">J7*(N7-L7*(1- (1/J7)))</f>
-        <v>641.751543151177</v>
-      </c>
-      <c r="N7" s="15" t="n">
-        <v>176.9466165</v>
-      </c>
-      <c r="O7" s="24" t="n">
-        <v>-1.642</v>
-      </c>
-      <c r="P7" s="24" t="n">
-        <v>13.577</v>
-      </c>
-      <c r="Q7" s="25" t="n">
-        <v>0.2609</v>
-      </c>
-      <c r="R7" s="26" t="n">
-        <f aca="false">0.52-4.16*I7</f>
-        <v>-2.392</v>
-      </c>
-      <c r="S7" s="26" t="n">
-        <f aca="false">(1.02*EXP(8.5*I7)- 2.89)^0.5</f>
-        <v>19.7113775734304</v>
-      </c>
-      <c r="T7" s="27" t="n">
-        <v>0.6096</v>
-      </c>
-      <c r="U7" s="18" t="n">
-        <v>13004</v>
-      </c>
-      <c r="V7" s="27" t="n">
-        <v>2.9075</v>
-      </c>
-      <c r="W7" s="26" t="n">
-        <v>-1.215</v>
-      </c>
-      <c r="X7" s="26" t="n">
-        <v>-2.39</v>
-      </c>
-      <c r="Y7" s="26" t="n">
-        <v>-4.03</v>
-      </c>
-      <c r="Z7" s="18" t="n">
+      <c r="U7" s="19" t="n">
+        <v>1457.7</v>
+      </c>
+      <c r="V7" s="28" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="W7" s="21" t="n">
+        <v>-8.3</v>
+      </c>
+      <c r="X7" s="21" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="Y7" s="27" t="n">
+        <v>-13.56</v>
+      </c>
+      <c r="Z7" s="19" t="n">
         <f aca="false">(88-12)/(ABS(Y7)- ABS(W7))</f>
-        <v>26.9982238010657</v>
-      </c>
-      <c r="AA7" s="26" t="n">
-        <v>-1.608</v>
-      </c>
-      <c r="AB7" s="28" t="n">
+        <v>14.4486692015209</v>
+      </c>
+      <c r="AA7" s="30" t="n">
+        <v>-2.16254532499295</v>
+      </c>
+      <c r="AB7" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC7" s="29" t="n">
-        <v>0.0085</v>
-      </c>
-      <c r="AD7" s="29" t="n">
-        <v>0.3066</v>
+      <c r="AC7" s="12" t="n">
+        <v>0.004014</v>
+      </c>
+      <c r="AD7" s="15" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="18" t="n">
+        <v>34</v>
+      </c>
+      <c r="B8" s="19" t="n">
         <f aca="false">EXP(LN(C8)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="19" t="n">
         <f aca="false">EXP(LN(C8)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E8" s="27" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F8" s="26" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="G8" s="18" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="H8" s="18" t="n">
-        <v>98.6</v>
-      </c>
-      <c r="I8" s="22" t="n">
+      <c r="E8" s="14" t="n">
+        <v>6.047</v>
+      </c>
+      <c r="F8" s="27" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>113.83</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="I8" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="J8" s="22" t="n">
-        <v>3.85794536330718</v>
-      </c>
-      <c r="K8" s="23" t="n">
+      <c r="J8" s="23" t="n">
+        <v>5.67380422886498</v>
+      </c>
+      <c r="K8" s="24" t="n">
         <f aca="false">1/J8</f>
-        <v>0.259205329736127</v>
-      </c>
-      <c r="L8" s="18" t="n">
+        <v>0.176248590833041</v>
+      </c>
+      <c r="L8" s="19" t="n">
         <f aca="false">100*((1/I8) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M8" s="18" t="n">
+      <c r="M8" s="19" t="n">
         <f aca="false">J8*(N8-L8*(1- (1/J8)))</f>
-        <v>252.089670893927</v>
-      </c>
-      <c r="N8" s="15" t="n">
-        <v>122.752844</v>
-      </c>
-      <c r="O8" s="24" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="P8" s="24" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="Q8" s="25" t="n">
+        <v>641.751543151177</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>176.9466165</v>
+      </c>
+      <c r="O8" s="25" t="n">
+        <v>-1.642</v>
+      </c>
+      <c r="P8" s="25" t="n">
+        <v>13.577</v>
+      </c>
+      <c r="Q8" s="26" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R8" s="26" t="n">
+      <c r="R8" s="27" t="n">
         <f aca="false">0.52-4.16*I8</f>
         <v>-2.392</v>
       </c>
-      <c r="S8" s="26" t="n">
+      <c r="S8" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I8)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T8" s="27" t="n">
+      <c r="T8" s="28" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V8" s="27" t="n">
+      <c r="V8" s="28" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W8" s="26" t="n">
-        <v>-2.001</v>
-      </c>
-      <c r="X8" s="26" t="n">
-        <v>-3.62</v>
-      </c>
-      <c r="Y8" s="26" t="n">
-        <v>-5.54</v>
-      </c>
-      <c r="Z8" s="18" t="n">
+      <c r="W8" s="27" t="n">
+        <v>-1.215</v>
+      </c>
+      <c r="X8" s="27" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="Y8" s="27" t="n">
+        <v>-4.03</v>
+      </c>
+      <c r="Z8" s="19" t="n">
         <f aca="false">(88-12)/(ABS(Y8)- ABS(W8))</f>
-        <v>21.4749929358576</v>
-      </c>
-      <c r="AA8" s="26" t="n">
-        <v>-0.56</v>
-      </c>
-      <c r="AB8" s="28" t="n">
+        <v>26.9982238010657</v>
+      </c>
+      <c r="AA8" s="27" t="n">
+        <v>-1.608</v>
+      </c>
+      <c r="AB8" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC8" s="29" t="n">
+      <c r="AC8" s="15" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD8" s="29" t="n">
+      <c r="AD8" s="15" t="n">
         <v>0.3066</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="18" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" s="19" t="n">
         <f aca="false">EXP(LN(C9)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="19" t="n">
         <f aca="false">EXP(LN(C9)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E9" s="19" t="n">
-        <v>16.192170819</v>
-      </c>
-      <c r="F9" s="20" t="n">
-        <v>29.2083333333333</v>
-      </c>
-      <c r="G9" s="18" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="H9" s="18" t="n">
-        <v>98.63</v>
-      </c>
-      <c r="I9" s="22" t="n">
+      <c r="E9" s="28" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F9" s="27" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="I9" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="J9" s="29" t="n">
+      <c r="J9" s="23" t="n">
         <v>3.85794536330718</v>
       </c>
-      <c r="K9" s="23" t="n">
+      <c r="K9" s="24" t="n">
         <f aca="false">1/J9</f>
         <v>0.259205329736127</v>
       </c>
-      <c r="L9" s="18" t="n">
+      <c r="L9" s="19" t="n">
         <f aca="false">100*((1/I9) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M9" s="18" t="n">
+      <c r="M9" s="19" t="n">
         <f aca="false">J9*(N9-L9*(1- (1/J9)))</f>
-        <v>361.065655410742</v>
-      </c>
-      <c r="N9" s="21" t="n">
-        <v>151</v>
-      </c>
-      <c r="O9" s="6" t="n">
+        <v>252.089670893927</v>
+      </c>
+      <c r="N9" s="17" t="n">
+        <v>122.752844</v>
+      </c>
+      <c r="O9" s="25" t="n">
         <v>-0.72</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="25" t="n">
         <v>5.92</v>
       </c>
-      <c r="Q9" s="25" t="n">
+      <c r="Q9" s="26" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R9" s="26" t="n">
+      <c r="R9" s="27" t="n">
         <f aca="false">0.52-4.16*I9</f>
         <v>-2.392</v>
       </c>
-      <c r="S9" s="26" t="n">
+      <c r="S9" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I9)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T9" s="27" t="n">
+      <c r="T9" s="28" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U9" s="18" t="n">
+      <c r="U9" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V9" s="27" t="n">
+      <c r="V9" s="28" t="n">
         <v>2.9075</v>
       </c>
-      <c r="W9" s="20" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="X9" s="20" t="n">
+      <c r="W9" s="27" t="n">
+        <v>-2.001</v>
+      </c>
+      <c r="X9" s="27" t="n">
         <v>-3.62</v>
       </c>
-      <c r="Y9" s="20" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="Z9" s="21" t="n">
-        <v>65.50862069</v>
-      </c>
-      <c r="AA9" s="26" t="n">
+      <c r="Y9" s="27" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="Z9" s="19" t="n">
+        <f aca="false">(88-12)/(ABS(Y9)- ABS(W9))</f>
+        <v>21.4749929358576</v>
+      </c>
+      <c r="AA9" s="27" t="n">
         <v>-0.56</v>
       </c>
-      <c r="AB9" s="28" t="n">
+      <c r="AB9" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC9" s="29" t="n">
+      <c r="AC9" s="15" t="n">
         <v>0.0085</v>
       </c>
-      <c r="AD9" s="29" t="n">
+      <c r="AD9" s="15" t="n">
         <v>0.3066</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B10" s="19" t="n">
         <f aca="false">EXP(LN(C10)/1.4)</f>
-        <v>185.625062808954</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D10" s="18" t="n">
+        <v>72.2128157528199</v>
+      </c>
+      <c r="C10" s="19" t="n">
+        <v>400</v>
+      </c>
+      <c r="D10" s="19" t="n">
         <f aca="false">EXP(LN(C10)/0.95)</f>
-        <v>2204.21501725585</v>
-      </c>
-      <c r="E10" s="19" t="n">
-        <v>8.03</v>
-      </c>
-      <c r="F10" s="20" t="n">
-        <v>10.675</v>
-      </c>
-      <c r="G10" s="18" t="n">
-        <v>51.19</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <v>92.79</v>
-      </c>
-      <c r="I10" s="22" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <v>1.95223310621838</v>
-      </c>
-      <c r="K10" s="23" t="n">
+        <v>548.290242550687</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <v>16.192170819</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>29.2083333333333</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>98.63</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>3.85794536330718</v>
+      </c>
+      <c r="K10" s="24" t="n">
         <f aca="false">1/J10</f>
-        <v>0.512233911419049</v>
-      </c>
-      <c r="L10" s="18" t="n">
+        <v>0.259205329736127</v>
+      </c>
+      <c r="L10" s="19" t="n">
         <f aca="false">100*((1/I10) - (1/1.53))</f>
-        <v>73.5294117647059</v>
-      </c>
-      <c r="M10" s="18" t="n">
+        <v>77.4976657329599</v>
+      </c>
+      <c r="M10" s="19" t="n">
         <f aca="false">J10*(N10-L10*(1- (1/J10)))</f>
-        <v>142.092516610382</v>
-      </c>
-      <c r="N10" s="21" t="n">
-        <v>108.649759138841</v>
-      </c>
-      <c r="O10" s="30" t="n">
-        <v>-2.80162794800361</v>
-      </c>
-      <c r="P10" s="30" t="n">
-        <v>22.3517952586394</v>
-      </c>
-      <c r="Q10" s="25" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="R10" s="26" t="n">
+        <v>361.065655410742</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>151</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>0.2609</v>
+      </c>
+      <c r="R10" s="27" t="n">
         <f aca="false">0.52-4.16*I10</f>
-        <v>-2.4752</v>
-      </c>
-      <c r="S10" s="26" t="n">
+        <v>-2.392</v>
+      </c>
+      <c r="S10" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I10)- 2.89)^0.5</f>
-        <v>21.472586904924</v>
-      </c>
-      <c r="T10" s="27" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="U10" s="21" t="n">
-        <v>2040</v>
-      </c>
-      <c r="V10" s="14" t="n">
-        <v>0.0693018125</v>
-      </c>
-      <c r="W10" s="31" t="n">
-        <v>-4.338385029</v>
-      </c>
-      <c r="X10" s="30" t="n">
-        <v>-11.4510026</v>
-      </c>
-      <c r="Y10" s="30" t="n">
-        <v>-18.56362017</v>
-      </c>
-      <c r="Z10" s="15" t="n">
-        <v>7.0420149194</v>
-      </c>
-      <c r="AA10" s="30" t="n">
-        <v>-3.24247138458736</v>
-      </c>
-      <c r="AB10" s="28" t="n">
+        <v>19.7113775734304</v>
+      </c>
+      <c r="T10" s="28" t="n">
+        <v>0.6096</v>
+      </c>
+      <c r="U10" s="19" t="n">
+        <v>13004</v>
+      </c>
+      <c r="V10" s="28" t="n">
+        <v>2.9075</v>
+      </c>
+      <c r="W10" s="21" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="X10" s="21" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="Y10" s="21" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="Z10" s="22" t="n">
+        <v>65.50862069</v>
+      </c>
+      <c r="AA10" s="27" t="n">
+        <v>-0.56</v>
+      </c>
+      <c r="AB10" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC10" s="12" t="n">
-        <v>0.0053115</v>
-      </c>
-      <c r="AD10" s="29" t="n">
-        <v>0.17233</v>
+      <c r="AC10" s="15" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="AD10" s="15" t="n">
+        <v>0.3066</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="18" t="n">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19" t="n">
         <f aca="false">EXP(LN(C11)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="19" t="n">
         <f aca="false">EXP(LN(C11)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E11" s="19" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="F11" s="20" t="n">
-        <v>14.1416666665</v>
-      </c>
-      <c r="G11" s="18" t="n">
-        <v>46.77</v>
-      </c>
-      <c r="H11" s="18" t="n">
-        <v>85.97</v>
-      </c>
-      <c r="I11" s="22" t="n">
+      <c r="E11" s="20" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>51.19</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>92.79</v>
+      </c>
+      <c r="I11" s="23" t="n">
         <v>0.72</v>
       </c>
-      <c r="J11" s="22" t="n">
-        <v>2.55484265546135</v>
-      </c>
-      <c r="K11" s="23" t="n">
+      <c r="J11" s="23" t="n">
+        <v>1.95223310621838</v>
+      </c>
+      <c r="K11" s="24" t="n">
         <f aca="false">1/J11</f>
-        <v>0.391413536901129</v>
-      </c>
-      <c r="L11" s="18" t="n">
+        <v>0.512233911419049</v>
+      </c>
+      <c r="L11" s="19" t="n">
         <f aca="false">100*((1/I11) - (1/1.53))</f>
         <v>73.5294117647059</v>
       </c>
-      <c r="M11" s="18" t="n">
+      <c r="M11" s="19" t="n">
         <f aca="false">J11*(N11-L11*(1- (1/J11)))</f>
-        <v>185.680773679362</v>
-      </c>
-      <c r="N11" s="21" t="n">
-        <v>117.426973</v>
-      </c>
-      <c r="O11" s="24" t="n">
-        <v>-1.67</v>
-      </c>
-      <c r="P11" s="24" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="Q11" s="25" t="n">
+        <v>142.092516610382</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>108.649759138841</v>
+      </c>
+      <c r="O11" s="30" t="n">
+        <v>-2.80162794800361</v>
+      </c>
+      <c r="P11" s="30" t="n">
+        <v>22.3517952586394</v>
+      </c>
+      <c r="Q11" s="26" t="n">
         <v>0.466</v>
       </c>
-      <c r="R11" s="26" t="n">
+      <c r="R11" s="27" t="n">
         <f aca="false">0.52-4.16*I11</f>
         <v>-2.4752</v>
       </c>
-      <c r="S11" s="26" t="n">
+      <c r="S11" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I11)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T11" s="27" t="n">
+      <c r="T11" s="28" t="n">
         <v>0.742</v>
       </c>
-      <c r="U11" s="18" t="n">
-        <v>2042.495</v>
-      </c>
-      <c r="V11" s="27" t="n">
-        <v>0.668</v>
-      </c>
-      <c r="W11" s="26" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="X11" s="26" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="Y11" s="26" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="Z11" s="18" t="n">
-        <f aca="false">(88-12)/(ABS(Y11)- ABS(W11))</f>
-        <v>25.3333333333333</v>
-      </c>
-      <c r="AA11" s="26" t="n">
-        <v>-1.63</v>
-      </c>
-      <c r="AB11" s="28" t="n">
+      <c r="U11" s="22" t="n">
+        <v>2040</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>0.0693018125</v>
+      </c>
+      <c r="W11" s="31" t="n">
+        <v>-4.338385029</v>
+      </c>
+      <c r="X11" s="30" t="n">
+        <v>-11.4510026</v>
+      </c>
+      <c r="Y11" s="30" t="n">
+        <v>-18.56362017</v>
+      </c>
+      <c r="Z11" s="17" t="n">
+        <v>7.0420149194</v>
+      </c>
+      <c r="AA11" s="30" t="n">
+        <v>-3.24247138458736</v>
+      </c>
+      <c r="AB11" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC11" s="29" t="n">
-        <v>0.00414</v>
-      </c>
-      <c r="AD11" s="29" t="n">
+      <c r="AC11" s="12" t="n">
+        <v>0.0053115</v>
+      </c>
+      <c r="AD11" s="15" t="n">
         <v>0.17233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="18" t="n">
+        <v>38</v>
+      </c>
+      <c r="B12" s="19" t="n">
         <f aca="false">EXP(LN(C12)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="19" t="n">
         <f aca="false">EXP(LN(C12)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E12" s="19" t="n">
-        <v>6.975</v>
-      </c>
-      <c r="F12" s="20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="G12" s="18" t="n">
-        <v>63.24</v>
-      </c>
-      <c r="H12" s="18" t="n">
-        <v>110.99</v>
-      </c>
-      <c r="I12" s="22" t="n">
+      <c r="E12" s="20" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>14.1416666665</v>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="I12" s="23" t="n">
         <v>0.72</v>
       </c>
-      <c r="J12" s="22" t="n">
+      <c r="J12" s="23" t="n">
         <v>2.55484265546135</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="24" t="n">
         <f aca="false">1/J12</f>
         <v>0.391413536901129</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="19" t="n">
         <f aca="false">100*((1/I12) - (1/1.53))</f>
         <v>73.5294117647059</v>
       </c>
-      <c r="M12" s="18" t="n">
+      <c r="M12" s="19" t="n">
         <f aca="false">J12*(N12-L12*(1- (1/J12)))</f>
-        <v>200.028081502337</v>
-      </c>
-      <c r="N12" s="21" t="n">
-        <v>123.0427035</v>
-      </c>
-      <c r="O12" s="30" t="n">
-        <v>-2.20987373229647</v>
-      </c>
-      <c r="P12" s="30" t="n">
-        <v>45.2098777291801</v>
-      </c>
-      <c r="Q12" s="25" t="n">
+        <v>185.680773679362</v>
+      </c>
+      <c r="N12" s="22" t="n">
+        <v>117.426973</v>
+      </c>
+      <c r="O12" s="25" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="P12" s="25" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="Q12" s="26" t="n">
         <v>0.466</v>
       </c>
-      <c r="R12" s="26" t="n">
+      <c r="R12" s="27" t="n">
         <f aca="false">0.52-4.16*I12</f>
         <v>-2.4752</v>
       </c>
-      <c r="S12" s="26" t="n">
+      <c r="S12" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I12)- 2.89)^0.5</f>
         <v>21.472586904924</v>
       </c>
-      <c r="T12" s="27" t="n">
+      <c r="T12" s="28" t="n">
         <v>0.742</v>
       </c>
-      <c r="U12" s="18" t="n">
+      <c r="U12" s="19" t="n">
         <v>2042.495</v>
       </c>
-      <c r="V12" s="14" t="n">
-        <v>0.1975867375</v>
-      </c>
-      <c r="W12" s="30" t="n">
-        <v>-0.926429729</v>
-      </c>
-      <c r="X12" s="30" t="n">
-        <v>-7.341125025</v>
-      </c>
-      <c r="Y12" s="30" t="n">
-        <v>-13.75582032</v>
-      </c>
-      <c r="Z12" s="15" t="n">
-        <v>7.813877822</v>
-      </c>
-      <c r="AA12" s="30" t="n">
-        <v>-2.93066544939765</v>
-      </c>
-      <c r="AB12" s="28" t="n">
+      <c r="V12" s="28" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="W12" s="27" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="X12" s="27" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="Y12" s="27" t="n">
+        <v>-4.41</v>
+      </c>
+      <c r="Z12" s="19" t="n">
+        <f aca="false">(88-12)/(ABS(Y12)- ABS(W12))</f>
+        <v>25.3333333333333</v>
+      </c>
+      <c r="AA12" s="27" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="AB12" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC12" s="12" t="n">
-        <v>0.004711</v>
-      </c>
-      <c r="AD12" s="29" t="n">
+      <c r="AC12" s="15" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="AD12" s="15" t="n">
         <v>0.17233</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="18" t="n">
+        <v>39</v>
+      </c>
+      <c r="B13" s="19" t="n">
         <f aca="false">EXP(LN(C13)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <f aca="false">EXP(LN(C13)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E13" s="14" t="n">
-        <v>10.858</v>
-      </c>
-      <c r="F13" s="26" t="n">
-        <v>26.32</v>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>69.95</v>
-      </c>
-      <c r="H13" s="18" t="n">
-        <v>120.89</v>
-      </c>
-      <c r="I13" s="22" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J13" s="29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K13" s="23" t="n">
+      <c r="E13" s="20" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="I13" s="23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J13" s="23" t="n">
+        <v>2.55484265546135</v>
+      </c>
+      <c r="K13" s="24" t="n">
         <f aca="false">1/J13</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L13" s="18" t="n">
+        <v>0.391413536901129</v>
+      </c>
+      <c r="L13" s="19" t="n">
         <f aca="false">100*((1/I13) - (1/1.53))</f>
-        <v>95.9308454564622</v>
-      </c>
-      <c r="M13" s="18" t="n">
+        <v>73.5294117647059</v>
+      </c>
+      <c r="M13" s="19" t="n">
         <f aca="false">J13*(N13-L13*(1- (1/J13)))</f>
-        <v>156.680702271769</v>
-      </c>
-      <c r="N13" s="21" t="n">
-        <v>136.43075</v>
+        <v>200.028081502337</v>
+      </c>
+      <c r="N13" s="22" t="n">
+        <v>123.0427035</v>
       </c>
       <c r="O13" s="30" t="n">
-        <v>-1.8525592242383</v>
+        <v>-2.20987373229647</v>
       </c>
       <c r="P13" s="30" t="n">
-        <v>8.13590559168222</v>
-      </c>
-      <c r="Q13" s="25" t="n">
-        <v>0.2609</v>
-      </c>
-      <c r="R13" s="26" t="n">
+        <v>45.2098777291801</v>
+      </c>
+      <c r="Q13" s="26" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="R13" s="27" t="n">
         <f aca="false">0.52-4.16*I13</f>
-        <v>-2.0592</v>
-      </c>
-      <c r="S13" s="26" t="n">
+        <v>-2.4752</v>
+      </c>
+      <c r="S13" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I13)- 2.89)^0.5</f>
-        <v>13.9790658376839</v>
-      </c>
-      <c r="T13" s="27" t="n">
-        <v>0.6096</v>
-      </c>
-      <c r="U13" s="18" t="n">
-        <v>13004</v>
+        <v>21.472586904924</v>
+      </c>
+      <c r="T13" s="28" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="U13" s="19" t="n">
+        <v>2042.495</v>
       </c>
       <c r="V13" s="14" t="n">
-        <v>0.1286961952</v>
+        <v>0.1975867375</v>
       </c>
       <c r="W13" s="30" t="n">
-        <v>-4.1592617</v>
+        <v>-0.926429729</v>
       </c>
       <c r="X13" s="30" t="n">
-        <v>-7.073297018</v>
+        <v>-7.341125025</v>
       </c>
       <c r="Y13" s="30" t="n">
-        <v>-9.987332337</v>
-      </c>
-      <c r="Z13" s="15" t="n">
-        <v>17.886935033</v>
+        <v>-13.75582032</v>
+      </c>
+      <c r="Z13" s="17" t="n">
+        <v>7.813877822</v>
       </c>
       <c r="AA13" s="30" t="n">
-        <v>-2.58059968993449</v>
-      </c>
-      <c r="AB13" s="28" t="n">
+        <v>-2.93066544939765</v>
+      </c>
+      <c r="AB13" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>0.01399</v>
-      </c>
-      <c r="AD13" s="29" t="n">
-        <v>0.3066</v>
+        <v>0.004711</v>
+      </c>
+      <c r="AD13" s="15" t="n">
+        <v>0.17233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" s="19" t="n">
         <f aca="false">EXP(LN(C14)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <f aca="false">EXP(LN(C14)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E14" s="19" t="n">
-        <v>5.928</v>
-      </c>
-      <c r="F14" s="26" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>88.537</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <v>147.59</v>
-      </c>
-      <c r="I14" s="22" t="n">
+      <c r="E14" s="14" t="n">
+        <v>10.858</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>120.89</v>
+      </c>
+      <c r="I14" s="23" t="n">
         <v>0.62</v>
       </c>
-      <c r="J14" s="29" t="n">
+      <c r="J14" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" s="23" t="n">
+      <c r="K14" s="24" t="n">
         <f aca="false">1/J14</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="19" t="n">
         <f aca="false">100*((1/I14) - (1/1.53))</f>
         <v>95.9308454564622</v>
       </c>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="19" t="n">
         <f aca="false">J14*(N14-L14*(1- (1/J14)))</f>
-        <v>126.28283723674</v>
-      </c>
-      <c r="N14" s="21" t="n">
-        <v>116.165506643314</v>
+        <v>156.680702271769</v>
+      </c>
+      <c r="N14" s="22" t="n">
+        <v>136.43075</v>
       </c>
       <c r="O14" s="30" t="n">
-        <v>-1.9269940661065</v>
+        <v>-1.8525592242383</v>
       </c>
       <c r="P14" s="30" t="n">
-        <v>13.6175966567185</v>
-      </c>
-      <c r="Q14" s="25" t="n">
+        <v>8.13590559168222</v>
+      </c>
+      <c r="Q14" s="26" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R14" s="26" t="n">
+      <c r="R14" s="27" t="n">
         <f aca="false">0.52-4.16*I14</f>
         <v>-2.0592</v>
       </c>
-      <c r="S14" s="26" t="n">
+      <c r="S14" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I14)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T14" s="27" t="n">
+      <c r="T14" s="28" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U14" s="18" t="n">
+      <c r="U14" s="19" t="n">
         <v>13004</v>
       </c>
       <c r="V14" s="14" t="n">
-        <v>0.2084861967</v>
+        <v>0.1286961952</v>
       </c>
       <c r="W14" s="30" t="n">
-        <v>-2.956328846</v>
+        <v>-4.1592617</v>
       </c>
       <c r="X14" s="30" t="n">
-        <v>-5.517944502</v>
+        <v>-7.073297018</v>
       </c>
       <c r="Y14" s="30" t="n">
-        <v>-8.079560157</v>
-      </c>
-      <c r="Z14" s="15" t="n">
-        <v>21.388584916</v>
+        <v>-9.987332337</v>
+      </c>
+      <c r="Z14" s="17" t="n">
+        <v>17.886935033</v>
       </c>
       <c r="AA14" s="30" t="n">
-        <v>-2.33723157320728</v>
-      </c>
-      <c r="AB14" s="28" t="n">
+        <v>-2.58059968993449</v>
+      </c>
+      <c r="AB14" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC14" s="12" t="n">
-        <v>0.01658</v>
-      </c>
-      <c r="AD14" s="29" t="n">
+        <v>0.01399</v>
+      </c>
+      <c r="AD14" s="15" t="n">
         <v>0.3066</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="B15" s="19" t="n">
         <f aca="false">EXP(LN(C15)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <f aca="false">EXP(LN(C15)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E15" s="19" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="F15" s="26" t="n">
-        <v>42.42</v>
-      </c>
-      <c r="G15" s="18" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="H15" s="18" t="n">
-        <v>52.16</v>
-      </c>
-      <c r="I15" s="22" t="n">
+      <c r="E15" s="20" t="n">
+        <v>5.928</v>
+      </c>
+      <c r="F15" s="27" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>88.537</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>147.59</v>
+      </c>
+      <c r="I15" s="23" t="n">
         <v>0.62</v>
       </c>
-      <c r="J15" s="29" t="n">
+      <c r="J15" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="K15" s="23" t="n">
+      <c r="K15" s="24" t="n">
         <f aca="false">1/J15</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="19" t="n">
         <f aca="false">100*((1/I15) - (1/1.53))</f>
         <v>95.9308454564622</v>
       </c>
-      <c r="M15" s="18" t="n">
+      <c r="M15" s="19" t="n">
         <f aca="false">J15*(N15-L15*(1- (1/J15)))</f>
-        <v>180.698858271769</v>
-      </c>
-      <c r="N15" s="21" t="n">
-        <v>152.442854</v>
-      </c>
-      <c r="O15" s="24" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="P15" s="24" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="Q15" s="25" t="n">
+        <v>126.28283723674</v>
+      </c>
+      <c r="N15" s="22" t="n">
+        <v>116.165506643314</v>
+      </c>
+      <c r="O15" s="30" t="n">
+        <v>-1.9269940661065</v>
+      </c>
+      <c r="P15" s="30" t="n">
+        <v>13.6175966567185</v>
+      </c>
+      <c r="Q15" s="26" t="n">
         <v>0.2609</v>
       </c>
-      <c r="R15" s="26" t="n">
+      <c r="R15" s="27" t="n">
         <f aca="false">0.52-4.16*I15</f>
         <v>-2.0592</v>
       </c>
-      <c r="S15" s="26" t="n">
+      <c r="S15" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I15)- 2.89)^0.5</f>
         <v>13.9790658376839</v>
       </c>
-      <c r="T15" s="27" t="n">
+      <c r="T15" s="28" t="n">
         <v>0.6096</v>
       </c>
-      <c r="U15" s="18" t="n">
+      <c r="U15" s="19" t="n">
         <v>13004</v>
       </c>
-      <c r="V15" s="27" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="W15" s="26" t="n">
-        <v>-1.215</v>
-      </c>
-      <c r="X15" s="26" t="n">
-        <v>-2.39</v>
-      </c>
-      <c r="Y15" s="26" t="n">
-        <v>-4.039</v>
-      </c>
-      <c r="Z15" s="18" t="n">
-        <f aca="false">(88-12)/(ABS(Y15)- ABS(W15))</f>
-        <v>26.9121813031162</v>
-      </c>
-      <c r="AA15" s="26" t="n">
-        <v>-1.608</v>
-      </c>
-      <c r="AB15" s="28" t="n">
+      <c r="V15" s="14" t="n">
+        <v>0.2084861967</v>
+      </c>
+      <c r="W15" s="30" t="n">
+        <v>-2.956328846</v>
+      </c>
+      <c r="X15" s="30" t="n">
+        <v>-5.517944502</v>
+      </c>
+      <c r="Y15" s="30" t="n">
+        <v>-8.079560157</v>
+      </c>
+      <c r="Z15" s="17" t="n">
+        <v>21.388584916</v>
+      </c>
+      <c r="AA15" s="30" t="n">
+        <v>-2.33723157320728</v>
+      </c>
+      <c r="AB15" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC15" s="29" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="AD15" s="29" t="n">
+      <c r="AC15" s="12" t="n">
+        <v>0.01658</v>
+      </c>
+      <c r="AD15" s="15" t="n">
         <v>0.3066</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" s="19" t="n">
         <f aca="false">EXP(LN(C16)/1.4)</f>
         <v>185.625062808954</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="19" t="n">
         <v>1500</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <f aca="false">EXP(LN(C16)/0.95)</f>
         <v>2204.21501725585</v>
       </c>
-      <c r="E16" s="19" t="n">
-        <v>5.80621691921868</v>
-      </c>
-      <c r="F16" s="20" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="G16" s="18" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="H16" s="18" t="n">
-        <v>157.6</v>
-      </c>
-      <c r="I16" s="22" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="J16" s="22" t="n">
-        <v>1.482</v>
-      </c>
-      <c r="K16" s="23" t="n">
+      <c r="E16" s="20" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="F16" s="27" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>52.16</v>
+      </c>
+      <c r="I16" s="23" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="24" t="n">
         <f aca="false">1/J16</f>
-        <v>0.67476383265857</v>
-      </c>
-      <c r="L16" s="18" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L16" s="19" t="n">
         <f aca="false">100*((1/I16) - (1/1.53))</f>
-        <v>113.211951447246</v>
-      </c>
-      <c r="M16" s="18" t="n">
+        <v>95.9308454564622</v>
+      </c>
+      <c r="M16" s="19" t="n">
         <f aca="false">J16*(N16-L16*(1- (1/J16)))</f>
-        <v>115.388832426428</v>
-      </c>
-      <c r="N16" s="21" t="n">
-        <v>114.680832</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="P16" s="24" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="Q16" s="25" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="R16" s="26" t="n">
+        <v>180.698858271769</v>
+      </c>
+      <c r="N16" s="22" t="n">
+        <v>152.442854</v>
+      </c>
+      <c r="O16" s="25" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="P16" s="25" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="Q16" s="26" t="n">
+        <v>0.2609</v>
+      </c>
+      <c r="R16" s="27" t="n">
         <f aca="false">0.52-4.16*I16</f>
-        <v>-1.8096</v>
-      </c>
-      <c r="S16" s="26" t="n">
+        <v>-2.0592</v>
+      </c>
+      <c r="S16" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I16)- 2.89)^0.5</f>
-        <v>10.7791857028706</v>
-      </c>
-      <c r="T16" s="27" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="U16" s="21" t="n">
-        <v>2980</v>
-      </c>
-      <c r="V16" s="27" t="n">
-        <v>0.3268</v>
-      </c>
-      <c r="W16" s="26" t="n">
-        <v>-5.71</v>
-      </c>
-      <c r="X16" s="26" t="n">
-        <v>-9.42</v>
-      </c>
-      <c r="Y16" s="26" t="n">
-        <v>-12.64</v>
-      </c>
-      <c r="Z16" s="18" t="n">
+        <v>13.9790658376839</v>
+      </c>
+      <c r="T16" s="28" t="n">
+        <v>0.6096</v>
+      </c>
+      <c r="U16" s="19" t="n">
+        <v>13004</v>
+      </c>
+      <c r="V16" s="28" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W16" s="27" t="n">
+        <v>-1.215</v>
+      </c>
+      <c r="X16" s="27" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="Y16" s="27" t="n">
+        <v>-4.039</v>
+      </c>
+      <c r="Z16" s="19" t="n">
         <f aca="false">(88-12)/(ABS(Y16)- ABS(W16))</f>
-        <v>10.966810966811</v>
-      </c>
-      <c r="AA16" s="30" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AB16" s="28" t="n">
+        <v>26.9121813031162</v>
+      </c>
+      <c r="AA16" s="27" t="n">
+        <v>-1.608</v>
+      </c>
+      <c r="AB16" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC16" s="12" t="n">
-        <v>0.00705467372114286</v>
-      </c>
-      <c r="AD16" s="28" t="n">
-        <v>0.084</v>
+      <c r="AC16" s="15" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="AD16" s="15" t="n">
+        <v>0.3066</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="B17" s="19" t="n">
         <f aca="false">EXP(LN(C17)/1.4)</f>
-        <v>267.362200013348</v>
-      </c>
-      <c r="C17" s="18" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D17" s="18" t="n">
+        <v>185.625062808954</v>
+      </c>
+      <c r="C17" s="19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="19" t="n">
         <f aca="false">EXP(LN(C17)/0.95)</f>
-        <v>3773.80066347525</v>
-      </c>
-      <c r="E17" s="19" t="n">
-        <v>4.57561414355</v>
-      </c>
-      <c r="F17" s="20" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>54.36</v>
-      </c>
-      <c r="H17" s="18" t="n">
-        <v>120.6</v>
-      </c>
-      <c r="I17" s="22" t="n">
-        <v>0.6077</v>
-      </c>
-      <c r="J17" s="22" t="n">
-        <v>1.96422645197988</v>
-      </c>
-      <c r="K17" s="23" t="n">
+        <v>2204.21501725585</v>
+      </c>
+      <c r="E17" s="20" t="n">
+        <v>5.80621691921868</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="J17" s="23" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="K17" s="24" t="n">
         <f aca="false">1/J17</f>
-        <v>0.509106268776714</v>
-      </c>
-      <c r="L17" s="18" t="n">
+        <v>0.67476383265857</v>
+      </c>
+      <c r="L17" s="19" t="n">
         <f aca="false">100*((1/I17) - (1/1.53))</f>
-        <v>99.1954019279809</v>
-      </c>
-      <c r="M17" s="18" t="n">
+        <v>113.211951447246</v>
+      </c>
+      <c r="M17" s="19" t="n">
         <f aca="false">J17*(N17-L17*(1- (1/J17)))</f>
-        <v>140.06034378385</v>
-      </c>
-      <c r="N17" s="21" t="n">
-        <v>120</v>
-      </c>
-      <c r="O17" s="30" t="n">
-        <v>-1.5011</v>
-      </c>
-      <c r="P17" s="30" t="n">
-        <v>5.31784425645142</v>
-      </c>
-      <c r="Q17" s="32" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R17" s="26" t="n">
+        <v>115.388832426428</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>114.680832</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="25" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q17" s="26" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="R17" s="27" t="n">
         <f aca="false">0.52-4.16*I17</f>
-        <v>-2.008032</v>
-      </c>
-      <c r="S17" s="26" t="n">
+        <v>-1.8096</v>
+      </c>
+      <c r="S17" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I17)- 2.89)^0.5</f>
-        <v>13.2562652363486</v>
-      </c>
-      <c r="T17" s="27" t="n">
-        <v>0.9289</v>
-      </c>
-      <c r="U17" s="21" t="n">
-        <v>1320</v>
-      </c>
-      <c r="V17" s="19" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W17" s="20" t="n">
-        <v>-4.2680973065</v>
-      </c>
-      <c r="X17" s="20" t="n">
-        <v>-4.671333333</v>
-      </c>
-      <c r="Y17" s="20" t="n">
-        <v>-5.306472053</v>
-      </c>
-      <c r="Z17" s="21" t="n">
-        <v>59.44</v>
-      </c>
-      <c r="AA17" s="20" t="n">
-        <v>-1.575</v>
-      </c>
-      <c r="AB17" s="28" t="n">
+        <v>10.7791857028706</v>
+      </c>
+      <c r="T17" s="28" t="n">
+        <v>0.932</v>
+      </c>
+      <c r="U17" s="22" t="n">
+        <v>2980</v>
+      </c>
+      <c r="V17" s="28" t="n">
+        <v>0.3268</v>
+      </c>
+      <c r="W17" s="27" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="X17" s="27" t="n">
+        <v>-9.42</v>
+      </c>
+      <c r="Y17" s="27" t="n">
+        <v>-12.64</v>
+      </c>
+      <c r="Z17" s="19" t="n">
+        <f aca="false">(88-12)/(ABS(Y17)- ABS(W17))</f>
+        <v>10.966810966811</v>
+      </c>
+      <c r="AA17" s="30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AB17" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC17" s="12" t="n">
-        <v>0.00203125</v>
-      </c>
-      <c r="AD17" s="28" t="n">
-        <v>0.158</v>
+        <v>0.00705467372114286</v>
+      </c>
+      <c r="AD17" s="29" t="n">
+        <v>0.084</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="18" t="n">
+        <v>44</v>
+      </c>
+      <c r="B18" s="19" t="n">
         <f aca="false">EXP(LN(C18)/1.4)</f>
-        <v>185.625062808954</v>
-      </c>
-      <c r="C18" s="18" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D18" s="18" t="n">
+        <v>267.362200013348</v>
+      </c>
+      <c r="C18" s="19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D18" s="19" t="n">
         <f aca="false">EXP(LN(C18)/0.95)</f>
-        <v>2204.21501725585</v>
-      </c>
-      <c r="E18" s="19" t="n">
-        <v>4.82033304119194</v>
-      </c>
-      <c r="F18" s="20" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>60.11</v>
-      </c>
-      <c r="H18" s="18" t="n">
-        <v>106.37</v>
-      </c>
-      <c r="I18" s="22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J18" s="22" t="n">
-        <v>2.28945240589391</v>
-      </c>
-      <c r="K18" s="23" t="n">
+        <v>3773.80066347525</v>
+      </c>
+      <c r="E18" s="20" t="n">
+        <v>4.57561414355</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>0.6077</v>
+      </c>
+      <c r="J18" s="23" t="n">
+        <v>1.96422645197988</v>
+      </c>
+      <c r="K18" s="24" t="n">
         <f aca="false">1/J18</f>
-        <v>0.436785668671524</v>
-      </c>
-      <c r="L18" s="18" t="n">
+        <v>0.509106268776714</v>
+      </c>
+      <c r="L18" s="19" t="n">
         <f aca="false">100*((1/I18) - (1/1.53))</f>
-        <v>71.62682424568</v>
-      </c>
-      <c r="M18" s="18" t="n">
+        <v>99.1954019279809</v>
+      </c>
+      <c r="M18" s="19" t="n">
         <f aca="false">J18*(N18-L18*(1- (1/J18)))</f>
-        <v>128.651567823179</v>
-      </c>
-      <c r="N18" s="21" t="n">
-        <v>96.5344149999999</v>
+        <v>140.06034378385</v>
+      </c>
+      <c r="N18" s="22" t="n">
+        <v>120</v>
       </c>
       <c r="O18" s="30" t="n">
-        <v>-3.22489123711149</v>
+        <v>-1.5011</v>
       </c>
       <c r="P18" s="30" t="n">
-        <v>26.1350516060853</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="R18" s="26" t="n">
+        <v>5.31784425645142</v>
+      </c>
+      <c r="Q18" s="32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R18" s="27" t="n">
         <f aca="false">0.52-4.16*I18</f>
-        <v>-2.5168</v>
-      </c>
-      <c r="S18" s="26" t="n">
+        <v>-2.008032</v>
+      </c>
+      <c r="S18" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I18)- 2.89)^0.5</f>
-        <v>22.4105630241409</v>
-      </c>
-      <c r="T18" s="27" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="U18" s="21" t="n">
-        <v>2436.47453228934</v>
-      </c>
-      <c r="V18" s="14" t="n">
-        <v>0.2723431183</v>
-      </c>
-      <c r="W18" s="30" t="n">
-        <v>-4.048237444</v>
-      </c>
-      <c r="X18" s="30" t="n">
-        <v>-7.936104741</v>
-      </c>
-      <c r="Y18" s="30" t="n">
-        <v>-11.82397204</v>
-      </c>
-      <c r="Z18" s="15" t="n">
-        <v>13.34416461</v>
-      </c>
-      <c r="AA18" s="20" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="AB18" s="28" t="n">
+        <v>13.2562652363486</v>
+      </c>
+      <c r="T18" s="28" t="n">
+        <v>0.9289</v>
+      </c>
+      <c r="U18" s="22" t="n">
+        <v>1320</v>
+      </c>
+      <c r="V18" s="20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W18" s="21" t="n">
+        <v>-4.2680973065</v>
+      </c>
+      <c r="X18" s="21" t="n">
+        <v>-4.671333333</v>
+      </c>
+      <c r="Y18" s="21" t="n">
+        <v>-5.306472053</v>
+      </c>
+      <c r="Z18" s="22" t="n">
+        <v>59.44</v>
+      </c>
+      <c r="AA18" s="21" t="n">
+        <v>-1.575</v>
+      </c>
+      <c r="AB18" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC18" s="12" t="n">
-        <v>0.0079936</v>
-      </c>
-      <c r="AD18" s="28" t="n">
-        <v>0.219</v>
+        <v>0.00203125</v>
+      </c>
+      <c r="AD18" s="29" t="n">
+        <v>0.158</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="B19" s="19" t="n">
         <f aca="false">EXP(LN(C19)/1.4)</f>
-        <v>267.362200013348</v>
-      </c>
-      <c r="C19" s="18" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D19" s="18" t="n">
+        <v>185.625062808954</v>
+      </c>
+      <c r="C19" s="19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D19" s="19" t="n">
         <f aca="false">EXP(LN(C19)/0.95)</f>
-        <v>3773.80066347525</v>
-      </c>
-      <c r="E19" s="19" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="F19" s="20" t="n">
-        <v>13.8945</v>
-      </c>
-      <c r="G19" s="18" t="n">
-        <v>39.45</v>
-      </c>
-      <c r="H19" s="21" t="n">
-        <v>109.70364178</v>
-      </c>
-      <c r="I19" s="22" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J19" s="22" t="n">
-        <v>1.80587174083789</v>
-      </c>
-      <c r="K19" s="23" t="n">
+        <v>2204.21501725585</v>
+      </c>
+      <c r="E19" s="20" t="n">
+        <v>4.82033304119194</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="I19" s="23" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J19" s="23" t="n">
+        <v>2.28945240589391</v>
+      </c>
+      <c r="K19" s="24" t="n">
         <f aca="false">1/J19</f>
-        <v>0.553749182395434</v>
-      </c>
-      <c r="L19" s="18" t="n">
+        <v>0.436785668671524</v>
+      </c>
+      <c r="L19" s="19" t="n">
         <f aca="false">100*((1/I19) - (1/1.53))</f>
-        <v>45.7516339869281</v>
-      </c>
-      <c r="M19" s="18" t="n">
+        <v>71.62682424568</v>
+      </c>
+      <c r="M19" s="19" t="n">
         <f aca="false">J19*(N19-L19*(1- (1/J19)))</f>
-        <v>131.352495724182</v>
-      </c>
-      <c r="N19" s="21" t="n">
-        <v>93.1530411862769</v>
+        <v>128.651567823179</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>96.5344149999999</v>
       </c>
       <c r="O19" s="30" t="n">
-        <v>-2.66</v>
+        <v>-3.22489123711149</v>
       </c>
       <c r="P19" s="30" t="n">
-        <v>10.46</v>
+        <v>26.1350516060853</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R19" s="26" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R19" s="27" t="n">
         <f aca="false">0.52-4.16*I19</f>
-        <v>-3.224</v>
-      </c>
-      <c r="S19" s="26" t="n">
+        <v>-2.5168</v>
+      </c>
+      <c r="S19" s="27" t="n">
         <f aca="false">(1.02*EXP(8.5*I19)- 2.89)^0.5</f>
-        <v>46.2576318158267</v>
-      </c>
-      <c r="T19" s="27" t="n">
+        <v>22.4105630241409</v>
+      </c>
+      <c r="T19" s="28" t="n">
         <v>0.585</v>
       </c>
-      <c r="U19" s="21" t="n">
-        <v>1154.78476961139</v>
+      <c r="U19" s="22" t="n">
+        <v>2436.47453228934</v>
       </c>
       <c r="V19" s="14" t="n">
-        <v>0.16</v>
+        <v>0.2723431183</v>
       </c>
       <c r="W19" s="30" t="n">
-        <v>-4.93</v>
+        <v>-4.048237444</v>
       </c>
       <c r="X19" s="30" t="n">
-        <v>-7.13</v>
+        <v>-7.936104741</v>
       </c>
       <c r="Y19" s="30" t="n">
-        <v>-9.33</v>
-      </c>
-      <c r="Z19" s="15" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="AA19" s="20" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="AB19" s="28" t="n">
+        <v>-11.82397204</v>
+      </c>
+      <c r="Z19" s="17" t="n">
+        <v>13.34416461</v>
+      </c>
+      <c r="AA19" s="21" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="AB19" s="29" t="n">
         <v>30</v>
       </c>
       <c r="AC19" s="12" t="n">
-        <v>0.001659</v>
-      </c>
-      <c r="AD19" s="22" t="n">
-        <v>0.205</v>
+        <v>0.0079936</v>
+      </c>
+      <c r="AD19" s="29" t="n">
+        <v>0.219</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="19" t="n">
+        <f aca="false">EXP(LN(C20)/1.4)</f>
+        <v>267.362200013348</v>
+      </c>
+      <c r="C20" s="19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D20" s="19" t="n">
+        <f aca="false">EXP(LN(C20)/0.95)</f>
+        <v>3773.80066347525</v>
+      </c>
+      <c r="E20" s="20" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>13.8945</v>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>109.70364178</v>
+      </c>
+      <c r="I20" s="23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J20" s="23" t="n">
+        <v>1.80587174083789</v>
+      </c>
+      <c r="K20" s="24" t="n">
+        <f aca="false">1/J20</f>
+        <v>0.553749182395434</v>
+      </c>
+      <c r="L20" s="19" t="n">
+        <f aca="false">100*((1/I20) - (1/1.53))</f>
+        <v>45.7516339869281</v>
+      </c>
+      <c r="M20" s="19" t="n">
+        <f aca="false">J20*(N20-L20*(1- (1/J20)))</f>
+        <v>131.352495724182</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>93.1530411862769</v>
+      </c>
+      <c r="O20" s="30" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="P20" s="30" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R20" s="27" t="n">
+        <f aca="false">0.52-4.16*I20</f>
+        <v>-3.224</v>
+      </c>
+      <c r="S20" s="27" t="n">
+        <f aca="false">(1.02*EXP(8.5*I20)- 2.89)^0.5</f>
+        <v>46.2576318158267</v>
+      </c>
+      <c r="T20" s="28" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="U20" s="22" t="n">
+        <v>1154.78476961139</v>
+      </c>
+      <c r="V20" s="14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W20" s="30" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="X20" s="30" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="Y20" s="30" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="Z20" s="17" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="AA20" s="21" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="AB20" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC20" s="12" t="n">
+        <v>0.001659</v>
+      </c>
+      <c r="AD20" s="23" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <f aca="false">EXP(LN(C20)/1.4)</f>
+      <c r="B21" s="19" t="n">
+        <f aca="false">EXP(LN(C21)/1.4)</f>
         <v>72.2128157528199</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C21" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="D20" s="18" t="n">
-        <f aca="false">EXP(LN(C20)/0.95)</f>
+      <c r="D21" s="19" t="n">
+        <f aca="false">EXP(LN(C21)/0.95)</f>
         <v>548.290242550687</v>
       </c>
-      <c r="E20" s="19" t="n">
+      <c r="E21" s="20" t="n">
         <v>4.8305439331</v>
       </c>
-      <c r="F20" s="20" t="n">
+      <c r="F21" s="21" t="n">
         <v>12.75</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G21" s="19" t="n">
         <v>71.69</v>
       </c>
-      <c r="H20" s="33" t="n">
+      <c r="H21" s="33" t="n">
         <v>123.43</v>
       </c>
-      <c r="I20" s="22" t="n">
+      <c r="I21" s="23" t="n">
         <v>0.7</v>
       </c>
-      <c r="J20" s="22" t="n">
+      <c r="J21" s="23" t="n">
         <v>3.1146926282787</v>
       </c>
-      <c r="K20" s="23" t="n">
-        <f aca="false">1/J20</f>
+      <c r="K21" s="24" t="n">
+        <f aca="false">1/J21</f>
         <v>0.321058967719919</v>
       </c>
-      <c r="L20" s="18" t="n">
-        <f aca="false">100*((1/I20) - (1/1.53))</f>
+      <c r="L21" s="19" t="n">
+        <f aca="false">100*((1/I21) - (1/1.53))</f>
         <v>77.4976657329599</v>
       </c>
-      <c r="M20" s="18" t="n">
-        <f aca="false">J20*(N20-L20*(1- (1/J20)))</f>
+      <c r="M21" s="19" t="n">
+        <f aca="false">J21*(N21-L21*(1- (1/J21)))</f>
         <v>304.589805648626</v>
       </c>
-      <c r="N20" s="21" t="n">
+      <c r="N21" s="22" t="n">
         <v>150.407633751591</v>
       </c>
-      <c r="O20" s="30" t="n">
+      <c r="O21" s="30" t="n">
         <v>-1.42274895336093</v>
       </c>
-      <c r="P20" s="30" t="n">
+      <c r="P21" s="30" t="n">
         <v>6.71280382204902</v>
       </c>
-      <c r="Q20" s="32" t="n">
+      <c r="Q21" s="32" t="n">
         <v>0.22</v>
       </c>
-      <c r="R20" s="26" t="n">
-        <f aca="false">0.52-4.16*I20</f>
+      <c r="R21" s="27" t="n">
+        <f aca="false">0.52-4.16*I21</f>
         <v>-2.392</v>
       </c>
-      <c r="S20" s="26" t="n">
-        <f aca="false">(1.02*EXP(8.5*I20)- 2.89)^0.5</f>
+      <c r="S21" s="27" t="n">
+        <f aca="false">(1.02*EXP(8.5*I21)- 2.89)^0.5</f>
         <v>19.7113775734304</v>
       </c>
-      <c r="T20" s="27" t="n">
+      <c r="T21" s="28" t="n">
         <v>0.6817</v>
       </c>
-      <c r="U20" s="18" t="n">
+      <c r="U21" s="19" t="n">
         <v>6104.68</v>
       </c>
-      <c r="V20" s="14" t="n">
+      <c r="V21" s="14" t="n">
         <v>0.3134571207</v>
       </c>
-      <c r="W20" s="30" t="n">
+      <c r="W21" s="30" t="n">
         <v>-5.713847822</v>
       </c>
-      <c r="X20" s="30" t="n">
+      <c r="X21" s="30" t="n">
         <v>-10.35976827</v>
       </c>
-      <c r="Y20" s="30" t="n">
+      <c r="Y21" s="30" t="n">
         <v>-15.00568872</v>
       </c>
-      <c r="Z20" s="15" t="n">
+      <c r="Z21" s="17" t="n">
         <v>11.102207209</v>
       </c>
-      <c r="AA20" s="30" t="n">
+      <c r="AA21" s="30" t="n">
         <v>-1.97322438194395</v>
       </c>
-      <c r="AB20" s="28" t="n">
+      <c r="AB21" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AC20" s="29" t="n">
+      <c r="AC21" s="15" t="n">
         <v>0.0052</v>
       </c>
-      <c r="AD20" s="29" t="n">
+      <c r="AD21" s="15" t="n">
         <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD20">
-    <sortState ref="A2:AD20">
-      <sortCondition ref="A2:A20" customList=""/>
+  <autoFilter ref="A1:AD21">
+    <sortState ref="A2:AD21">
+      <sortCondition ref="A2:A21" customList=""/>
     </sortState>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
